--- a/Excel datos/Datos P&T Version Actualizada.xlsx
+++ b/Excel datos/Datos P&T Version Actualizada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tunningcl-my.sharepoint.com/personal/felipe_quinteros_tunning_cl/Documents/Escritorio/proyecto de automatiacion/Excel datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1646" documentId="13_ncr:1_{11D514E8-F92C-40E6-9893-0AA97A7D8E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5F4A468-5E5D-49EC-980D-639673DC79A7}"/>
+  <xr:revisionPtr revIDLastSave="1652" documentId="13_ncr:1_{11D514E8-F92C-40E6-9893-0AA97A7D8E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{792E8A38-1F66-45E8-8993-9B1008A886ED}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20715" yWindow="-2250" windowWidth="20460" windowHeight="10770" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contactos Tecnicos" sheetId="1" r:id="rId1"/>
@@ -1761,9 +1761,6 @@
     <t>GHc226625410*</t>
   </si>
   <si>
-    <t>EFc19783269k*</t>
-  </si>
-  <si>
     <t>F. Huamanchumo</t>
   </si>
   <si>
@@ -1915,6 +1912,9 @@
   </si>
   <si>
     <t>Brau9191#</t>
+  </si>
+  <si>
+    <t>JTb19783269k*</t>
   </si>
 </sst>
 </file>
@@ -3568,6 +3568,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3602,22 +3605,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3644,9 +3647,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3664,6 +3664,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5110,22 +5114,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="222"/>
-      <c r="B1" s="222"/>
+      <c r="A1" s="223"/>
+      <c r="B1" s="223"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
       <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="222"/>
-      <c r="B2" s="222"/>
+      <c r="A2" s="223"/>
+      <c r="B2" s="223"/>
       <c r="C2" s="31" t="s">
         <v>0</v>
       </c>
@@ -6397,46 +6401,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="224" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="226" t="s">
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="227" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="226" t="s">
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="227" t="s">
         <v>207</v>
       </c>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="228"/>
-      <c r="P1" s="223" t="s">
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="229"/>
+      <c r="P1" s="224" t="s">
         <v>208</v>
       </c>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="225"/>
-      <c r="U1" s="223" t="s">
+      <c r="Q1" s="225"/>
+      <c r="R1" s="225"/>
+      <c r="S1" s="225"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="224" t="s">
         <v>209</v>
       </c>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="225"/>
-      <c r="Y1" s="223" t="s">
+      <c r="V1" s="225"/>
+      <c r="W1" s="225"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="224" t="s">
         <v>210</v>
       </c>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="224"/>
-      <c r="AB1" s="225"/>
+      <c r="Z1" s="225"/>
+      <c r="AA1" s="225"/>
+      <c r="AB1" s="226"/>
       <c r="AC1" s="46" t="s">
         <v>211</v>
       </c>
@@ -9647,135 +9651,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:142" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="227" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="223" t="s">
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="224" t="s">
         <v>371</v>
       </c>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="225"/>
-      <c r="P1" s="223" t="s">
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="224" t="s">
         <v>372</v>
       </c>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="225"/>
-      <c r="S1" s="223" t="s">
+      <c r="Q1" s="225"/>
+      <c r="R1" s="226"/>
+      <c r="S1" s="224" t="s">
         <v>373</v>
       </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="225"/>
-      <c r="X1" s="223" t="s">
+      <c r="T1" s="225"/>
+      <c r="U1" s="225"/>
+      <c r="V1" s="225"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="224" t="s">
         <v>374</v>
       </c>
-      <c r="Y1" s="225"/>
-      <c r="Z1" s="223" t="s">
+      <c r="Y1" s="226"/>
+      <c r="Z1" s="224" t="s">
         <v>375</v>
       </c>
-      <c r="AA1" s="224"/>
-      <c r="AB1" s="224"/>
-      <c r="AC1" s="224"/>
-      <c r="AD1" s="224"/>
-      <c r="AE1" s="224"/>
-      <c r="AF1" s="224"/>
-      <c r="AG1" s="224"/>
-      <c r="AH1" s="225"/>
-      <c r="AI1" s="223" t="s">
+      <c r="AA1" s="225"/>
+      <c r="AB1" s="225"/>
+      <c r="AC1" s="225"/>
+      <c r="AD1" s="225"/>
+      <c r="AE1" s="225"/>
+      <c r="AF1" s="225"/>
+      <c r="AG1" s="225"/>
+      <c r="AH1" s="226"/>
+      <c r="AI1" s="224" t="s">
         <v>376</v>
       </c>
-      <c r="AJ1" s="224"/>
-      <c r="AK1" s="224"/>
-      <c r="AL1" s="224"/>
-      <c r="AM1" s="224"/>
-      <c r="AN1" s="224"/>
-      <c r="AO1" s="224"/>
-      <c r="AP1" s="225"/>
-      <c r="AQ1" s="230" t="s">
+      <c r="AJ1" s="225"/>
+      <c r="AK1" s="225"/>
+      <c r="AL1" s="225"/>
+      <c r="AM1" s="225"/>
+      <c r="AN1" s="225"/>
+      <c r="AO1" s="225"/>
+      <c r="AP1" s="226"/>
+      <c r="AQ1" s="231" t="s">
         <v>377</v>
       </c>
-      <c r="AR1" s="231"/>
-      <c r="AS1" s="231"/>
-      <c r="AT1" s="231"/>
-      <c r="AU1" s="231"/>
-      <c r="AV1" s="231"/>
-      <c r="AW1" s="231"/>
-      <c r="AX1" s="231"/>
-      <c r="AY1" s="231"/>
-      <c r="AZ1" s="230" t="s">
+      <c r="AR1" s="232"/>
+      <c r="AS1" s="232"/>
+      <c r="AT1" s="232"/>
+      <c r="AU1" s="232"/>
+      <c r="AV1" s="232"/>
+      <c r="AW1" s="232"/>
+      <c r="AX1" s="232"/>
+      <c r="AY1" s="232"/>
+      <c r="AZ1" s="231" t="s">
         <v>378</v>
       </c>
-      <c r="BA1" s="231"/>
-      <c r="BB1" s="231"/>
-      <c r="BC1" s="231"/>
-      <c r="BD1" s="231"/>
-      <c r="BE1" s="231"/>
-      <c r="BF1" s="233"/>
-      <c r="BG1" s="230" t="s">
+      <c r="BA1" s="232"/>
+      <c r="BB1" s="232"/>
+      <c r="BC1" s="232"/>
+      <c r="BD1" s="232"/>
+      <c r="BE1" s="232"/>
+      <c r="BF1" s="234"/>
+      <c r="BG1" s="231" t="s">
         <v>379</v>
       </c>
-      <c r="BH1" s="231"/>
-      <c r="BI1" s="231"/>
-      <c r="BJ1" s="233"/>
-      <c r="BK1" s="230" t="s">
+      <c r="BH1" s="232"/>
+      <c r="BI1" s="232"/>
+      <c r="BJ1" s="234"/>
+      <c r="BK1" s="231" t="s">
         <v>380</v>
       </c>
-      <c r="BL1" s="233"/>
-      <c r="BM1" s="230" t="s">
+      <c r="BL1" s="234"/>
+      <c r="BM1" s="231" t="s">
         <v>381</v>
       </c>
-      <c r="BN1" s="231"/>
-      <c r="BO1" s="231"/>
-      <c r="BP1" s="231"/>
-      <c r="BQ1" s="231"/>
-      <c r="BR1" s="231"/>
-      <c r="BS1" s="231"/>
-      <c r="BT1" s="231"/>
-      <c r="BU1" s="231"/>
-      <c r="BV1" s="231"/>
-      <c r="BW1" s="231"/>
-      <c r="BX1" s="231"/>
-      <c r="BY1" s="233"/>
-      <c r="BZ1" s="230" t="s">
+      <c r="BN1" s="232"/>
+      <c r="BO1" s="232"/>
+      <c r="BP1" s="232"/>
+      <c r="BQ1" s="232"/>
+      <c r="BR1" s="232"/>
+      <c r="BS1" s="232"/>
+      <c r="BT1" s="232"/>
+      <c r="BU1" s="232"/>
+      <c r="BV1" s="232"/>
+      <c r="BW1" s="232"/>
+      <c r="BX1" s="232"/>
+      <c r="BY1" s="234"/>
+      <c r="BZ1" s="231" t="s">
         <v>382</v>
       </c>
-      <c r="CA1" s="231"/>
-      <c r="CB1" s="233"/>
-      <c r="CC1" s="230" t="s">
+      <c r="CA1" s="232"/>
+      <c r="CB1" s="234"/>
+      <c r="CC1" s="231" t="s">
         <v>383</v>
       </c>
-      <c r="CD1" s="231"/>
-      <c r="CE1" s="231"/>
-      <c r="CF1" s="231"/>
-      <c r="CG1" s="231"/>
-      <c r="CH1" s="231"/>
-      <c r="CI1" s="231"/>
-      <c r="CJ1" s="233"/>
+      <c r="CD1" s="232"/>
+      <c r="CE1" s="232"/>
+      <c r="CF1" s="232"/>
+      <c r="CG1" s="232"/>
+      <c r="CH1" s="232"/>
+      <c r="CI1" s="232"/>
+      <c r="CJ1" s="234"/>
       <c r="CK1" s="73"/>
       <c r="CL1" s="73"/>
       <c r="CM1" s="73"/>
       <c r="CN1" s="73"/>
       <c r="CO1" s="73"/>
-      <c r="CS1" s="229"/>
-      <c r="CT1" s="229"/>
-      <c r="CU1" s="229"/>
-      <c r="CV1" s="229"/>
-      <c r="CW1" s="229"/>
-      <c r="CX1" s="229"/>
-      <c r="CY1" s="229"/>
-      <c r="CZ1" s="229"/>
+      <c r="CS1" s="230"/>
+      <c r="CT1" s="230"/>
+      <c r="CU1" s="230"/>
+      <c r="CV1" s="230"/>
+      <c r="CW1" s="230"/>
+      <c r="CX1" s="230"/>
+      <c r="CY1" s="230"/>
+      <c r="CZ1" s="230"/>
     </row>
     <row r="2" spans="1:142" s="2" customFormat="1" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -19848,7 +19852,7 @@
   <dimension ref="A1:CZ9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19872,246 +19876,246 @@
       <c r="D1" s="55"/>
       <c r="E1" s="55"/>
       <c r="F1" s="56"/>
-      <c r="G1" s="224" t="s">
+      <c r="G1" s="225" t="s">
         <v>490</v>
       </c>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="224"/>
-      <c r="AB1" s="225"/>
-      <c r="AC1" s="223" t="s">
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="225"/>
+      <c r="P1" s="225"/>
+      <c r="Q1" s="225"/>
+      <c r="R1" s="225"/>
+      <c r="S1" s="225"/>
+      <c r="T1" s="225"/>
+      <c r="U1" s="225"/>
+      <c r="V1" s="225"/>
+      <c r="W1" s="225"/>
+      <c r="X1" s="225"/>
+      <c r="Y1" s="225"/>
+      <c r="Z1" s="225"/>
+      <c r="AA1" s="225"/>
+      <c r="AB1" s="226"/>
+      <c r="AC1" s="224" t="s">
         <v>491</v>
       </c>
-      <c r="AD1" s="224"/>
-      <c r="AE1" s="224"/>
-      <c r="AF1" s="224"/>
-      <c r="AG1" s="224"/>
-      <c r="AH1" s="224"/>
-      <c r="AI1" s="223" t="s">
+      <c r="AD1" s="225"/>
+      <c r="AE1" s="225"/>
+      <c r="AF1" s="225"/>
+      <c r="AG1" s="225"/>
+      <c r="AH1" s="225"/>
+      <c r="AI1" s="224" t="s">
         <v>492</v>
       </c>
-      <c r="AJ1" s="224"/>
-      <c r="AK1" s="224"/>
-      <c r="AL1" s="224"/>
-      <c r="AM1" s="224"/>
-      <c r="AN1" s="224"/>
-      <c r="AO1" s="224"/>
-      <c r="AP1" s="224"/>
-      <c r="AQ1" s="224"/>
-      <c r="AR1" s="224"/>
-      <c r="AS1" s="224"/>
-      <c r="AT1" s="224"/>
-      <c r="AU1" s="224"/>
-      <c r="AV1" s="224"/>
-      <c r="AW1" s="224"/>
-      <c r="AX1" s="224"/>
-      <c r="AY1" s="224"/>
-      <c r="AZ1" s="224"/>
-      <c r="BA1" s="224"/>
-      <c r="BB1" s="224"/>
-      <c r="BC1" s="224"/>
-      <c r="BD1" s="224"/>
-      <c r="BE1" s="224"/>
-      <c r="BF1" s="224"/>
-      <c r="BG1" s="224"/>
-      <c r="BH1" s="224"/>
-      <c r="BI1" s="224"/>
-      <c r="BJ1" s="224"/>
-      <c r="BK1" s="224"/>
-      <c r="BL1" s="224"/>
-      <c r="BM1" s="224"/>
-      <c r="BN1" s="224"/>
-      <c r="BO1" s="224"/>
-      <c r="BP1" s="224"/>
-      <c r="BQ1" s="224"/>
-      <c r="BR1" s="224"/>
-      <c r="BS1" s="224"/>
-      <c r="BT1" s="224"/>
-      <c r="BU1" s="224"/>
-      <c r="BV1" s="224"/>
-      <c r="BW1" s="224"/>
-      <c r="BX1" s="224"/>
-      <c r="BY1" s="224"/>
-      <c r="BZ1" s="225"/>
-      <c r="CA1" s="237" t="s">
+      <c r="AJ1" s="225"/>
+      <c r="AK1" s="225"/>
+      <c r="AL1" s="225"/>
+      <c r="AM1" s="225"/>
+      <c r="AN1" s="225"/>
+      <c r="AO1" s="225"/>
+      <c r="AP1" s="225"/>
+      <c r="AQ1" s="225"/>
+      <c r="AR1" s="225"/>
+      <c r="AS1" s="225"/>
+      <c r="AT1" s="225"/>
+      <c r="AU1" s="225"/>
+      <c r="AV1" s="225"/>
+      <c r="AW1" s="225"/>
+      <c r="AX1" s="225"/>
+      <c r="AY1" s="225"/>
+      <c r="AZ1" s="225"/>
+      <c r="BA1" s="225"/>
+      <c r="BB1" s="225"/>
+      <c r="BC1" s="225"/>
+      <c r="BD1" s="225"/>
+      <c r="BE1" s="225"/>
+      <c r="BF1" s="225"/>
+      <c r="BG1" s="225"/>
+      <c r="BH1" s="225"/>
+      <c r="BI1" s="225"/>
+      <c r="BJ1" s="225"/>
+      <c r="BK1" s="225"/>
+      <c r="BL1" s="225"/>
+      <c r="BM1" s="225"/>
+      <c r="BN1" s="225"/>
+      <c r="BO1" s="225"/>
+      <c r="BP1" s="225"/>
+      <c r="BQ1" s="225"/>
+      <c r="BR1" s="225"/>
+      <c r="BS1" s="225"/>
+      <c r="BT1" s="225"/>
+      <c r="BU1" s="225"/>
+      <c r="BV1" s="225"/>
+      <c r="BW1" s="225"/>
+      <c r="BX1" s="225"/>
+      <c r="BY1" s="225"/>
+      <c r="BZ1" s="226"/>
+      <c r="CA1" s="235" t="s">
         <v>493</v>
       </c>
-      <c r="CB1" s="234"/>
-      <c r="CC1" s="234"/>
-      <c r="CD1" s="234"/>
-      <c r="CE1" s="234"/>
-      <c r="CF1" s="234"/>
-      <c r="CG1" s="234"/>
-      <c r="CH1" s="234"/>
-      <c r="CI1" s="234"/>
-      <c r="CJ1" s="234"/>
-      <c r="CK1" s="234"/>
-      <c r="CL1" s="234"/>
-      <c r="CM1" s="234"/>
-      <c r="CN1" s="234"/>
-      <c r="CO1" s="234"/>
-      <c r="CP1" s="234"/>
-      <c r="CQ1" s="234"/>
-      <c r="CR1" s="234"/>
-      <c r="CS1" s="238"/>
+      <c r="CB1" s="236"/>
+      <c r="CC1" s="236"/>
+      <c r="CD1" s="236"/>
+      <c r="CE1" s="236"/>
+      <c r="CF1" s="236"/>
+      <c r="CG1" s="236"/>
+      <c r="CH1" s="236"/>
+      <c r="CI1" s="236"/>
+      <c r="CJ1" s="236"/>
+      <c r="CK1" s="236"/>
+      <c r="CL1" s="236"/>
+      <c r="CM1" s="236"/>
+      <c r="CN1" s="236"/>
+      <c r="CO1" s="236"/>
+      <c r="CP1" s="236"/>
+      <c r="CQ1" s="236"/>
+      <c r="CR1" s="236"/>
+      <c r="CS1" s="237"/>
     </row>
     <row r="2" spans="1:104" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="52"/>
       <c r="F2" s="53"/>
-      <c r="G2" s="224" t="s">
+      <c r="G2" s="225" t="s">
         <v>494</v>
       </c>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="224"/>
-      <c r="AB2" s="225"/>
-      <c r="AC2" s="223" t="s">
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="225"/>
+      <c r="O2" s="225"/>
+      <c r="P2" s="225"/>
+      <c r="Q2" s="225"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="225"/>
+      <c r="U2" s="225"/>
+      <c r="V2" s="225"/>
+      <c r="W2" s="225"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="225"/>
+      <c r="Z2" s="225"/>
+      <c r="AA2" s="225"/>
+      <c r="AB2" s="226"/>
+      <c r="AC2" s="224" t="s">
         <v>494</v>
       </c>
-      <c r="AD2" s="224"/>
-      <c r="AE2" s="224"/>
-      <c r="AF2" s="224"/>
-      <c r="AG2" s="224"/>
-      <c r="AH2" s="224"/>
-      <c r="AI2" s="223" t="s">
+      <c r="AD2" s="225"/>
+      <c r="AE2" s="225"/>
+      <c r="AF2" s="225"/>
+      <c r="AG2" s="225"/>
+      <c r="AH2" s="225"/>
+      <c r="AI2" s="224" t="s">
         <v>495</v>
       </c>
-      <c r="AJ2" s="225"/>
-      <c r="AK2" s="223" t="s">
+      <c r="AJ2" s="226"/>
+      <c r="AK2" s="224" t="s">
         <v>496</v>
       </c>
-      <c r="AL2" s="224"/>
-      <c r="AM2" s="224"/>
-      <c r="AN2" s="224"/>
-      <c r="AO2" s="224"/>
-      <c r="AP2" s="224"/>
-      <c r="AQ2" s="224"/>
-      <c r="AR2" s="224"/>
-      <c r="AS2" s="224"/>
-      <c r="AT2" s="224"/>
-      <c r="AU2" s="224"/>
-      <c r="AV2" s="224"/>
-      <c r="AW2" s="224"/>
-      <c r="AX2" s="224"/>
-      <c r="AY2" s="224"/>
-      <c r="AZ2" s="224"/>
-      <c r="BA2" s="224"/>
-      <c r="BB2" s="224"/>
-      <c r="BC2" s="224"/>
-      <c r="BD2" s="224"/>
-      <c r="BE2" s="224"/>
-      <c r="BF2" s="224"/>
-      <c r="BG2" s="224"/>
-      <c r="BH2" s="224"/>
-      <c r="BI2" s="224"/>
-      <c r="BJ2" s="224"/>
-      <c r="BK2" s="224"/>
-      <c r="BL2" s="225"/>
-      <c r="BM2" s="223" t="s">
+      <c r="AL2" s="225"/>
+      <c r="AM2" s="225"/>
+      <c r="AN2" s="225"/>
+      <c r="AO2" s="225"/>
+      <c r="AP2" s="225"/>
+      <c r="AQ2" s="225"/>
+      <c r="AR2" s="225"/>
+      <c r="AS2" s="225"/>
+      <c r="AT2" s="225"/>
+      <c r="AU2" s="225"/>
+      <c r="AV2" s="225"/>
+      <c r="AW2" s="225"/>
+      <c r="AX2" s="225"/>
+      <c r="AY2" s="225"/>
+      <c r="AZ2" s="225"/>
+      <c r="BA2" s="225"/>
+      <c r="BB2" s="225"/>
+      <c r="BC2" s="225"/>
+      <c r="BD2" s="225"/>
+      <c r="BE2" s="225"/>
+      <c r="BF2" s="225"/>
+      <c r="BG2" s="225"/>
+      <c r="BH2" s="225"/>
+      <c r="BI2" s="225"/>
+      <c r="BJ2" s="225"/>
+      <c r="BK2" s="225"/>
+      <c r="BL2" s="226"/>
+      <c r="BM2" s="224" t="s">
         <v>497</v>
       </c>
-      <c r="BN2" s="224"/>
-      <c r="BO2" s="224"/>
-      <c r="BP2" s="224"/>
-      <c r="BQ2" s="224"/>
-      <c r="BR2" s="224"/>
-      <c r="BS2" s="224"/>
-      <c r="BT2" s="224"/>
-      <c r="BU2" s="224"/>
-      <c r="BV2" s="224"/>
-      <c r="BW2" s="224"/>
-      <c r="BX2" s="224"/>
-      <c r="BY2" s="224"/>
-      <c r="BZ2" s="225"/>
-      <c r="CA2" s="239"/>
-      <c r="CB2" s="235"/>
-      <c r="CC2" s="235"/>
-      <c r="CD2" s="235"/>
-      <c r="CE2" s="235"/>
-      <c r="CF2" s="235"/>
-      <c r="CG2" s="235"/>
-      <c r="CH2" s="235"/>
-      <c r="CI2" s="235"/>
-      <c r="CJ2" s="235"/>
-      <c r="CK2" s="235"/>
-      <c r="CL2" s="235"/>
-      <c r="CM2" s="235"/>
-      <c r="CN2" s="235"/>
-      <c r="CO2" s="235"/>
-      <c r="CP2" s="235"/>
-      <c r="CQ2" s="235"/>
-      <c r="CR2" s="235"/>
-      <c r="CS2" s="236"/>
+      <c r="BN2" s="225"/>
+      <c r="BO2" s="225"/>
+      <c r="BP2" s="225"/>
+      <c r="BQ2" s="225"/>
+      <c r="BR2" s="225"/>
+      <c r="BS2" s="225"/>
+      <c r="BT2" s="225"/>
+      <c r="BU2" s="225"/>
+      <c r="BV2" s="225"/>
+      <c r="BW2" s="225"/>
+      <c r="BX2" s="225"/>
+      <c r="BY2" s="225"/>
+      <c r="BZ2" s="226"/>
+      <c r="CA2" s="238"/>
+      <c r="CB2" s="239"/>
+      <c r="CC2" s="239"/>
+      <c r="CD2" s="239"/>
+      <c r="CE2" s="239"/>
+      <c r="CF2" s="239"/>
+      <c r="CG2" s="239"/>
+      <c r="CH2" s="239"/>
+      <c r="CI2" s="239"/>
+      <c r="CJ2" s="239"/>
+      <c r="CK2" s="239"/>
+      <c r="CL2" s="239"/>
+      <c r="CM2" s="239"/>
+      <c r="CN2" s="239"/>
+      <c r="CO2" s="239"/>
+      <c r="CP2" s="239"/>
+      <c r="CQ2" s="239"/>
+      <c r="CR2" s="239"/>
+      <c r="CS2" s="240"/>
     </row>
     <row r="3" spans="1:104" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="223" t="s">
+      <c r="A3" s="224" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="235" t="s">
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="239" t="s">
         <v>498</v>
       </c>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="223" t="s">
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
+      <c r="N3" s="240"/>
+      <c r="O3" s="224" t="s">
         <v>499</v>
       </c>
-      <c r="P3" s="224"/>
-      <c r="Q3" s="224"/>
-      <c r="R3" s="224"/>
-      <c r="S3" s="224"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="225"/>
-      <c r="W3" s="223" t="s">
+      <c r="P3" s="225"/>
+      <c r="Q3" s="225"/>
+      <c r="R3" s="225"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="225"/>
+      <c r="U3" s="225"/>
+      <c r="V3" s="226"/>
+      <c r="W3" s="224" t="s">
         <v>500</v>
       </c>
-      <c r="X3" s="224"/>
-      <c r="Y3" s="224"/>
-      <c r="Z3" s="225"/>
+      <c r="X3" s="225"/>
+      <c r="Y3" s="225"/>
+      <c r="Z3" s="226"/>
       <c r="AA3" s="46" t="s">
         <v>501</v>
       </c>
@@ -20136,104 +20140,104 @@
       <c r="AH3" s="173" t="s">
         <v>508</v>
       </c>
-      <c r="AI3" s="223" t="s">
+      <c r="AI3" s="224" t="s">
         <v>509</v>
       </c>
-      <c r="AJ3" s="225"/>
-      <c r="AK3" s="223" t="s">
+      <c r="AJ3" s="226"/>
+      <c r="AK3" s="224" t="s">
         <v>510</v>
       </c>
-      <c r="AL3" s="224"/>
-      <c r="AM3" s="224"/>
-      <c r="AN3" s="224"/>
-      <c r="AO3" s="224"/>
-      <c r="AP3" s="225"/>
-      <c r="AQ3" s="223" t="s">
+      <c r="AL3" s="225"/>
+      <c r="AM3" s="225"/>
+      <c r="AN3" s="225"/>
+      <c r="AO3" s="225"/>
+      <c r="AP3" s="226"/>
+      <c r="AQ3" s="224" t="s">
         <v>511</v>
       </c>
-      <c r="AR3" s="224"/>
-      <c r="AS3" s="224"/>
-      <c r="AT3" s="224"/>
-      <c r="AU3" s="224"/>
-      <c r="AV3" s="224"/>
-      <c r="AW3" s="225"/>
-      <c r="AX3" s="223" t="s">
+      <c r="AR3" s="225"/>
+      <c r="AS3" s="225"/>
+      <c r="AT3" s="225"/>
+      <c r="AU3" s="225"/>
+      <c r="AV3" s="225"/>
+      <c r="AW3" s="226"/>
+      <c r="AX3" s="224" t="s">
         <v>499</v>
       </c>
-      <c r="AY3" s="224"/>
-      <c r="AZ3" s="224"/>
-      <c r="BA3" s="224"/>
-      <c r="BB3" s="224"/>
-      <c r="BC3" s="225"/>
-      <c r="BD3" s="223" t="s">
+      <c r="AY3" s="225"/>
+      <c r="AZ3" s="225"/>
+      <c r="BA3" s="225"/>
+      <c r="BB3" s="225"/>
+      <c r="BC3" s="226"/>
+      <c r="BD3" s="224" t="s">
         <v>491</v>
       </c>
-      <c r="BE3" s="224"/>
-      <c r="BF3" s="224"/>
-      <c r="BG3" s="224"/>
-      <c r="BH3" s="224"/>
-      <c r="BI3" s="225"/>
-      <c r="BJ3" s="223" t="s">
+      <c r="BE3" s="225"/>
+      <c r="BF3" s="225"/>
+      <c r="BG3" s="225"/>
+      <c r="BH3" s="225"/>
+      <c r="BI3" s="226"/>
+      <c r="BJ3" s="224" t="s">
         <v>512</v>
       </c>
-      <c r="BK3" s="225"/>
+      <c r="BK3" s="226"/>
       <c r="BL3" s="50" t="s">
         <v>513</v>
       </c>
-      <c r="BM3" s="223" t="s">
+      <c r="BM3" s="224" t="s">
         <v>510</v>
       </c>
-      <c r="BN3" s="224"/>
-      <c r="BO3" s="225"/>
-      <c r="BP3" s="223" t="s">
+      <c r="BN3" s="225"/>
+      <c r="BO3" s="226"/>
+      <c r="BP3" s="224" t="s">
         <v>511</v>
       </c>
-      <c r="BQ3" s="225"/>
-      <c r="BR3" s="223" t="s">
+      <c r="BQ3" s="226"/>
+      <c r="BR3" s="224" t="s">
         <v>499</v>
       </c>
-      <c r="BS3" s="224"/>
-      <c r="BT3" s="224"/>
-      <c r="BU3" s="225"/>
-      <c r="BV3" s="223" t="s">
+      <c r="BS3" s="225"/>
+      <c r="BT3" s="225"/>
+      <c r="BU3" s="226"/>
+      <c r="BV3" s="224" t="s">
         <v>491</v>
       </c>
-      <c r="BW3" s="224"/>
-      <c r="BX3" s="225"/>
+      <c r="BW3" s="225"/>
+      <c r="BX3" s="226"/>
       <c r="BY3" s="50" t="s">
         <v>512</v>
       </c>
       <c r="BZ3" s="50" t="s">
         <v>513</v>
       </c>
-      <c r="CA3" s="223" t="s">
+      <c r="CA3" s="224" t="s">
         <v>510</v>
       </c>
-      <c r="CB3" s="224"/>
-      <c r="CC3" s="224"/>
-      <c r="CD3" s="225"/>
-      <c r="CE3" s="223" t="s">
+      <c r="CB3" s="225"/>
+      <c r="CC3" s="225"/>
+      <c r="CD3" s="226"/>
+      <c r="CE3" s="224" t="s">
         <v>499</v>
       </c>
-      <c r="CF3" s="224"/>
-      <c r="CG3" s="225"/>
-      <c r="CH3" s="223" t="s">
+      <c r="CF3" s="225"/>
+      <c r="CG3" s="226"/>
+      <c r="CH3" s="224" t="s">
         <v>491</v>
       </c>
-      <c r="CI3" s="224"/>
-      <c r="CJ3" s="224"/>
-      <c r="CK3" s="225"/>
-      <c r="CL3" s="223" t="s">
+      <c r="CI3" s="225"/>
+      <c r="CJ3" s="225"/>
+      <c r="CK3" s="226"/>
+      <c r="CL3" s="224" t="s">
         <v>511</v>
       </c>
-      <c r="CM3" s="224"/>
-      <c r="CN3" s="224"/>
-      <c r="CO3" s="224"/>
-      <c r="CP3" s="225"/>
-      <c r="CQ3" s="223" t="s">
+      <c r="CM3" s="225"/>
+      <c r="CN3" s="225"/>
+      <c r="CO3" s="225"/>
+      <c r="CP3" s="226"/>
+      <c r="CQ3" s="224" t="s">
         <v>512</v>
       </c>
-      <c r="CR3" s="225"/>
+      <c r="CR3" s="226"/>
       <c r="CS3" s="46" t="s">
         <v>48</v>
       </c>
@@ -21414,10 +21418,10 @@
       </c>
       <c r="D8" s="211"/>
       <c r="E8" s="74" t="s">
-        <v>565</v>
+        <v>616</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>563</v>
+        <v>253</v>
       </c>
       <c r="G8" s="61" t="s">
         <v>247</v>
@@ -21695,17 +21699,17 @@
     </row>
     <row r="9" spans="1:104" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="102" t="s">
+        <v>565</v>
+      </c>
+      <c r="B9" s="103" t="s">
         <v>566</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="C9" s="104" t="s">
         <v>567</v>
-      </c>
-      <c r="C9" s="104" t="s">
-        <v>568</v>
       </c>
       <c r="D9" s="211"/>
       <c r="E9" s="106" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F9" s="105" t="s">
         <v>253</v>
@@ -21713,7 +21717,7 @@
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
       <c r="I9" s="100"/>
-      <c r="J9" s="248"/>
+      <c r="J9" s="222"/>
       <c r="K9" s="100"/>
       <c r="L9" s="100"/>
       <c r="M9" s="100"/>
@@ -21811,6 +21815,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="G2:AB2"/>
+    <mergeCell ref="G1:AB1"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BC3"/>
+    <mergeCell ref="BD3:BI3"/>
+    <mergeCell ref="BJ3:BK3"/>
+    <mergeCell ref="O3:V3"/>
     <mergeCell ref="AI1:BZ1"/>
     <mergeCell ref="CQ3:CR3"/>
     <mergeCell ref="CL3:CP3"/>
@@ -21827,18 +21843,6 @@
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AI3:AJ3"/>
     <mergeCell ref="AK3:AP3"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BC3"/>
-    <mergeCell ref="BD3:BI3"/>
-    <mergeCell ref="BJ3:BK3"/>
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="G2:AB2"/>
-    <mergeCell ref="G1:AB1"/>
-    <mergeCell ref="W3:Z3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -21865,67 +21869,67 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="227" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="228"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="229"/>
       <c r="F1" s="75" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1" s="243" t="s">
         <v>570</v>
       </c>
-      <c r="G1" s="242" t="s">
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="244"/>
+      <c r="O1" s="244"/>
+      <c r="P1" s="245"/>
+      <c r="Q1" s="243" t="s">
         <v>571</v>
       </c>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="243"/>
-      <c r="K1" s="243"/>
-      <c r="L1" s="243"/>
-      <c r="M1" s="243"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="243"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="242" t="s">
+      <c r="R1" s="245"/>
+      <c r="S1" s="243" t="s">
         <v>572</v>
       </c>
-      <c r="R1" s="244"/>
-      <c r="S1" s="242" t="s">
+      <c r="T1" s="245"/>
+      <c r="U1" s="241" t="s">
         <v>573</v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="240" t="s">
+      <c r="V1" s="242"/>
+      <c r="W1" s="246"/>
+      <c r="X1" s="247" t="s">
         <v>574</v>
       </c>
-      <c r="V1" s="241"/>
-      <c r="W1" s="245"/>
-      <c r="X1" s="246" t="s">
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="76" t="s">
         <v>575</v>
       </c>
-      <c r="Y1" s="247"/>
-      <c r="Z1" s="76" t="s">
+      <c r="AA1" s="241" t="s">
         <v>576</v>
       </c>
-      <c r="AA1" s="240" t="s">
+      <c r="AB1" s="242"/>
+      <c r="AC1" s="242"/>
+      <c r="AD1" s="242"/>
+      <c r="AE1" s="246"/>
+      <c r="AF1" s="241" t="s">
         <v>577</v>
       </c>
-      <c r="AB1" s="241"/>
-      <c r="AC1" s="241"/>
-      <c r="AD1" s="241"/>
-      <c r="AE1" s="245"/>
-      <c r="AF1" s="240" t="s">
+      <c r="AG1" s="242"/>
+      <c r="AH1" s="76" t="s">
         <v>578</v>
       </c>
-      <c r="AG1" s="241"/>
-      <c r="AH1" s="76" t="s">
-        <v>579</v>
-      </c>
-      <c r="AI1" s="242" t="s">
-        <v>579</v>
-      </c>
-      <c r="AJ1" s="243"/>
-      <c r="AK1" s="244"/>
+      <c r="AI1" s="243" t="s">
+        <v>578</v>
+      </c>
+      <c r="AJ1" s="244"/>
+      <c r="AK1" s="245"/>
     </row>
     <row r="2" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -21935,109 +21939,109 @@
         <v>213</v>
       </c>
       <c r="C2" s="112" t="s">
+        <v>579</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="82" t="s">
         <v>582</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="G2" s="77" t="s">
         <v>583</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="H2" s="78" t="s">
         <v>584</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="I2" s="78" t="s">
         <v>585</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="J2" s="78" t="s">
         <v>586</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="K2" s="78" t="s">
         <v>587</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="L2" s="78" t="s">
         <v>588</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="M2" s="78" t="s">
         <v>589</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="N2" s="78" t="s">
         <v>590</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="O2" s="78" t="s">
         <v>591</v>
       </c>
-      <c r="O2" s="78" t="s">
+      <c r="P2" s="79" t="s">
         <v>592</v>
       </c>
-      <c r="P2" s="79" t="s">
+      <c r="Q2" s="80" t="s">
         <v>593</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="R2" s="79" t="s">
         <v>594</v>
       </c>
-      <c r="R2" s="79" t="s">
+      <c r="S2" s="165" t="s">
         <v>595</v>
       </c>
-      <c r="S2" s="165" t="s">
+      <c r="T2" s="161" t="s">
         <v>596</v>
       </c>
-      <c r="T2" s="161" t="s">
+      <c r="U2" s="80" t="s">
         <v>597</v>
       </c>
-      <c r="U2" s="80" t="s">
+      <c r="V2" s="78" t="s">
         <v>598</v>
       </c>
-      <c r="V2" s="78" t="s">
+      <c r="W2" s="161" t="s">
         <v>599</v>
       </c>
-      <c r="W2" s="161" t="s">
+      <c r="X2" s="162" t="s">
         <v>600</v>
       </c>
-      <c r="X2" s="162" t="s">
+      <c r="Y2" s="161" t="s">
         <v>601</v>
       </c>
-      <c r="Y2" s="161" t="s">
+      <c r="Z2" s="160" t="s">
         <v>602</v>
       </c>
-      <c r="Z2" s="160" t="s">
+      <c r="AA2" s="163" t="s">
         <v>603</v>
       </c>
-      <c r="AA2" s="163" t="s">
+      <c r="AB2" s="163" t="s">
         <v>604</v>
       </c>
-      <c r="AB2" s="163" t="s">
+      <c r="AC2" s="81" t="s">
         <v>605</v>
       </c>
-      <c r="AC2" s="81" t="s">
+      <c r="AD2" s="163" t="s">
         <v>606</v>
       </c>
-      <c r="AD2" s="163" t="s">
+      <c r="AE2" s="164" t="s">
         <v>607</v>
       </c>
-      <c r="AE2" s="164" t="s">
+      <c r="AF2" s="80" t="s">
         <v>608</v>
       </c>
-      <c r="AF2" s="80" t="s">
+      <c r="AG2" s="79" t="s">
         <v>609</v>
       </c>
-      <c r="AG2" s="79" t="s">
+      <c r="AH2" s="160" t="s">
         <v>610</v>
       </c>
-      <c r="AH2" s="160" t="s">
+      <c r="AI2" s="81" t="s">
         <v>611</v>
       </c>
-      <c r="AI2" s="81" t="s">
+      <c r="AJ2" s="81" t="s">
         <v>612</v>
       </c>
-      <c r="AJ2" s="81" t="s">
+      <c r="AK2" s="81" t="s">
         <v>613</v>
-      </c>
-      <c r="AK2" s="81" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -22060,13 +22064,13 @@
         <v>356</v>
       </c>
       <c r="B4" s="113" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C4" s="108" t="s">
         <v>334</v>
       </c>
       <c r="D4" s="111" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>253</v>
@@ -22135,6 +22139,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010078D5F2C574E91E409EB7AA1D53A2A54F" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8a025d8e68d08e665044bb9f3646585e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e61fca3e-63dc-42dc-ae10-62e289bce515" xmlns:ns3="02237a53-3673-4259-ae6b-dcce6b85ae6a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a5e97fdc04dbbafb76e2cde9050b92e7" ns2:_="" ns3:_="">
     <xsd:import namespace="e61fca3e-63dc-42dc-ae10-62e289bce515"/>
@@ -22363,15 +22376,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52CC966B-7637-4892-A3C5-0DC12D537A47}">
   <ds:schemaRefs>
@@ -22384,6 +22388,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296D2E87-38D5-4196-BF9E-FE9D2F33D915}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B676A661-7DF1-4DCA-A065-24A5582C04F4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22400,12 +22412,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296D2E87-38D5-4196-BF9E-FE9D2F33D915}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel datos/Datos P&T Version Actualizada.xlsx
+++ b/Excel datos/Datos P&T Version Actualizada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tunningcl-my.sharepoint.com/personal/felipe_quinteros_tunning_cl/Documents/Escritorio/proyecto de automatiacion/Excel datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1652" documentId="13_ncr:1_{11D514E8-F92C-40E6-9893-0AA97A7D8E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{792E8A38-1F66-45E8-8993-9B1008A886ED}"/>
+  <xr:revisionPtr revIDLastSave="1721" documentId="13_ncr:1_{11D514E8-F92C-40E6-9893-0AA97A7D8E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEC6D421-8B1D-4BAD-85B4-385A5A575C1A}"/>
   <bookViews>
-    <workbookView xWindow="20715" yWindow="-2250" windowWidth="20460" windowHeight="10770" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contactos Tecnicos" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5061" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5088" uniqueCount="644">
   <si>
     <t xml:space="preserve">Servidor </t>
   </si>
@@ -1915,6 +1915,87 @@
   </si>
   <si>
     <t>JTb19783269k*</t>
+  </si>
+  <si>
+    <t>Clave TOTP</t>
+  </si>
+  <si>
+    <t>FRJGCV3NKFDG25TGI44TYSZBINHXO5KD</t>
+  </si>
+  <si>
+    <t>MNISGTZ4NQ7T4U3EFZXXS6ZWNZRDMTCA</t>
+  </si>
+  <si>
+    <t>GQUTQPSRKRNGCL2SJUXUQTBDJU7DAMZU</t>
+  </si>
+  <si>
+    <t>KIUDKZL3OFYDUUZ6H52DQQJ2KF2USMKC</t>
+  </si>
+  <si>
+    <t>GEQWYQKTJQ4CK4DHLIRX25DFNZKG46BD</t>
+  </si>
+  <si>
+    <t>FRMG6USTEU7EELDSGMWFQURTGFGEITSK</t>
+  </si>
+  <si>
+    <t>GB3UKPCWJJSVAI3BIFTWG3KCGNJGW4CR</t>
+  </si>
+  <si>
+    <t>MVGDQ6KUFRMFAJSNEZ3UGW3CJ5EFCTBB</t>
+  </si>
+  <si>
+    <t>HISU6RRBIITGI3Z7HEUUO4KVGAVFQ32J</t>
+  </si>
+  <si>
+    <t>FYSUE23UEZTWEL3IJBFWGURGJFYGSZCU</t>
+  </si>
+  <si>
+    <t>NZ4SSOKELURXGM2YEF3TAZKVKMUTCMCX</t>
+  </si>
+  <si>
+    <t>GRIG2VCKOEXFKXKPN5BEK2Z2HZVTQNDN</t>
+  </si>
+  <si>
+    <t>PVJXOZR7OA4XOUJQGNXXCULYM5AXM33E</t>
+  </si>
+  <si>
+    <t>KBWTS6KINY5D46JULZZGO6JIHQYWSWZR</t>
+  </si>
+  <si>
+    <t>O54SSL3EHM6EOYZVO45C6JBMHFHEKVCN</t>
+  </si>
+  <si>
+    <t>JY6H22CRIMZTYRR6GQZTKOJOPNAWCSL5</t>
+  </si>
+  <si>
+    <t>OEWESTBDEFFSC2CKLJ5EYPDHKBEWK5SU</t>
+  </si>
+  <si>
+    <t>LA5WW6L2LB5VMKDFEVLDYLRWMERWQURE</t>
+  </si>
+  <si>
+    <t>FJNGGYLXLZDVWRTSIAQSK4ZPKYSEST2U</t>
+  </si>
+  <si>
+    <t>HE6E2XLNGRTDM5JDJRPGW4BSGZJDATSP</t>
+  </si>
+  <si>
+    <t>PIZUOR3JOZSVEOCDN5UGYJDOPJFEKXKX</t>
+  </si>
+  <si>
+    <t>JFLFCNTWJFXDSULDLY2VMVCFHBJCGPSA</t>
+  </si>
+  <si>
+    <t>JYZHOSLEKVXDOIJQFJUW2P3CKZCUMUTF</t>
+  </si>
+  <si>
+    <t>OBQUOYSPHFAXIPDUN5GE4JRBOZUVASSL</t>
+  </si>
+  <si>
+    <t>LU7TELBPNRSHCTZDHFOUQ23LMVHGCNKF</t>
+  </si>
+  <si>
+    <t>NBGGMTS2JA3UGWBFFQVD66KMGRREI3S2</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -3003,13 +3084,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3605,22 +3697,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3647,6 +3739,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3664,10 +3772,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9631,10 +9735,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2095A0E1-299E-4ADF-A78B-F6D2450DA852}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:EL70"/>
+  <dimension ref="A1:EM70"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9643,14 +9747,15 @@
     <col min="2" max="2" width="24" style="150" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="145" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="1" customWidth="1"/>
-    <col min="7" max="18" width="10.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="1" customWidth="1"/>
-    <col min="20" max="30" width="10.5703125" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.85546875" style="1"/>
+    <col min="6" max="6" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="1" customWidth="1"/>
+    <col min="8" max="19" width="10.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="1" customWidth="1"/>
+    <col min="21" max="31" width="10.5703125" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:142" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:143" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="227" t="s">
         <v>205</v>
       </c>
@@ -9658,59 +9763,59 @@
       <c r="C1" s="228"/>
       <c r="D1" s="228"/>
       <c r="E1" s="233"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="224" t="s">
+      <c r="F1" s="233"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="224" t="s">
         <v>371</v>
       </c>
-      <c r="H1" s="225"/>
       <c r="I1" s="225"/>
       <c r="J1" s="225"/>
       <c r="K1" s="225"/>
       <c r="L1" s="225"/>
       <c r="M1" s="225"/>
       <c r="N1" s="225"/>
-      <c r="O1" s="226"/>
-      <c r="P1" s="224" t="s">
+      <c r="O1" s="225"/>
+      <c r="P1" s="226"/>
+      <c r="Q1" s="224" t="s">
         <v>372</v>
       </c>
-      <c r="Q1" s="225"/>
-      <c r="R1" s="226"/>
-      <c r="S1" s="224" t="s">
+      <c r="R1" s="225"/>
+      <c r="S1" s="226"/>
+      <c r="T1" s="224" t="s">
         <v>373</v>
       </c>
-      <c r="T1" s="225"/>
       <c r="U1" s="225"/>
       <c r="V1" s="225"/>
-      <c r="W1" s="226"/>
-      <c r="X1" s="224" t="s">
+      <c r="W1" s="225"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="224" t="s">
         <v>374</v>
       </c>
-      <c r="Y1" s="226"/>
-      <c r="Z1" s="224" t="s">
+      <c r="Z1" s="226"/>
+      <c r="AA1" s="224" t="s">
         <v>375</v>
       </c>
-      <c r="AA1" s="225"/>
       <c r="AB1" s="225"/>
       <c r="AC1" s="225"/>
       <c r="AD1" s="225"/>
       <c r="AE1" s="225"/>
       <c r="AF1" s="225"/>
       <c r="AG1" s="225"/>
-      <c r="AH1" s="226"/>
-      <c r="AI1" s="224" t="s">
+      <c r="AH1" s="225"/>
+      <c r="AI1" s="226"/>
+      <c r="AJ1" s="224" t="s">
         <v>376</v>
       </c>
-      <c r="AJ1" s="225"/>
       <c r="AK1" s="225"/>
       <c r="AL1" s="225"/>
       <c r="AM1" s="225"/>
       <c r="AN1" s="225"/>
       <c r="AO1" s="225"/>
-      <c r="AP1" s="226"/>
-      <c r="AQ1" s="231" t="s">
+      <c r="AP1" s="225"/>
+      <c r="AQ1" s="226"/>
+      <c r="AR1" s="231" t="s">
         <v>377</v>
       </c>
-      <c r="AR1" s="232"/>
       <c r="AS1" s="232"/>
       <c r="AT1" s="232"/>
       <c r="AU1" s="232"/>
@@ -9718,29 +9823,29 @@
       <c r="AW1" s="232"/>
       <c r="AX1" s="232"/>
       <c r="AY1" s="232"/>
-      <c r="AZ1" s="231" t="s">
+      <c r="AZ1" s="232"/>
+      <c r="BA1" s="231" t="s">
         <v>378</v>
       </c>
-      <c r="BA1" s="232"/>
       <c r="BB1" s="232"/>
       <c r="BC1" s="232"/>
       <c r="BD1" s="232"/>
       <c r="BE1" s="232"/>
-      <c r="BF1" s="234"/>
-      <c r="BG1" s="231" t="s">
+      <c r="BF1" s="232"/>
+      <c r="BG1" s="234"/>
+      <c r="BH1" s="231" t="s">
         <v>379</v>
       </c>
-      <c r="BH1" s="232"/>
       <c r="BI1" s="232"/>
-      <c r="BJ1" s="234"/>
-      <c r="BK1" s="231" t="s">
+      <c r="BJ1" s="232"/>
+      <c r="BK1" s="234"/>
+      <c r="BL1" s="231" t="s">
         <v>380</v>
       </c>
-      <c r="BL1" s="234"/>
-      <c r="BM1" s="231" t="s">
+      <c r="BM1" s="234"/>
+      <c r="BN1" s="231" t="s">
         <v>381</v>
       </c>
-      <c r="BN1" s="232"/>
       <c r="BO1" s="232"/>
       <c r="BP1" s="232"/>
       <c r="BQ1" s="232"/>
@@ -9751,28 +9856,28 @@
       <c r="BV1" s="232"/>
       <c r="BW1" s="232"/>
       <c r="BX1" s="232"/>
-      <c r="BY1" s="234"/>
-      <c r="BZ1" s="231" t="s">
+      <c r="BY1" s="232"/>
+      <c r="BZ1" s="234"/>
+      <c r="CA1" s="231" t="s">
         <v>382</v>
       </c>
-      <c r="CA1" s="232"/>
-      <c r="CB1" s="234"/>
-      <c r="CC1" s="231" t="s">
+      <c r="CB1" s="232"/>
+      <c r="CC1" s="234"/>
+      <c r="CD1" s="231" t="s">
         <v>383</v>
       </c>
-      <c r="CD1" s="232"/>
       <c r="CE1" s="232"/>
       <c r="CF1" s="232"/>
       <c r="CG1" s="232"/>
       <c r="CH1" s="232"/>
       <c r="CI1" s="232"/>
-      <c r="CJ1" s="234"/>
-      <c r="CK1" s="73"/>
+      <c r="CJ1" s="232"/>
+      <c r="CK1" s="234"/>
       <c r="CL1" s="73"/>
       <c r="CM1" s="73"/>
       <c r="CN1" s="73"/>
       <c r="CO1" s="73"/>
-      <c r="CS1" s="230"/>
+      <c r="CP1" s="73"/>
       <c r="CT1" s="230"/>
       <c r="CU1" s="230"/>
       <c r="CV1" s="230"/>
@@ -9780,8 +9885,9 @@
       <c r="CX1" s="230"/>
       <c r="CY1" s="230"/>
       <c r="CZ1" s="230"/>
+      <c r="DA1" s="230"/>
     </row>
-    <row r="2" spans="1:142" s="2" customFormat="1" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:143" s="2" customFormat="1" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>212</v>
       </c>
@@ -9797,261 +9903,263 @@
       <c r="E2" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="66" t="s">
+        <v>617</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="N2" s="115" t="s">
+      <c r="O2" s="115" t="s">
         <v>391</v>
       </c>
-      <c r="O2" s="115" t="s">
+      <c r="P2" s="115" t="s">
         <v>392</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="R2" s="116" t="s">
+      <c r="S2" s="116" t="s">
         <v>395</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="V2" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="W2" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="Y2" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Z2" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AA2" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AB2" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AC2" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="AC2" s="66" t="s">
+      <c r="AD2" s="66" t="s">
         <v>406</v>
       </c>
-      <c r="AD2" s="154" t="s">
+      <c r="AE2" s="154" t="s">
         <v>407</v>
       </c>
-      <c r="AE2" s="155" t="s">
+      <c r="AF2" s="155" t="s">
         <v>408</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AG2" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="AH2" s="156" t="s">
+      <c r="AI2" s="156" t="s">
         <v>411</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="AJ2" s="155" t="s">
+      <c r="AK2" s="155" t="s">
         <v>413</v>
       </c>
-      <c r="AK2" s="14" t="s">
+      <c r="AL2" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="AL2" s="14" t="s">
+      <c r="AM2" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="AN2" s="14" t="s">
+      <c r="AO2" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="AP2" s="14" t="s">
+      <c r="AQ2" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="AQ2" s="157" t="s">
+      <c r="AR2" s="157" t="s">
         <v>420</v>
       </c>
-      <c r="AR2" s="51" t="s">
+      <c r="AS2" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="AS2" s="158" t="s">
+      <c r="AT2" s="158" t="s">
         <v>422</v>
       </c>
-      <c r="AT2" s="158" t="s">
+      <c r="AU2" s="158" t="s">
         <v>423</v>
       </c>
-      <c r="AU2" s="154" t="s">
+      <c r="AV2" s="154" t="s">
         <v>424</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="AW2" s="66" t="s">
+      <c r="AX2" s="66" t="s">
         <v>426</v>
       </c>
-      <c r="AX2" s="159" t="s">
+      <c r="AY2" s="159" t="s">
         <v>427</v>
       </c>
-      <c r="AY2" s="117" t="s">
+      <c r="AZ2" s="117" t="s">
         <v>428</v>
       </c>
-      <c r="AZ2" s="157" t="s">
+      <c r="BA2" s="157" t="s">
         <v>429</v>
       </c>
-      <c r="BA2" s="158" t="s">
+      <c r="BB2" s="158" t="s">
         <v>430</v>
       </c>
-      <c r="BB2" s="158" t="s">
+      <c r="BC2" s="158" t="s">
         <v>431</v>
       </c>
-      <c r="BC2" s="158" t="s">
+      <c r="BD2" s="158" t="s">
         <v>432</v>
       </c>
-      <c r="BD2" s="158" t="s">
+      <c r="BE2" s="158" t="s">
         <v>433</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="BF2" s="159" t="s">
+      <c r="BG2" s="159" t="s">
         <v>435</v>
       </c>
-      <c r="BG2" s="157" t="s">
+      <c r="BH2" s="157" t="s">
         <v>436</v>
       </c>
-      <c r="BH2" s="158" t="s">
+      <c r="BI2" s="158" t="s">
         <v>437</v>
       </c>
-      <c r="BI2" s="158" t="s">
+      <c r="BJ2" s="158" t="s">
         <v>438</v>
       </c>
-      <c r="BJ2" s="158" t="s">
+      <c r="BK2" s="158" t="s">
         <v>439</v>
       </c>
-      <c r="BK2" s="157" t="s">
+      <c r="BL2" s="157" t="s">
         <v>440</v>
       </c>
-      <c r="BL2" s="158" t="s">
+      <c r="BM2" s="158" t="s">
         <v>441</v>
       </c>
-      <c r="BM2" s="157" t="s">
+      <c r="BN2" s="157" t="s">
         <v>442</v>
       </c>
-      <c r="BN2" s="158" t="s">
+      <c r="BO2" s="158" t="s">
         <v>443</v>
       </c>
-      <c r="BO2" s="158" t="s">
+      <c r="BP2" s="158" t="s">
         <v>444</v>
       </c>
-      <c r="BP2" s="158" t="s">
+      <c r="BQ2" s="158" t="s">
         <v>445</v>
       </c>
-      <c r="BQ2" s="158" t="s">
+      <c r="BR2" s="158" t="s">
         <v>446</v>
       </c>
-      <c r="BR2" s="158" t="s">
+      <c r="BS2" s="158" t="s">
         <v>447</v>
       </c>
-      <c r="BS2" s="158" t="s">
+      <c r="BT2" s="158" t="s">
         <v>448</v>
       </c>
-      <c r="BT2" s="158" t="s">
+      <c r="BU2" s="158" t="s">
         <v>449</v>
       </c>
-      <c r="BU2" s="158" t="s">
+      <c r="BV2" s="158" t="s">
         <v>450</v>
       </c>
-      <c r="BV2" s="158" t="s">
+      <c r="BW2" s="158" t="s">
         <v>451</v>
       </c>
-      <c r="BW2" s="158" t="s">
+      <c r="BX2" s="158" t="s">
         <v>452</v>
       </c>
-      <c r="BX2" s="158" t="s">
+      <c r="BY2" s="158" t="s">
         <v>453</v>
       </c>
-      <c r="BY2" s="158" t="s">
+      <c r="BZ2" s="158" t="s">
         <v>454</v>
       </c>
-      <c r="BZ2" s="157" t="s">
+      <c r="CA2" s="157" t="s">
         <v>455</v>
       </c>
-      <c r="CA2" s="158" t="s">
+      <c r="CB2" s="158" t="s">
         <v>456</v>
       </c>
-      <c r="CB2" s="158" t="s">
+      <c r="CC2" s="158" t="s">
         <v>457</v>
       </c>
-      <c r="CC2" s="157" t="s">
+      <c r="CD2" s="157" t="s">
         <v>458</v>
       </c>
-      <c r="CD2" s="158" t="s">
+      <c r="CE2" s="158" t="s">
         <v>459</v>
       </c>
-      <c r="CE2" s="158" t="s">
+      <c r="CF2" s="158" t="s">
         <v>460</v>
       </c>
-      <c r="CF2" s="158" t="s">
+      <c r="CG2" s="158" t="s">
         <v>461</v>
       </c>
-      <c r="CG2" s="158" t="s">
+      <c r="CH2" s="158" t="s">
         <v>462</v>
       </c>
-      <c r="CH2" s="158" t="s">
+      <c r="CI2" s="158" t="s">
         <v>463</v>
       </c>
-      <c r="CI2" s="158" t="s">
+      <c r="CJ2" s="158" t="s">
         <v>464</v>
       </c>
-      <c r="CJ2" s="15" t="s">
+      <c r="CK2" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="CK2" s="71"/>
-      <c r="CM2" s="71"/>
+      <c r="CL2" s="71"/>
       <c r="CN2" s="71"/>
       <c r="CO2" s="71"/>
       <c r="CP2" s="71"/>
-      <c r="CS2" s="71"/>
+      <c r="CQ2" s="71"/>
       <c r="CT2" s="71"/>
       <c r="CU2" s="71"/>
       <c r="CV2" s="71"/>
@@ -10060,8 +10168,9 @@
       <c r="CY2" s="71"/>
       <c r="CZ2" s="71"/>
       <c r="DA2" s="71"/>
+      <c r="DB2" s="71"/>
     </row>
-    <row r="3" spans="1:142" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:143" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="146" t="s">
         <v>241</v>
       </c>
@@ -10077,12 +10186,12 @@
       <c r="E3" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="67" t="s">
+        <v>636</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H3" s="16" t="s">
         <v>247</v>
       </c>
@@ -10326,7 +10435,9 @@
       <c r="CJ3" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK3" s="72"/>
+      <c r="CK3" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL3" s="72"/>
       <c r="CM3" s="72"/>
       <c r="CN3" s="72"/>
@@ -10343,8 +10454,9 @@
       <c r="CY3" s="72"/>
       <c r="CZ3" s="72"/>
       <c r="DA3" s="72"/>
+      <c r="DB3" s="72"/>
     </row>
-    <row r="4" spans="1:142" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:143" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="93" t="s">
         <v>249</v>
       </c>
@@ -10360,12 +10472,12 @@
       <c r="E4" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="68" t="s">
+        <v>618</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H4" s="16" t="s">
         <v>247</v>
       </c>
@@ -10609,7 +10721,9 @@
       <c r="CJ4" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK4" s="72"/>
+      <c r="CK4" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL4" s="72"/>
       <c r="CM4" s="72"/>
       <c r="CN4" s="72"/>
@@ -10626,8 +10740,9 @@
       <c r="CY4" s="72"/>
       <c r="CZ4" s="72"/>
       <c r="DA4" s="72"/>
+      <c r="DB4" s="72"/>
     </row>
-    <row r="5" spans="1:142" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:143" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="93" t="s">
         <v>254</v>
       </c>
@@ -10643,12 +10758,12 @@
       <c r="E5" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="68" t="s">
+        <v>641</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H5" s="16" t="s">
         <v>247</v>
       </c>
@@ -10892,7 +11007,9 @@
       <c r="CJ5" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK5" s="72"/>
+      <c r="CK5" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL5" s="72"/>
       <c r="CM5" s="72"/>
       <c r="CN5" s="72"/>
@@ -10909,8 +11026,9 @@
       <c r="CY5" s="72"/>
       <c r="CZ5" s="72"/>
       <c r="DA5" s="72"/>
+      <c r="DB5" s="72"/>
     </row>
-    <row r="6" spans="1:142" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:143" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="93" t="s">
         <v>204</v>
       </c>
@@ -10924,12 +11042,12 @@
       <c r="E6" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="69" t="s">
+        <v>640</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H6" s="16" t="s">
         <v>247</v>
       </c>
@@ -11173,7 +11291,9 @@
       <c r="CJ6" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK6" s="72"/>
+      <c r="CK6" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL6" s="72"/>
       <c r="CM6" s="72"/>
       <c r="CN6" s="72"/>
@@ -11190,8 +11310,9 @@
       <c r="CY6" s="72"/>
       <c r="CZ6" s="72"/>
       <c r="DA6" s="72"/>
+      <c r="DB6" s="72"/>
     </row>
-    <row r="7" spans="1:142" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:143" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="147" t="s">
         <v>261</v>
       </c>
@@ -11205,10 +11326,12 @@
       <c r="E7" s="137" t="s">
         <v>468</v>
       </c>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="137" t="s">
+        <v>639</v>
+      </c>
+      <c r="G7" s="174" t="s">
         <v>253</v>
       </c>
-      <c r="G7" s="137"/>
       <c r="H7" s="137"/>
       <c r="I7" s="137"/>
       <c r="J7" s="137"/>
@@ -11229,8 +11352,8 @@
       <c r="Y7" s="137"/>
       <c r="Z7" s="137"/>
       <c r="AA7" s="137"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="139"/>
+      <c r="AB7" s="137"/>
+      <c r="AC7" s="138"/>
       <c r="AD7" s="139"/>
       <c r="AE7" s="139"/>
       <c r="AF7" s="139"/>
@@ -11310,8 +11433,9 @@
       <c r="DB7" s="139"/>
       <c r="DC7" s="139"/>
       <c r="DD7" s="139"/>
+      <c r="DE7" s="139"/>
     </row>
-    <row r="8" spans="1:142" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:143" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="94" t="s">
         <v>265</v>
       </c>
@@ -11327,12 +11451,12 @@
       <c r="E8" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="249" t="s">
+        <v>638</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H8" s="16" t="s">
         <v>247</v>
       </c>
@@ -11576,7 +11700,9 @@
       <c r="CJ8" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK8" s="72"/>
+      <c r="CK8" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL8" s="72"/>
       <c r="CM8" s="72"/>
       <c r="CN8" s="72"/>
@@ -11593,8 +11719,9 @@
       <c r="CY8" s="72"/>
       <c r="CZ8" s="72"/>
       <c r="DA8" s="72"/>
+      <c r="DB8" s="72"/>
     </row>
-    <row r="9" spans="1:142" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:143" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="93" t="s">
         <v>133</v>
       </c>
@@ -11608,12 +11735,12 @@
       <c r="E9" s="68" t="s">
         <v>471</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="68" t="s">
+        <v>637</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H9" s="16" t="s">
         <v>247</v>
       </c>
@@ -11857,7 +11984,9 @@
       <c r="CJ9" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK9" s="72"/>
+      <c r="CK9" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL9" s="72"/>
       <c r="CM9" s="72"/>
       <c r="CN9" s="72"/>
@@ -11874,8 +12003,9 @@
       <c r="CY9" s="72"/>
       <c r="CZ9" s="72"/>
       <c r="DA9" s="72"/>
+      <c r="DB9" s="72"/>
     </row>
-    <row r="10" spans="1:142" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:143" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="93" t="s">
         <v>274</v>
       </c>
@@ -11889,12 +12019,12 @@
       <c r="E10" s="85" t="s">
         <v>473</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="85" t="s">
+        <v>635</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H10" s="16" t="s">
         <v>247</v>
       </c>
@@ -12138,7 +12268,9 @@
       <c r="CJ10" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK10" s="72"/>
+      <c r="CK10" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL10" s="72"/>
       <c r="CM10" s="72"/>
       <c r="CN10" s="72"/>
@@ -12155,8 +12287,9 @@
       <c r="CY10" s="72"/>
       <c r="CZ10" s="72"/>
       <c r="DA10" s="72"/>
+      <c r="DB10" s="72"/>
     </row>
-    <row r="11" spans="1:142" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:143" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="93" t="s">
         <v>136</v>
       </c>
@@ -12170,12 +12303,12 @@
       <c r="E11" s="68" t="s">
         <v>475</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="68" t="s">
+        <v>634</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H11" s="16" t="s">
         <v>247</v>
       </c>
@@ -12419,7 +12552,9 @@
       <c r="CJ11" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK11" s="72"/>
+      <c r="CK11" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL11" s="72"/>
       <c r="CM11" s="72"/>
       <c r="CN11" s="72"/>
@@ -12436,8 +12571,9 @@
       <c r="CY11" s="72"/>
       <c r="CZ11" s="72"/>
       <c r="DA11" s="72"/>
+      <c r="DB11" s="72"/>
     </row>
-    <row r="12" spans="1:142" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:143" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="s">
         <v>281</v>
       </c>
@@ -12451,12 +12587,12 @@
       <c r="E12" s="99" t="s">
         <v>476</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="99" t="s">
+        <v>619</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H12" s="16" t="s">
         <v>247</v>
       </c>
@@ -12700,7 +12836,9 @@
       <c r="CJ12" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK12" s="72"/>
+      <c r="CK12" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL12" s="72"/>
       <c r="CM12" s="72"/>
       <c r="CN12" s="72"/>
@@ -12717,8 +12855,9 @@
       <c r="CY12" s="72"/>
       <c r="CZ12" s="72"/>
       <c r="DA12" s="72"/>
+      <c r="DB12" s="72"/>
     </row>
-    <row r="13" spans="1:142" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:143" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="s">
         <v>154</v>
       </c>
@@ -12734,12 +12873,12 @@
       <c r="E13" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="68" t="s">
+        <v>633</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H13" s="16" t="s">
         <v>247</v>
       </c>
@@ -12983,7 +13122,9 @@
       <c r="CJ13" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK13" s="72"/>
+      <c r="CK13" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL13" s="72"/>
       <c r="CM13" s="72"/>
       <c r="CN13" s="72"/>
@@ -13000,8 +13141,9 @@
       <c r="CY13" s="72"/>
       <c r="CZ13" s="72"/>
       <c r="DA13" s="72"/>
+      <c r="DB13" s="72"/>
     </row>
-    <row r="14" spans="1:142" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:143" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="148" t="s">
         <v>116</v>
       </c>
@@ -13015,12 +13157,12 @@
       <c r="E14" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="69" t="s">
+        <v>620</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H14" s="16" t="s">
         <v>247</v>
       </c>
@@ -13264,7 +13406,9 @@
       <c r="CJ14" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK14" s="72"/>
+      <c r="CK14" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL14" s="72"/>
       <c r="CM14" s="72"/>
       <c r="CN14" s="72"/>
@@ -13281,8 +13425,9 @@
       <c r="CY14" s="72"/>
       <c r="CZ14" s="72"/>
       <c r="DA14" s="72"/>
+      <c r="DB14" s="72"/>
     </row>
-    <row r="15" spans="1:142" s="65" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:143" s="65" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="146" t="s">
         <v>289</v>
       </c>
@@ -13298,13 +13443,11 @@
       <c r="E15" s="219" t="s">
         <v>292</v>
       </c>
-      <c r="F15" s="96" t="s">
+      <c r="F15" s="250"/>
+      <c r="G15" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="G15" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="88" t="s">
         <v>247</v>
       </c>
       <c r="I15" s="16" t="s">
@@ -13547,7 +13690,9 @@
       <c r="CJ15" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK15" s="72"/>
+      <c r="CK15" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL15" s="72"/>
       <c r="CM15" s="72"/>
       <c r="CN15" s="72"/>
@@ -13564,7 +13709,7 @@
       <c r="CY15" s="72"/>
       <c r="CZ15" s="72"/>
       <c r="DA15" s="72"/>
-      <c r="DB15" s="1"/>
+      <c r="DB15" s="72"/>
       <c r="DC15" s="1"/>
       <c r="DD15" s="1"/>
       <c r="DE15" s="1"/>
@@ -13601,8 +13746,9 @@
       <c r="EJ15" s="1"/>
       <c r="EK15" s="1"/>
       <c r="EL15" s="1"/>
+      <c r="EM15" s="1"/>
     </row>
-    <row r="16" spans="1:142" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:143" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="93" t="s">
         <v>294</v>
       </c>
@@ -13614,13 +13760,11 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="220"/>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="251"/>
+      <c r="G16" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="G16" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="88" t="s">
         <v>247</v>
       </c>
       <c r="I16" s="16" t="s">
@@ -13863,7 +14007,9 @@
       <c r="CJ16" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK16" s="72"/>
+      <c r="CK16" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL16" s="72"/>
       <c r="CM16" s="72"/>
       <c r="CN16" s="72"/>
@@ -13880,8 +14026,9 @@
       <c r="CY16" s="72"/>
       <c r="CZ16" s="72"/>
       <c r="DA16" s="72"/>
+      <c r="DB16" s="72"/>
     </row>
-    <row r="17" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="93" t="s">
         <v>309</v>
       </c>
@@ -13895,13 +14042,13 @@
       <c r="E17" s="217" t="s">
         <v>478</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="252" t="s">
+        <v>632</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="G17" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="88" t="s">
         <v>247</v>
       </c>
       <c r="I17" s="16" t="s">
@@ -14144,8 +14291,11 @@
       <c r="CJ17" s="16" t="s">
         <v>247</v>
       </c>
+      <c r="CK17" s="16" t="s">
+        <v>247</v>
+      </c>
     </row>
-    <row r="18" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="93" t="s">
         <v>296</v>
       </c>
@@ -14159,13 +14309,11 @@
       <c r="E18" s="95" t="s">
         <v>479</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="253"/>
+      <c r="G18" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="G18" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="88" t="s">
         <v>247</v>
       </c>
       <c r="I18" s="16" t="s">
@@ -14408,8 +14556,11 @@
       <c r="CJ18" s="16" t="s">
         <v>247</v>
       </c>
+      <c r="CK18" s="16" t="s">
+        <v>247</v>
+      </c>
     </row>
-    <row r="19" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="93" t="s">
         <v>300</v>
       </c>
@@ -14423,13 +14574,13 @@
       <c r="E19" s="95" t="s">
         <v>303</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="253" t="s">
+        <v>621</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="G19" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="88" t="s">
         <v>247</v>
       </c>
       <c r="I19" s="16" t="s">
@@ -14672,8 +14823,11 @@
       <c r="CJ19" s="16" t="s">
         <v>247</v>
       </c>
+      <c r="CK19" s="16" t="s">
+        <v>247</v>
+      </c>
     </row>
-    <row r="20" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="93" t="s">
         <v>306</v>
       </c>
@@ -14687,13 +14841,11 @@
       <c r="E20" s="95" t="s">
         <v>308</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="253"/>
+      <c r="G20" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="G20" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="88" t="s">
         <v>247</v>
       </c>
       <c r="I20" s="16" t="s">
@@ -14936,8 +15088,11 @@
       <c r="CJ20" s="16" t="s">
         <v>247</v>
       </c>
+      <c r="CK20" s="16" t="s">
+        <v>247</v>
+      </c>
     </row>
-    <row r="21" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="94" t="s">
         <v>145</v>
       </c>
@@ -14951,13 +15106,13 @@
       <c r="E21" s="218" t="s">
         <v>480</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="254" t="s">
+        <v>643</v>
+      </c>
+      <c r="G21" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="G21" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="88" t="s">
         <v>247</v>
       </c>
       <c r="I21" s="16" t="s">
@@ -15200,8 +15355,11 @@
       <c r="CJ21" s="16" t="s">
         <v>247</v>
       </c>
+      <c r="CK21" s="16" t="s">
+        <v>247</v>
+      </c>
     </row>
-    <row r="22" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="149" t="s">
         <v>128</v>
       </c>
@@ -15217,12 +15375,10 @@
       <c r="E22" s="86" t="s">
         <v>315</v>
       </c>
-      <c r="F22" s="89" t="s">
+      <c r="F22" s="86"/>
+      <c r="G22" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H22" s="16" t="s">
         <v>247</v>
       </c>
@@ -15466,7 +15622,9 @@
       <c r="CJ22" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK22" s="72"/>
+      <c r="CK22" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL22" s="72"/>
       <c r="CM22" s="72"/>
       <c r="CN22" s="72"/>
@@ -15483,8 +15641,9 @@
       <c r="CY22" s="72"/>
       <c r="CZ22" s="72"/>
       <c r="DA22" s="72"/>
+      <c r="DB22" s="72"/>
     </row>
-    <row r="23" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="93" t="s">
         <v>163</v>
       </c>
@@ -15500,12 +15659,12 @@
       <c r="E23" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="68" t="s">
+        <v>642</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H23" s="16" t="s">
         <v>247</v>
       </c>
@@ -15749,7 +15908,9 @@
       <c r="CJ23" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK23" s="72"/>
+      <c r="CK23" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL23" s="72"/>
       <c r="CM23" s="72"/>
       <c r="CN23" s="72"/>
@@ -15766,8 +15927,9 @@
       <c r="CY23" s="72"/>
       <c r="CZ23" s="72"/>
       <c r="DA23" s="72"/>
+      <c r="DB23" s="72"/>
     </row>
-    <row r="24" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="148" t="s">
         <v>151</v>
       </c>
@@ -15783,12 +15945,12 @@
       <c r="E24" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="69" t="s">
+        <v>631</v>
+      </c>
+      <c r="G24" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H24" s="16" t="s">
         <v>247</v>
       </c>
@@ -16032,7 +16194,9 @@
       <c r="CJ24" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK24" s="72"/>
+      <c r="CK24" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL24" s="72"/>
       <c r="CM24" s="72"/>
       <c r="CN24" s="72"/>
@@ -16049,8 +16213,9 @@
       <c r="CY24" s="72"/>
       <c r="CZ24" s="72"/>
       <c r="DA24" s="72"/>
+      <c r="DB24" s="72"/>
     </row>
-    <row r="25" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="148" t="s">
         <v>195</v>
       </c>
@@ -16066,12 +16231,12 @@
       <c r="E25" s="23" t="s">
         <v>481</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="69" t="s">
+        <v>630</v>
+      </c>
+      <c r="G25" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="G25" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H25" s="16" t="s">
         <v>247</v>
       </c>
@@ -16315,7 +16480,9 @@
       <c r="CJ25" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK25" s="72"/>
+      <c r="CK25" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL25" s="72"/>
       <c r="CM25" s="72"/>
       <c r="CN25" s="72"/>
@@ -16332,8 +16499,9 @@
       <c r="CY25" s="72"/>
       <c r="CZ25" s="72"/>
       <c r="DA25" s="72"/>
+      <c r="DB25" s="72"/>
     </row>
-    <row r="26" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="148" t="s">
         <v>198</v>
       </c>
@@ -16349,12 +16517,10 @@
       <c r="E26" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="69"/>
+      <c r="G26" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H26" s="16" t="s">
         <v>247</v>
       </c>
@@ -16598,7 +16764,9 @@
       <c r="CJ26" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK26" s="72"/>
+      <c r="CK26" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL26" s="72"/>
       <c r="CM26" s="72"/>
       <c r="CN26" s="72"/>
@@ -16615,8 +16783,9 @@
       <c r="CY26" s="72"/>
       <c r="CZ26" s="72"/>
       <c r="DA26" s="72"/>
+      <c r="DB26" s="72"/>
     </row>
-    <row r="27" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="148" t="s">
         <v>324</v>
       </c>
@@ -16632,12 +16801,12 @@
       <c r="E27" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="G27" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="G27" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H27" s="16" t="s">
         <v>247</v>
       </c>
@@ -16881,7 +17050,9 @@
       <c r="CJ27" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK27" s="72"/>
+      <c r="CK27" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL27" s="72"/>
       <c r="CM27" s="72"/>
       <c r="CN27" s="72"/>
@@ -16898,8 +17069,9 @@
       <c r="CY27" s="72"/>
       <c r="CZ27" s="72"/>
       <c r="DA27" s="72"/>
+      <c r="DB27" s="72"/>
     </row>
-    <row r="28" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="94" t="s">
         <v>192</v>
       </c>
@@ -16915,12 +17087,12 @@
       <c r="E28" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="249" t="s">
+        <v>628</v>
+      </c>
+      <c r="G28" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H28" s="16" t="s">
         <v>247</v>
       </c>
@@ -17164,7 +17336,9 @@
       <c r="CJ28" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK28" s="72"/>
+      <c r="CK28" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL28" s="72"/>
       <c r="CM28" s="72"/>
       <c r="CN28" s="72"/>
@@ -17181,8 +17355,9 @@
       <c r="CY28" s="72"/>
       <c r="CZ28" s="72"/>
       <c r="DA28" s="72"/>
+      <c r="DB28" s="72"/>
     </row>
-    <row r="29" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="146" t="s">
         <v>189</v>
       </c>
@@ -17198,12 +17373,12 @@
       <c r="E29" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="67" t="s">
+        <v>627</v>
+      </c>
+      <c r="G29" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H29" s="16" t="s">
         <v>247</v>
       </c>
@@ -17447,7 +17622,9 @@
       <c r="CJ29" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK29" s="72"/>
+      <c r="CK29" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL29" s="72"/>
       <c r="CM29" s="72"/>
       <c r="CN29" s="72"/>
@@ -17464,8 +17641,9 @@
       <c r="CY29" s="72"/>
       <c r="CZ29" s="72"/>
       <c r="DA29" s="72"/>
+      <c r="DB29" s="72"/>
     </row>
-    <row r="30" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="93" t="s">
         <v>336</v>
       </c>
@@ -17481,12 +17659,10 @@
       <c r="E30" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="68"/>
+      <c r="G30" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="G30" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H30" s="16" t="s">
         <v>247</v>
       </c>
@@ -17730,7 +17906,9 @@
       <c r="CJ30" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK30" s="72"/>
+      <c r="CK30" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL30" s="72"/>
       <c r="CM30" s="72"/>
       <c r="CN30" s="72"/>
@@ -17747,8 +17925,9 @@
       <c r="CY30" s="72"/>
       <c r="CZ30" s="72"/>
       <c r="DA30" s="72"/>
+      <c r="DB30" s="72"/>
     </row>
-    <row r="31" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="148" t="s">
         <v>340</v>
       </c>
@@ -17764,12 +17943,12 @@
       <c r="E31" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="69" t="s">
+        <v>626</v>
+      </c>
+      <c r="G31" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="G31" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H31" s="16" t="s">
         <v>247</v>
       </c>
@@ -18013,7 +18192,9 @@
       <c r="CJ31" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK31" s="72"/>
+      <c r="CK31" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL31" s="72"/>
       <c r="CM31" s="72"/>
       <c r="CN31" s="72"/>
@@ -18030,8 +18211,9 @@
       <c r="CY31" s="72"/>
       <c r="CZ31" s="72"/>
       <c r="DA31" s="72"/>
+      <c r="DB31" s="72"/>
     </row>
-    <row r="32" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="148" t="s">
         <v>343</v>
       </c>
@@ -18047,12 +18229,10 @@
       <c r="E32" s="87" t="s">
         <v>486</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="87"/>
+      <c r="G32" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H32" s="16" t="s">
         <v>247</v>
       </c>
@@ -18296,7 +18476,9 @@
       <c r="CJ32" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK32" s="72"/>
+      <c r="CK32" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL32" s="72"/>
       <c r="CM32" s="72"/>
       <c r="CN32" s="72"/>
@@ -18313,8 +18495,9 @@
       <c r="CY32" s="72"/>
       <c r="CZ32" s="72"/>
       <c r="DA32" s="72"/>
+      <c r="DB32" s="72"/>
     </row>
-    <row r="33" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A33" s="148" t="s">
         <v>350</v>
       </c>
@@ -18328,12 +18511,12 @@
       <c r="E33" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="69" t="s">
+        <v>625</v>
+      </c>
+      <c r="G33" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="G33" s="28" t="s">
-        <v>247</v>
-      </c>
       <c r="H33" s="28" t="s">
         <v>247</v>
       </c>
@@ -18577,7 +18760,9 @@
       <c r="CJ33" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="CK33" s="72"/>
+      <c r="CK33" s="28" t="s">
+        <v>247</v>
+      </c>
       <c r="CL33" s="72"/>
       <c r="CM33" s="72"/>
       <c r="CN33" s="72"/>
@@ -18594,8 +18779,9 @@
       <c r="CY33" s="72"/>
       <c r="CZ33" s="72"/>
       <c r="DA33" s="72"/>
+      <c r="DB33" s="72"/>
     </row>
-    <row r="34" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A34" s="146" t="s">
         <v>353</v>
       </c>
@@ -18611,12 +18797,12 @@
       <c r="E34" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="67" t="s">
+        <v>624</v>
+      </c>
+      <c r="G34" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="G34" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H34" s="16" t="s">
         <v>247</v>
       </c>
@@ -18860,7 +19046,9 @@
       <c r="CJ34" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK34" s="72"/>
+      <c r="CK34" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL34" s="72"/>
       <c r="CM34" s="72"/>
       <c r="CN34" s="72"/>
@@ -18877,8 +19065,9 @@
       <c r="CY34" s="72"/>
       <c r="CZ34" s="72"/>
       <c r="DA34" s="72"/>
+      <c r="DB34" s="72"/>
     </row>
-    <row r="35" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="s">
         <v>356</v>
       </c>
@@ -18894,12 +19083,12 @@
       <c r="E35" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="68" t="s">
+        <v>623</v>
+      </c>
+      <c r="G35" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H35" s="16" t="s">
         <v>247</v>
       </c>
@@ -19143,7 +19332,9 @@
       <c r="CJ35" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK35" s="72"/>
+      <c r="CK35" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL35" s="72"/>
       <c r="CM35" s="72"/>
       <c r="CN35" s="72"/>
@@ -19160,8 +19351,9 @@
       <c r="CY35" s="72"/>
       <c r="CZ35" s="72"/>
       <c r="DA35" s="72"/>
+      <c r="DB35" s="72"/>
     </row>
-    <row r="36" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="s">
         <v>359</v>
       </c>
@@ -19177,12 +19369,12 @@
       <c r="E36" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="68" t="s">
+        <v>622</v>
+      </c>
+      <c r="G36" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="G36" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H36" s="16" t="s">
         <v>247</v>
       </c>
@@ -19426,7 +19618,9 @@
       <c r="CJ36" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK36" s="72"/>
+      <c r="CK36" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL36" s="72"/>
       <c r="CM36" s="72"/>
       <c r="CN36" s="72"/>
@@ -19443,8 +19637,9 @@
       <c r="CY36" s="72"/>
       <c r="CZ36" s="72"/>
       <c r="DA36" s="72"/>
+      <c r="DB36" s="72"/>
     </row>
-    <row r="37" spans="1:105" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A37" s="146" t="s">
         <v>130</v>
       </c>
@@ -19460,12 +19655,10 @@
       <c r="E37" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="67"/>
+      <c r="G37" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="G37" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="H37" s="16" t="s">
         <v>247</v>
       </c>
@@ -19709,7 +19902,9 @@
       <c r="CJ37" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="CK37" s="72"/>
+      <c r="CK37" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="CL37" s="72"/>
       <c r="CM37" s="72"/>
       <c r="CN37" s="72"/>
@@ -19726,88 +19921,89 @@
       <c r="CY37" s="72"/>
       <c r="CZ37" s="72"/>
       <c r="DA37" s="72"/>
+      <c r="DB37" s="72"/>
     </row>
-    <row r="55" spans="68:69" ht="12" x14ac:dyDescent="0.2">
-      <c r="BP55" s="72"/>
+    <row r="55" spans="69:70" ht="12" x14ac:dyDescent="0.2">
       <c r="BQ55" s="72"/>
+      <c r="BR55" s="72"/>
     </row>
-    <row r="56" spans="68:69" ht="12" x14ac:dyDescent="0.2">
-      <c r="BP56" s="72"/>
+    <row r="56" spans="69:70" ht="12" x14ac:dyDescent="0.2">
       <c r="BQ56" s="72"/>
+      <c r="BR56" s="72"/>
     </row>
-    <row r="57" spans="68:69" ht="12" x14ac:dyDescent="0.2">
-      <c r="BP57" s="72"/>
+    <row r="57" spans="69:70" ht="12" x14ac:dyDescent="0.2">
       <c r="BQ57" s="72"/>
+      <c r="BR57" s="72"/>
     </row>
-    <row r="58" spans="68:69" ht="12" x14ac:dyDescent="0.2">
-      <c r="BP58" s="72"/>
+    <row r="58" spans="69:70" ht="12" x14ac:dyDescent="0.2">
       <c r="BQ58" s="72"/>
+      <c r="BR58" s="72"/>
     </row>
-    <row r="59" spans="68:69" ht="12" x14ac:dyDescent="0.2">
-      <c r="BP59" s="72"/>
+    <row r="59" spans="69:70" ht="12" x14ac:dyDescent="0.2">
       <c r="BQ59" s="72"/>
+      <c r="BR59" s="72"/>
     </row>
-    <row r="60" spans="68:69" ht="12" x14ac:dyDescent="0.2">
-      <c r="BP60" s="72"/>
+    <row r="60" spans="69:70" ht="12" x14ac:dyDescent="0.2">
       <c r="BQ60" s="72"/>
+      <c r="BR60" s="72"/>
     </row>
-    <row r="61" spans="68:69" ht="12" x14ac:dyDescent="0.2">
-      <c r="BP61" s="72"/>
+    <row r="61" spans="69:70" ht="12" x14ac:dyDescent="0.2">
       <c r="BQ61" s="72"/>
+      <c r="BR61" s="72"/>
     </row>
-    <row r="62" spans="68:69" ht="12" x14ac:dyDescent="0.2">
-      <c r="BP62" s="72"/>
+    <row r="62" spans="69:70" ht="12" x14ac:dyDescent="0.2">
       <c r="BQ62" s="72"/>
+      <c r="BR62" s="72"/>
     </row>
-    <row r="63" spans="68:69" ht="12" x14ac:dyDescent="0.2">
-      <c r="BP63" s="72"/>
+    <row r="63" spans="69:70" ht="12" x14ac:dyDescent="0.2">
       <c r="BQ63" s="72"/>
+      <c r="BR63" s="72"/>
     </row>
-    <row r="64" spans="68:69" ht="12" x14ac:dyDescent="0.2">
-      <c r="BP64" s="72"/>
+    <row r="64" spans="69:70" ht="12" x14ac:dyDescent="0.2">
       <c r="BQ64" s="72"/>
+      <c r="BR64" s="72"/>
     </row>
-    <row r="65" spans="68:69" ht="12" x14ac:dyDescent="0.2">
-      <c r="BP65" s="72"/>
+    <row r="65" spans="69:70" ht="12" x14ac:dyDescent="0.2">
       <c r="BQ65" s="72"/>
+      <c r="BR65" s="72"/>
     </row>
-    <row r="66" spans="68:69" ht="12" x14ac:dyDescent="0.2">
-      <c r="BP66" s="72"/>
+    <row r="66" spans="69:70" ht="12" x14ac:dyDescent="0.2">
       <c r="BQ66" s="72"/>
+      <c r="BR66" s="72"/>
     </row>
-    <row r="67" spans="68:69" ht="12" x14ac:dyDescent="0.2">
-      <c r="BP67" s="72"/>
+    <row r="67" spans="69:70" ht="12" x14ac:dyDescent="0.2">
       <c r="BQ67" s="72"/>
+      <c r="BR67" s="72"/>
     </row>
-    <row r="68" spans="68:69" ht="12" x14ac:dyDescent="0.2">
-      <c r="BP68" s="72"/>
+    <row r="68" spans="69:70" ht="12" x14ac:dyDescent="0.2">
       <c r="BQ68" s="72"/>
+      <c r="BR68" s="72"/>
     </row>
-    <row r="69" spans="68:69" ht="12" x14ac:dyDescent="0.2">
-      <c r="BP69" s="72"/>
+    <row r="69" spans="69:70" ht="12" x14ac:dyDescent="0.2">
       <c r="BQ69" s="72"/>
+      <c r="BR69" s="72"/>
     </row>
-    <row r="70" spans="68:69" ht="12" x14ac:dyDescent="0.2">
-      <c r="BP70" s="72"/>
+    <row r="70" spans="69:70" ht="12" x14ac:dyDescent="0.2">
       <c r="BQ70" s="72"/>
+      <c r="BR70" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="CS1:CZ1"/>
-    <mergeCell ref="Z1:AH1"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="CC1:CJ1"/>
-    <mergeCell ref="AZ1:BF1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BM1:BY1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="AI1:AP1"/>
+    <mergeCell ref="CT1:DA1"/>
+    <mergeCell ref="AA1:AI1"/>
+    <mergeCell ref="AR1:AZ1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="CD1:CK1"/>
+    <mergeCell ref="BA1:BG1"/>
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="BL1:BM1"/>
+    <mergeCell ref="BN1:BZ1"/>
+    <mergeCell ref="CA1:CC1"/>
+    <mergeCell ref="AJ1:AQ1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{ED91BA9F-A736-48B5-BF4C-FD7BF1BFF920}"/>
@@ -19851,7 +20047,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:CZ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -19954,27 +20150,27 @@
       <c r="BX1" s="225"/>
       <c r="BY1" s="225"/>
       <c r="BZ1" s="226"/>
-      <c r="CA1" s="235" t="s">
+      <c r="CA1" s="238" t="s">
         <v>493</v>
       </c>
-      <c r="CB1" s="236"/>
-      <c r="CC1" s="236"/>
-      <c r="CD1" s="236"/>
-      <c r="CE1" s="236"/>
-      <c r="CF1" s="236"/>
-      <c r="CG1" s="236"/>
-      <c r="CH1" s="236"/>
-      <c r="CI1" s="236"/>
-      <c r="CJ1" s="236"/>
-      <c r="CK1" s="236"/>
-      <c r="CL1" s="236"/>
-      <c r="CM1" s="236"/>
-      <c r="CN1" s="236"/>
-      <c r="CO1" s="236"/>
-      <c r="CP1" s="236"/>
-      <c r="CQ1" s="236"/>
-      <c r="CR1" s="236"/>
-      <c r="CS1" s="237"/>
+      <c r="CB1" s="235"/>
+      <c r="CC1" s="235"/>
+      <c r="CD1" s="235"/>
+      <c r="CE1" s="235"/>
+      <c r="CF1" s="235"/>
+      <c r="CG1" s="235"/>
+      <c r="CH1" s="235"/>
+      <c r="CI1" s="235"/>
+      <c r="CJ1" s="235"/>
+      <c r="CK1" s="235"/>
+      <c r="CL1" s="235"/>
+      <c r="CM1" s="235"/>
+      <c r="CN1" s="235"/>
+      <c r="CO1" s="235"/>
+      <c r="CP1" s="235"/>
+      <c r="CQ1" s="235"/>
+      <c r="CR1" s="235"/>
+      <c r="CS1" s="239"/>
     </row>
     <row r="2" spans="1:104" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="52"/>
@@ -20061,25 +20257,25 @@
       <c r="BX2" s="225"/>
       <c r="BY2" s="225"/>
       <c r="BZ2" s="226"/>
-      <c r="CA2" s="238"/>
-      <c r="CB2" s="239"/>
-      <c r="CC2" s="239"/>
-      <c r="CD2" s="239"/>
-      <c r="CE2" s="239"/>
-      <c r="CF2" s="239"/>
-      <c r="CG2" s="239"/>
-      <c r="CH2" s="239"/>
-      <c r="CI2" s="239"/>
-      <c r="CJ2" s="239"/>
-      <c r="CK2" s="239"/>
-      <c r="CL2" s="239"/>
-      <c r="CM2" s="239"/>
-      <c r="CN2" s="239"/>
-      <c r="CO2" s="239"/>
-      <c r="CP2" s="239"/>
-      <c r="CQ2" s="239"/>
-      <c r="CR2" s="239"/>
-      <c r="CS2" s="240"/>
+      <c r="CA2" s="240"/>
+      <c r="CB2" s="236"/>
+      <c r="CC2" s="236"/>
+      <c r="CD2" s="236"/>
+      <c r="CE2" s="236"/>
+      <c r="CF2" s="236"/>
+      <c r="CG2" s="236"/>
+      <c r="CH2" s="236"/>
+      <c r="CI2" s="236"/>
+      <c r="CJ2" s="236"/>
+      <c r="CK2" s="236"/>
+      <c r="CL2" s="236"/>
+      <c r="CM2" s="236"/>
+      <c r="CN2" s="236"/>
+      <c r="CO2" s="236"/>
+      <c r="CP2" s="236"/>
+      <c r="CQ2" s="236"/>
+      <c r="CR2" s="236"/>
+      <c r="CS2" s="237"/>
     </row>
     <row r="3" spans="1:104" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="224" t="s">
@@ -20088,18 +20284,18 @@
       <c r="B3" s="225"/>
       <c r="C3" s="225"/>
       <c r="D3" s="225"/>
-      <c r="E3" s="236"/>
+      <c r="E3" s="235"/>
       <c r="F3" s="226"/>
-      <c r="G3" s="239" t="s">
+      <c r="G3" s="236" t="s">
         <v>498</v>
       </c>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="240"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="237"/>
       <c r="O3" s="224" t="s">
         <v>499</v>
       </c>
@@ -21815,18 +22011,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="G2:AB2"/>
-    <mergeCell ref="G1:AB1"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BC3"/>
-    <mergeCell ref="BD3:BI3"/>
-    <mergeCell ref="BJ3:BK3"/>
-    <mergeCell ref="O3:V3"/>
     <mergeCell ref="AI1:BZ1"/>
     <mergeCell ref="CQ3:CR3"/>
     <mergeCell ref="CL3:CP3"/>
@@ -21843,6 +22027,18 @@
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AI3:AJ3"/>
     <mergeCell ref="AK3:AP3"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BC3"/>
+    <mergeCell ref="BD3:BI3"/>
+    <mergeCell ref="BJ3:BK3"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="G2:AB2"/>
+    <mergeCell ref="G1:AB1"/>
+    <mergeCell ref="W3:Z3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -22128,6 +22324,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="02237a53-3673-4259-ae6b-dcce6b85ae6a" xsi:nil="true"/>
@@ -22136,15 +22341,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22377,20 +22573,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296D2E87-38D5-4196-BF9E-FE9D2F33D915}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52CC966B-7637-4892-A3C5-0DC12D537A47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="02237a53-3673-4259-ae6b-dcce6b85ae6a"/>
     <ds:schemaRef ds:uri="e61fca3e-63dc-42dc-ae10-62e289bce515"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296D2E87-38D5-4196-BF9E-FE9D2F33D915}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Excel datos/Datos P&T Version Actualizada.xlsx
+++ b/Excel datos/Datos P&T Version Actualizada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tunningcl-my.sharepoint.com/personal/felipe_quinteros_tunning_cl/Documents/Escritorio/proyecto de automatiacion/Excel datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1721" documentId="13_ncr:1_{11D514E8-F92C-40E6-9893-0AA97A7D8E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEC6D421-8B1D-4BAD-85B4-385A5A575C1A}"/>
+  <xr:revisionPtr revIDLastSave="1739" documentId="13_ncr:1_{11D514E8-F92C-40E6-9893-0AA97A7D8E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{810CAF7D-99B5-4818-8CDD-DBA381A51442}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-2565" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contactos Tecnicos" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5088" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5002" uniqueCount="647">
   <si>
     <t xml:space="preserve">Servidor </t>
   </si>
@@ -1482,9 +1482,6 @@
     <t>FtorresUM2*</t>
   </si>
   <si>
-    <t>damian.lizana@tunning.cl/ / damian.lizana</t>
-  </si>
-  <si>
     <t>Dami_lizana_803</t>
   </si>
   <si>
@@ -1494,12 +1491,6 @@
     <t>Sanchezi82037726.</t>
   </si>
   <si>
-    <t>Vicho191213@</t>
-  </si>
-  <si>
-    <t>Solicitar Clave</t>
-  </si>
-  <si>
     <t>Rbteleca.01</t>
   </si>
   <si>
@@ -1524,18 +1515,12 @@
     <t>J_bell-smythe_803</t>
   </si>
   <si>
-    <t>J_Barria_803</t>
-  </si>
-  <si>
     <t>M_muneca_2024</t>
   </si>
   <si>
     <t>G_hurtado_803</t>
   </si>
   <si>
-    <t>felipe.sanhueza@tunning.cl// FELIPESANHUEZAL</t>
-  </si>
-  <si>
     <t>Engineering</t>
   </si>
   <si>
@@ -1996,6 +1981,30 @@
   </si>
   <si>
     <t>NBGGMTS2JA3UGWBFFQVD66KMGRREI3S2</t>
+  </si>
+  <si>
+    <t>Lautaro@@803</t>
+  </si>
+  <si>
+    <t>DAbarca_803!</t>
+  </si>
+  <si>
+    <t>F_diazardiles_803.</t>
+  </si>
+  <si>
+    <t>E_leon_803</t>
+  </si>
+  <si>
+    <t>P_villalobos_806</t>
+  </si>
+  <si>
+    <t>I_cancino_803_</t>
+  </si>
+  <si>
+    <t>ver</t>
+  </si>
+  <si>
+    <t>Tg$%2025Tnng$%&amp;2025.</t>
   </si>
 </sst>
 </file>
@@ -2128,7 +2137,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2163,6 +2172,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2886,19 +2901,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -3095,13 +3097,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3314,9 +3331,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3324,30 +3338,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3364,8 +3378,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3408,13 +3422,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3439,7 +3453,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3451,13 +3465,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3520,9 +3531,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3532,7 +3540,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3550,7 +3558,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3562,7 +3570,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3589,7 +3597,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3604,7 +3612,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3622,7 +3630,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3633,13 +3641,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3660,8 +3668,46 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3738,22 +3784,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5218,22 +5248,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="223"/>
-      <c r="B1" s="223"/>
+      <c r="A1" s="234"/>
+      <c r="B1" s="234"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
       <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="223"/>
-      <c r="B2" s="223"/>
+      <c r="A2" s="234"/>
+      <c r="B2" s="234"/>
       <c r="C2" s="31" t="s">
         <v>0</v>
       </c>
@@ -6494,69 +6524,69 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="185" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="198" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="209" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="135" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="135" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="182" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="195" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="206" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="134" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="134" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="134" bestFit="1" customWidth="1"/>
     <col min="7" max="28" width="10.5703125" style="1" customWidth="1"/>
     <col min="29" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="235" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="227" t="s">
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="238" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="227" t="s">
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="238" t="s">
         <v>207</v>
       </c>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="229"/>
-      <c r="P1" s="224" t="s">
+      <c r="M1" s="239"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="240"/>
+      <c r="P1" s="235" t="s">
         <v>208</v>
       </c>
-      <c r="Q1" s="225"/>
-      <c r="R1" s="225"/>
-      <c r="S1" s="225"/>
-      <c r="T1" s="226"/>
-      <c r="U1" s="224" t="s">
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="237"/>
+      <c r="U1" s="235" t="s">
         <v>209</v>
       </c>
-      <c r="V1" s="225"/>
-      <c r="W1" s="225"/>
-      <c r="X1" s="226"/>
-      <c r="Y1" s="224" t="s">
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="235" t="s">
         <v>210</v>
       </c>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="225"/>
-      <c r="AB1" s="226"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="236"/>
+      <c r="AB1" s="237"/>
       <c r="AC1" s="46" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="2" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="218" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="196" t="s">
         <v>214</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -6643,19 +6673,19 @@
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="173" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="183" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="200" t="s">
+      <c r="C3" s="197" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="119" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="120" t="s">
         <v>245</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -6732,19 +6762,19 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="174" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="184" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="201" t="s">
+      <c r="C4" s="198" t="s">
         <v>243</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="121" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="113" t="s">
         <v>252</v>
       </c>
       <c r="F4" s="19" t="s">
@@ -6821,19 +6851,19 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="174" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="187" t="s">
+      <c r="B5" s="184" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="201" t="s">
+      <c r="C5" s="198" t="s">
         <v>243</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="121" t="s">
         <v>257</v>
       </c>
       <c r="F5" s="19" t="s">
@@ -6910,19 +6940,19 @@
       </c>
     </row>
     <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="177" t="s">
+      <c r="A6" s="174" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="187" t="s">
+      <c r="B6" s="184" t="s">
         <v>258</v>
       </c>
-      <c r="C6" s="201" t="s">
+      <c r="C6" s="198" t="s">
         <v>243</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="122" t="s">
         <v>259</v>
       </c>
-      <c r="E6" s="124" t="s">
+      <c r="E6" s="123" t="s">
         <v>260</v>
       </c>
       <c r="F6" s="26" t="s">
@@ -6999,19 +7029,19 @@
       </c>
     </row>
     <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="178" t="s">
+      <c r="A7" s="175" t="s">
         <v>261</v>
       </c>
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="185" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="202" t="s">
+      <c r="C7" s="199" t="s">
         <v>243</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="122" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="124" t="s">
+      <c r="E7" s="123" t="s">
         <v>264</v>
       </c>
       <c r="F7" s="26" t="s">
@@ -7042,19 +7072,19 @@
       <c r="AC7" s="26"/>
     </row>
     <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="179" t="s">
+      <c r="A8" s="176" t="s">
         <v>265</v>
       </c>
-      <c r="B8" s="189" t="s">
+      <c r="B8" s="186" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="203" t="s">
+      <c r="C8" s="200" t="s">
         <v>243</v>
       </c>
-      <c r="D8" s="126" t="s">
+      <c r="D8" s="125" t="s">
         <v>267</v>
       </c>
-      <c r="E8" s="135" t="s">
+      <c r="E8" s="134" t="s">
         <v>268</v>
       </c>
       <c r="F8" s="21" t="s">
@@ -7131,19 +7161,19 @@
       </c>
     </row>
     <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="174" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="187" t="s">
+      <c r="B9" s="184" t="s">
         <v>269</v>
       </c>
-      <c r="C9" s="201" t="s">
+      <c r="C9" s="198" t="s">
         <v>270</v>
       </c>
-      <c r="D9" s="122" t="s">
+      <c r="D9" s="121" t="s">
         <v>271</v>
       </c>
-      <c r="E9" s="122" t="s">
+      <c r="E9" s="121" t="s">
         <v>272</v>
       </c>
       <c r="F9" s="19" t="s">
@@ -7220,19 +7250,19 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="174" t="s">
         <v>274</v>
       </c>
-      <c r="B10" s="187" t="s">
+      <c r="B10" s="184" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="201" t="s">
+      <c r="C10" s="198" t="s">
         <v>270</v>
       </c>
-      <c r="D10" s="122" t="s">
+      <c r="D10" s="121" t="s">
         <v>276</v>
       </c>
-      <c r="E10" s="127" t="s">
+      <c r="E10" s="126" t="s">
         <v>277</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -7309,19 +7339,19 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="174" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="187" t="s">
+      <c r="B11" s="184" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="201" t="s">
+      <c r="C11" s="198" t="s">
         <v>270</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="D11" s="121" t="s">
         <v>279</v>
       </c>
-      <c r="E11" s="114" t="s">
+      <c r="E11" s="113" t="s">
         <v>280</v>
       </c>
       <c r="F11" s="19" t="s">
@@ -7398,20 +7428,20 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="177" t="s">
+      <c r="A12" s="174" t="s">
         <v>281</v>
       </c>
-      <c r="B12" s="187" t="s">
+      <c r="B12" s="184" t="s">
         <v>282</v>
       </c>
-      <c r="C12" s="201" t="s">
+      <c r="C12" s="198" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="114" t="s">
+      <c r="D12" s="121"/>
+      <c r="E12" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="F12" s="114" t="s">
+      <c r="F12" s="113" t="s">
         <v>253</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -7485,19 +7515,19 @@
       </c>
     </row>
     <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="174" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="187" t="s">
+      <c r="B13" s="184" t="s">
         <v>284</v>
       </c>
-      <c r="C13" s="201" t="s">
+      <c r="C13" s="198" t="s">
         <v>270</v>
       </c>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="E13" s="135" t="s">
+      <c r="E13" s="134" t="s">
         <v>286</v>
       </c>
       <c r="F13" s="19" t="s">
@@ -7574,17 +7604,17 @@
       </c>
     </row>
     <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="180" t="s">
+      <c r="A14" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="204" t="s">
+      <c r="C14" s="201" t="s">
         <v>270</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124" t="s">
+      <c r="D14" s="122"/>
+      <c r="E14" s="123" t="s">
         <v>288</v>
       </c>
       <c r="F14" s="26" t="s">
@@ -7661,19 +7691,19 @@
       </c>
     </row>
     <row r="15" spans="1:33" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="173" t="s">
         <v>289</v>
       </c>
-      <c r="B15" s="191" t="s">
+      <c r="B15" s="188" t="s">
         <v>290</v>
       </c>
-      <c r="C15" s="200" t="s">
+      <c r="C15" s="197" t="s">
         <v>291</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="119" t="s">
         <v>292</v>
       </c>
-      <c r="E15" s="120" t="s">
+      <c r="E15" s="119" t="s">
         <v>293</v>
       </c>
       <c r="F15" s="17" t="s">
@@ -7751,17 +7781,17 @@
       <c r="AD15" s="70"/>
     </row>
     <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="177" t="s">
+      <c r="A16" s="174" t="s">
         <v>294</v>
       </c>
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="189" t="s">
         <v>295</v>
       </c>
-      <c r="C16" s="200" t="s">
+      <c r="C16" s="197" t="s">
         <v>291</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="19" t="s">
         <v>273</v>
       </c>
@@ -7793,17 +7823,17 @@
       <c r="A17" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="189" t="s">
         <v>297</v>
       </c>
-      <c r="C17" s="201" t="s">
+      <c r="C17" s="198" t="s">
         <v>298</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122" t="s">
+      <c r="D17" s="121"/>
+      <c r="E17" s="121" t="s">
         <v>299</v>
       </c>
-      <c r="F17" s="97" t="s">
+      <c r="F17" s="96" t="s">
         <v>246</v>
       </c>
       <c r="G17" s="91" t="s">
@@ -7880,16 +7910,16 @@
       <c r="A18" s="93" t="s">
         <v>300</v>
       </c>
-      <c r="B18" s="187" t="s">
+      <c r="B18" s="184" t="s">
         <v>301</v>
       </c>
-      <c r="C18" s="201" t="s">
+      <c r="C18" s="198" t="s">
         <v>298</v>
       </c>
-      <c r="D18" s="122" t="s">
+      <c r="D18" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="E18" s="122" t="s">
+      <c r="E18" s="121" t="s">
         <v>303</v>
       </c>
       <c r="F18" s="19" t="s">
@@ -7969,14 +7999,14 @@
       <c r="A19" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="192" t="s">
+      <c r="B19" s="189" t="s">
         <v>304</v>
       </c>
-      <c r="C19" s="201" t="s">
+      <c r="C19" s="198" t="s">
         <v>298</v>
       </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122" t="s">
+      <c r="D19" s="121"/>
+      <c r="E19" s="121" t="s">
         <v>305</v>
       </c>
       <c r="F19" s="19" t="s">
@@ -8056,17 +8086,17 @@
       <c r="A20" s="93" t="s">
         <v>306</v>
       </c>
-      <c r="B20" s="192" t="s">
+      <c r="B20" s="189" t="s">
         <v>307</v>
       </c>
-      <c r="C20" s="201" t="s">
+      <c r="C20" s="198" t="s">
         <v>298</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122" t="s">
+      <c r="D20" s="121"/>
+      <c r="E20" s="121" t="s">
         <v>308</v>
       </c>
-      <c r="F20" s="97" t="s">
+      <c r="F20" s="96" t="s">
         <v>246</v>
       </c>
       <c r="G20" s="91" t="s">
@@ -8140,20 +8170,20 @@
       </c>
     </row>
     <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="181" t="s">
+      <c r="A21" s="178" t="s">
         <v>309</v>
       </c>
-      <c r="B21" s="193" t="s">
+      <c r="B21" s="190" t="s">
         <v>310</v>
       </c>
-      <c r="C21" s="205" t="s">
+      <c r="C21" s="202" t="s">
         <v>298</v>
       </c>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128" t="s">
+      <c r="D21" s="127"/>
+      <c r="E21" s="127" t="s">
         <v>311</v>
       </c>
-      <c r="F21" s="98" t="s">
+      <c r="F21" s="97" t="s">
         <v>246</v>
       </c>
       <c r="G21" s="91" t="s">
@@ -8227,19 +8257,19 @@
       </c>
     </row>
     <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="182" t="s">
+      <c r="A22" s="179" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="194" t="s">
+      <c r="B22" s="191" t="s">
         <v>312</v>
       </c>
-      <c r="C22" s="206" t="s">
+      <c r="C22" s="203" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="129" t="s">
+      <c r="D22" s="128" t="s">
         <v>314</v>
       </c>
-      <c r="E22" s="130" t="s">
+      <c r="E22" s="129" t="s">
         <v>315</v>
       </c>
       <c r="F22" s="89" t="s">
@@ -8316,19 +8346,19 @@
       </c>
     </row>
     <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="177" t="s">
+      <c r="A23" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="187" t="s">
+      <c r="B23" s="184" t="s">
         <v>316</v>
       </c>
-      <c r="C23" s="201" t="s">
+      <c r="C23" s="198" t="s">
         <v>313</v>
       </c>
-      <c r="D23" s="122" t="s">
+      <c r="D23" s="121" t="s">
         <v>317</v>
       </c>
-      <c r="E23" s="114" t="s">
+      <c r="E23" s="113" t="s">
         <v>318</v>
       </c>
       <c r="F23" s="19" t="s">
@@ -8405,19 +8435,19 @@
       </c>
     </row>
     <row r="24" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="180" t="s">
+      <c r="A24" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="195" t="s">
+      <c r="B24" s="192" t="s">
         <v>319</v>
       </c>
-      <c r="C24" s="204" t="s">
+      <c r="C24" s="201" t="s">
         <v>313</v>
       </c>
-      <c r="D24" s="123" t="s">
+      <c r="D24" s="122" t="s">
         <v>320</v>
       </c>
-      <c r="E24" s="124" t="s">
+      <c r="E24" s="123" t="s">
         <v>321</v>
       </c>
       <c r="F24" s="26" t="s">
@@ -8494,17 +8524,17 @@
       </c>
     </row>
     <row r="25" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="180" t="s">
+      <c r="A25" s="177" t="s">
         <v>195</v>
       </c>
-      <c r="B25" s="190" t="s">
+      <c r="B25" s="187" t="s">
         <v>322</v>
       </c>
-      <c r="C25" s="204" t="s">
+      <c r="C25" s="201" t="s">
         <v>313</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="124" t="s">
+      <c r="D25" s="122"/>
+      <c r="E25" s="123" t="s">
         <v>323</v>
       </c>
       <c r="F25" s="26" t="s">
@@ -8535,17 +8565,17 @@
       <c r="AC25" s="26"/>
     </row>
     <row r="26" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="180" t="s">
+      <c r="A26" s="177" t="s">
         <v>324</v>
       </c>
-      <c r="B26" s="190" t="s">
+      <c r="B26" s="187" t="s">
         <v>325</v>
       </c>
-      <c r="C26" s="204" t="s">
+      <c r="C26" s="201" t="s">
         <v>326</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="122" t="s">
+      <c r="D26" s="122"/>
+      <c r="E26" s="121" t="s">
         <v>327</v>
       </c>
       <c r="F26" s="26" t="s">
@@ -8576,19 +8606,19 @@
       <c r="AC26" s="26"/>
     </row>
     <row r="27" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="180" t="s">
+      <c r="A27" s="177" t="s">
         <v>198</v>
       </c>
-      <c r="B27" s="190" t="s">
+      <c r="B27" s="187" t="s">
         <v>328</v>
       </c>
-      <c r="C27" s="204" t="s">
+      <c r="C27" s="201" t="s">
         <v>313</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="122" t="s">
         <v>329</v>
       </c>
-      <c r="E27" s="124" t="s">
+      <c r="E27" s="123" t="s">
         <v>330</v>
       </c>
       <c r="F27" s="26" t="s">
@@ -8665,17 +8695,17 @@
       </c>
     </row>
     <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="179" t="s">
+      <c r="A28" s="176" t="s">
         <v>192</v>
       </c>
-      <c r="B28" s="189" t="s">
+      <c r="B28" s="186" t="s">
         <v>332</v>
       </c>
-      <c r="C28" s="203" t="s">
+      <c r="C28" s="200" t="s">
         <v>313</v>
       </c>
-      <c r="D28" s="125"/>
-      <c r="E28" s="126" t="s">
+      <c r="D28" s="124"/>
+      <c r="E28" s="125" t="s">
         <v>191</v>
       </c>
       <c r="F28" s="26" t="s">
@@ -8752,19 +8782,19 @@
       </c>
     </row>
     <row r="29" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="183" t="s">
+      <c r="A29" s="180" t="s">
         <v>189</v>
       </c>
-      <c r="B29" s="196" t="s">
+      <c r="B29" s="193" t="s">
         <v>333</v>
       </c>
-      <c r="C29" s="207" t="s">
+      <c r="C29" s="204" t="s">
         <v>334</v>
       </c>
-      <c r="D29" s="131" t="s">
+      <c r="D29" s="130" t="s">
         <v>335</v>
       </c>
-      <c r="E29" s="132" t="s">
+      <c r="E29" s="131" t="s">
         <v>247</v>
       </c>
       <c r="F29" s="29" t="s">
@@ -8845,19 +8875,19 @@
       <c r="AG29" s="65"/>
     </row>
     <row r="30" spans="1:33" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="180" t="s">
+      <c r="A30" s="177" t="s">
         <v>336</v>
       </c>
-      <c r="B30" s="190" t="s">
+      <c r="B30" s="187" t="s">
         <v>337</v>
       </c>
-      <c r="C30" s="204" t="s">
+      <c r="C30" s="201" t="s">
         <v>334</v>
       </c>
-      <c r="D30" s="123" t="s">
+      <c r="D30" s="122" t="s">
         <v>338</v>
       </c>
-      <c r="E30" s="133" t="s">
+      <c r="E30" s="132" t="s">
         <v>339</v>
       </c>
       <c r="F30" s="26" t="s">
@@ -8938,17 +8968,17 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="180" t="s">
+      <c r="A31" s="177" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="190" t="s">
+      <c r="B31" s="187" t="s">
         <v>341</v>
       </c>
-      <c r="C31" s="204" t="s">
+      <c r="C31" s="201" t="s">
         <v>334</v>
       </c>
-      <c r="D31" s="123"/>
-      <c r="E31" s="124" t="s">
+      <c r="D31" s="122"/>
+      <c r="E31" s="123" t="s">
         <v>342</v>
       </c>
       <c r="F31" s="26" t="s">
@@ -9025,19 +9055,19 @@
       </c>
     </row>
     <row r="32" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="180" t="s">
+      <c r="A32" s="177" t="s">
         <v>343</v>
       </c>
-      <c r="B32" s="190" t="s">
+      <c r="B32" s="187" t="s">
         <v>344</v>
       </c>
-      <c r="C32" s="204" t="s">
+      <c r="C32" s="201" t="s">
         <v>334</v>
       </c>
-      <c r="D32" s="123" t="s">
+      <c r="D32" s="122" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="124" t="s">
+      <c r="E32" s="123" t="s">
         <v>346</v>
       </c>
       <c r="F32" s="26" t="s">
@@ -9114,19 +9144,19 @@
       </c>
     </row>
     <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="180" t="s">
+      <c r="A33" s="177" t="s">
         <v>347</v>
       </c>
-      <c r="B33" s="195" t="s">
+      <c r="B33" s="192" t="s">
         <v>348</v>
       </c>
-      <c r="C33" s="204" t="s">
+      <c r="C33" s="201" t="s">
         <v>334</v>
       </c>
-      <c r="D33" s="123" t="s">
+      <c r="D33" s="122" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="123" t="s">
+      <c r="E33" s="122" t="s">
         <v>349</v>
       </c>
       <c r="F33" s="26" t="s">
@@ -9203,17 +9233,17 @@
       </c>
     </row>
     <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="179" t="s">
+      <c r="A34" s="176" t="s">
         <v>350</v>
       </c>
-      <c r="B34" s="189" t="s">
+      <c r="B34" s="186" t="s">
         <v>351</v>
       </c>
-      <c r="C34" s="203" t="s">
+      <c r="C34" s="200" t="s">
         <v>334</v>
       </c>
-      <c r="D34" s="125"/>
-      <c r="E34" s="126" t="s">
+      <c r="D34" s="124"/>
+      <c r="E34" s="125" t="s">
         <v>352</v>
       </c>
       <c r="F34" s="21" t="s">
@@ -9290,19 +9320,19 @@
       </c>
     </row>
     <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="176" t="s">
+      <c r="A35" s="173" t="s">
         <v>353</v>
       </c>
-      <c r="B35" s="186" t="s">
+      <c r="B35" s="183" t="s">
         <v>354</v>
       </c>
-      <c r="C35" s="207" t="s">
+      <c r="C35" s="204" t="s">
         <v>334</v>
       </c>
-      <c r="D35" s="120" t="s">
+      <c r="D35" s="119" t="s">
         <v>355</v>
       </c>
-      <c r="E35" s="121" t="s">
+      <c r="E35" s="120" t="s">
         <v>247</v>
       </c>
       <c r="F35" s="19" t="s">
@@ -9379,19 +9409,19 @@
       </c>
     </row>
     <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="177" t="s">
+      <c r="A36" s="174" t="s">
         <v>356</v>
       </c>
-      <c r="B36" s="187" t="s">
+      <c r="B36" s="184" t="s">
         <v>357</v>
       </c>
-      <c r="C36" s="204" t="s">
+      <c r="C36" s="201" t="s">
         <v>334</v>
       </c>
-      <c r="D36" s="122" t="s">
+      <c r="D36" s="121" t="s">
         <v>358</v>
       </c>
-      <c r="E36" s="114" t="s">
+      <c r="E36" s="113" t="s">
         <v>247</v>
       </c>
       <c r="F36" s="19" t="s">
@@ -9468,17 +9498,17 @@
       </c>
     </row>
     <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="177" t="s">
+      <c r="A37" s="174" t="s">
         <v>359</v>
       </c>
-      <c r="B37" s="187" t="s">
+      <c r="B37" s="184" t="s">
         <v>360</v>
       </c>
-      <c r="C37" s="204" t="s">
+      <c r="C37" s="201" t="s">
         <v>334</v>
       </c>
-      <c r="D37" s="122"/>
-      <c r="E37" s="114"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="113"/>
       <c r="F37" s="19" t="s">
         <v>273</v>
       </c>
@@ -9553,64 +9583,64 @@
       </c>
     </row>
     <row r="38" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="184" t="s">
+      <c r="A38" s="181" t="s">
         <v>361</v>
       </c>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="194" t="s">
         <v>362</v>
       </c>
-      <c r="C38" s="208" t="s">
+      <c r="C38" s="205" t="s">
         <v>363</v>
       </c>
-      <c r="D38" s="134" t="s">
+      <c r="D38" s="133" t="s">
         <v>364</v>
       </c>
-      <c r="E38" s="134" t="s">
+      <c r="E38" s="133" t="s">
         <v>365</v>
       </c>
-      <c r="F38" s="134" t="s">
+      <c r="F38" s="133" t="s">
         <v>253</v>
       </c>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="118"/>
-      <c r="L38" s="118"/>
-      <c r="M38" s="118"/>
-      <c r="N38" s="118"/>
-      <c r="O38" s="118"/>
-      <c r="P38" s="118"/>
-      <c r="Q38" s="118"/>
-      <c r="R38" s="118"/>
-      <c r="S38" s="118"/>
-      <c r="T38" s="118"/>
-      <c r="U38" s="118"/>
-      <c r="V38" s="118"/>
-      <c r="W38" s="118"/>
-      <c r="X38" s="118"/>
-      <c r="Y38" s="118"/>
-      <c r="Z38" s="118"/>
-      <c r="AA38" s="118"/>
-      <c r="AB38" s="118"/>
-      <c r="AC38" s="119" t="s">
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="117"/>
+      <c r="Q38" s="117"/>
+      <c r="R38" s="117"/>
+      <c r="S38" s="117"/>
+      <c r="T38" s="117"/>
+      <c r="U38" s="117"/>
+      <c r="V38" s="117"/>
+      <c r="W38" s="117"/>
+      <c r="X38" s="117"/>
+      <c r="Y38" s="117"/>
+      <c r="Z38" s="117"/>
+      <c r="AA38" s="117"/>
+      <c r="AB38" s="117"/>
+      <c r="AC38" s="118" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176" t="s">
+      <c r="A39" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="186" t="s">
+      <c r="B39" s="183" t="s">
         <v>367</v>
       </c>
-      <c r="C39" s="200" t="s">
+      <c r="C39" s="197" t="s">
         <v>368</v>
       </c>
-      <c r="D39" s="120" t="s">
+      <c r="D39" s="119" t="s">
         <v>369</v>
       </c>
-      <c r="E39" s="121" t="s">
+      <c r="E39" s="120" t="s">
         <v>370</v>
       </c>
       <c r="F39" s="17" t="s">
@@ -9735,17 +9765,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2095A0E1-299E-4ADF-A78B-F6D2450DA852}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:EM70"/>
+  <dimension ref="A1:EM69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="145" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="150" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="145" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="144" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="149" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="144" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" style="1" customWidth="1"/>
@@ -9755,139 +9785,139 @@
     <col min="32" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:143" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="227" t="s">
+    <row r="1" spans="1:143" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="238" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="224" t="s">
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="235" t="s">
         <v>371</v>
       </c>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="225"/>
-      <c r="N1" s="225"/>
-      <c r="O1" s="225"/>
-      <c r="P1" s="226"/>
-      <c r="Q1" s="224" t="s">
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="237"/>
+      <c r="Q1" s="235" t="s">
         <v>372</v>
       </c>
-      <c r="R1" s="225"/>
-      <c r="S1" s="226"/>
-      <c r="T1" s="224" t="s">
+      <c r="R1" s="236"/>
+      <c r="S1" s="237"/>
+      <c r="T1" s="235" t="s">
         <v>373</v>
       </c>
-      <c r="U1" s="225"/>
-      <c r="V1" s="225"/>
-      <c r="W1" s="225"/>
-      <c r="X1" s="226"/>
-      <c r="Y1" s="224" t="s">
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="235" t="s">
         <v>374</v>
       </c>
-      <c r="Z1" s="226"/>
-      <c r="AA1" s="224" t="s">
+      <c r="Z1" s="237"/>
+      <c r="AA1" s="235" t="s">
         <v>375</v>
       </c>
-      <c r="AB1" s="225"/>
-      <c r="AC1" s="225"/>
-      <c r="AD1" s="225"/>
-      <c r="AE1" s="225"/>
-      <c r="AF1" s="225"/>
-      <c r="AG1" s="225"/>
-      <c r="AH1" s="225"/>
-      <c r="AI1" s="226"/>
-      <c r="AJ1" s="224" t="s">
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="236"/>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="236"/>
+      <c r="AH1" s="236"/>
+      <c r="AI1" s="237"/>
+      <c r="AJ1" s="235" t="s">
         <v>376</v>
       </c>
-      <c r="AK1" s="225"/>
-      <c r="AL1" s="225"/>
-      <c r="AM1" s="225"/>
-      <c r="AN1" s="225"/>
-      <c r="AO1" s="225"/>
-      <c r="AP1" s="225"/>
-      <c r="AQ1" s="226"/>
-      <c r="AR1" s="231" t="s">
+      <c r="AK1" s="236"/>
+      <c r="AL1" s="236"/>
+      <c r="AM1" s="236"/>
+      <c r="AN1" s="236"/>
+      <c r="AO1" s="236"/>
+      <c r="AP1" s="236"/>
+      <c r="AQ1" s="237"/>
+      <c r="AR1" s="242" t="s">
         <v>377</v>
       </c>
-      <c r="AS1" s="232"/>
-      <c r="AT1" s="232"/>
-      <c r="AU1" s="232"/>
-      <c r="AV1" s="232"/>
-      <c r="AW1" s="232"/>
-      <c r="AX1" s="232"/>
-      <c r="AY1" s="232"/>
-      <c r="AZ1" s="232"/>
-      <c r="BA1" s="231" t="s">
+      <c r="AS1" s="243"/>
+      <c r="AT1" s="243"/>
+      <c r="AU1" s="243"/>
+      <c r="AV1" s="243"/>
+      <c r="AW1" s="243"/>
+      <c r="AX1" s="243"/>
+      <c r="AY1" s="243"/>
+      <c r="AZ1" s="243"/>
+      <c r="BA1" s="242" t="s">
         <v>378</v>
       </c>
-      <c r="BB1" s="232"/>
-      <c r="BC1" s="232"/>
-      <c r="BD1" s="232"/>
-      <c r="BE1" s="232"/>
-      <c r="BF1" s="232"/>
-      <c r="BG1" s="234"/>
-      <c r="BH1" s="231" t="s">
+      <c r="BB1" s="243"/>
+      <c r="BC1" s="243"/>
+      <c r="BD1" s="243"/>
+      <c r="BE1" s="243"/>
+      <c r="BF1" s="243"/>
+      <c r="BG1" s="245"/>
+      <c r="BH1" s="242" t="s">
         <v>379</v>
       </c>
-      <c r="BI1" s="232"/>
-      <c r="BJ1" s="232"/>
-      <c r="BK1" s="234"/>
-      <c r="BL1" s="231" t="s">
+      <c r="BI1" s="243"/>
+      <c r="BJ1" s="243"/>
+      <c r="BK1" s="245"/>
+      <c r="BL1" s="242" t="s">
         <v>380</v>
       </c>
-      <c r="BM1" s="234"/>
-      <c r="BN1" s="231" t="s">
+      <c r="BM1" s="245"/>
+      <c r="BN1" s="242" t="s">
         <v>381</v>
       </c>
-      <c r="BO1" s="232"/>
-      <c r="BP1" s="232"/>
-      <c r="BQ1" s="232"/>
-      <c r="BR1" s="232"/>
-      <c r="BS1" s="232"/>
-      <c r="BT1" s="232"/>
-      <c r="BU1" s="232"/>
-      <c r="BV1" s="232"/>
-      <c r="BW1" s="232"/>
-      <c r="BX1" s="232"/>
-      <c r="BY1" s="232"/>
-      <c r="BZ1" s="234"/>
-      <c r="CA1" s="231" t="s">
+      <c r="BO1" s="243"/>
+      <c r="BP1" s="243"/>
+      <c r="BQ1" s="243"/>
+      <c r="BR1" s="243"/>
+      <c r="BS1" s="243"/>
+      <c r="BT1" s="243"/>
+      <c r="BU1" s="243"/>
+      <c r="BV1" s="243"/>
+      <c r="BW1" s="243"/>
+      <c r="BX1" s="243"/>
+      <c r="BY1" s="243"/>
+      <c r="BZ1" s="245"/>
+      <c r="CA1" s="242" t="s">
         <v>382</v>
       </c>
-      <c r="CB1" s="232"/>
-      <c r="CC1" s="234"/>
-      <c r="CD1" s="231" t="s">
+      <c r="CB1" s="243"/>
+      <c r="CC1" s="245"/>
+      <c r="CD1" s="242" t="s">
         <v>383</v>
       </c>
-      <c r="CE1" s="232"/>
-      <c r="CF1" s="232"/>
-      <c r="CG1" s="232"/>
-      <c r="CH1" s="232"/>
-      <c r="CI1" s="232"/>
-      <c r="CJ1" s="232"/>
-      <c r="CK1" s="234"/>
+      <c r="CE1" s="243"/>
+      <c r="CF1" s="243"/>
+      <c r="CG1" s="243"/>
+      <c r="CH1" s="243"/>
+      <c r="CI1" s="243"/>
+      <c r="CJ1" s="243"/>
+      <c r="CK1" s="245"/>
       <c r="CL1" s="73"/>
       <c r="CM1" s="73"/>
       <c r="CN1" s="73"/>
       <c r="CO1" s="73"/>
       <c r="CP1" s="73"/>
-      <c r="CT1" s="230"/>
-      <c r="CU1" s="230"/>
-      <c r="CV1" s="230"/>
-      <c r="CW1" s="230"/>
-      <c r="CX1" s="230"/>
-      <c r="CY1" s="230"/>
-      <c r="CZ1" s="230"/>
-      <c r="DA1" s="230"/>
+      <c r="CT1" s="241"/>
+      <c r="CU1" s="241"/>
+      <c r="CV1" s="241"/>
+      <c r="CW1" s="241"/>
+      <c r="CX1" s="241"/>
+      <c r="CY1" s="241"/>
+      <c r="CZ1" s="241"/>
+      <c r="DA1" s="241"/>
     </row>
-    <row r="2" spans="1:143" s="2" customFormat="1" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:143" s="2" customFormat="1" ht="92.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>212</v>
       </c>
@@ -9904,9 +9934,9 @@
         <v>216</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>617</v>
-      </c>
-      <c r="G2" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="G2" s="227" t="s">
         <v>217</v>
       </c>
       <c r="H2" s="13" t="s">
@@ -9930,10 +9960,10 @@
       <c r="N2" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="O2" s="115" t="s">
+      <c r="O2" s="114" t="s">
         <v>391</v>
       </c>
-      <c r="P2" s="115" t="s">
+      <c r="P2" s="114" t="s">
         <v>392</v>
       </c>
       <c r="Q2" s="13" t="s">
@@ -9942,7 +9972,7 @@
       <c r="R2" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="S2" s="116" t="s">
+      <c r="S2" s="115" t="s">
         <v>395</v>
       </c>
       <c r="T2" s="13" t="s">
@@ -9978,10 +10008,10 @@
       <c r="AD2" s="66" t="s">
         <v>406</v>
       </c>
-      <c r="AE2" s="154" t="s">
+      <c r="AE2" s="152" t="s">
         <v>407</v>
       </c>
-      <c r="AF2" s="155" t="s">
+      <c r="AF2" s="153" t="s">
         <v>408</v>
       </c>
       <c r="AG2" s="14" t="s">
@@ -9990,13 +10020,13 @@
       <c r="AH2" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="AI2" s="156" t="s">
+      <c r="AI2" s="154" t="s">
         <v>411</v>
       </c>
       <c r="AJ2" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="AK2" s="155" t="s">
+      <c r="AK2" s="153" t="s">
         <v>413</v>
       </c>
       <c r="AL2" s="14" t="s">
@@ -10017,19 +10047,19 @@
       <c r="AQ2" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="AR2" s="157" t="s">
+      <c r="AR2" s="155" t="s">
         <v>420</v>
       </c>
       <c r="AS2" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="AT2" s="158" t="s">
+      <c r="AT2" s="156" t="s">
         <v>422</v>
       </c>
-      <c r="AU2" s="158" t="s">
+      <c r="AU2" s="156" t="s">
         <v>423</v>
       </c>
-      <c r="AV2" s="154" t="s">
+      <c r="AV2" s="152" t="s">
         <v>424</v>
       </c>
       <c r="AW2" s="2" t="s">
@@ -10038,118 +10068,118 @@
       <c r="AX2" s="66" t="s">
         <v>426</v>
       </c>
-      <c r="AY2" s="159" t="s">
+      <c r="AY2" s="157" t="s">
         <v>427</v>
       </c>
-      <c r="AZ2" s="117" t="s">
+      <c r="AZ2" s="116" t="s">
         <v>428</v>
       </c>
-      <c r="BA2" s="157" t="s">
+      <c r="BA2" s="155" t="s">
         <v>429</v>
       </c>
-      <c r="BB2" s="158" t="s">
+      <c r="BB2" s="156" t="s">
         <v>430</v>
       </c>
-      <c r="BC2" s="158" t="s">
+      <c r="BC2" s="156" t="s">
         <v>431</v>
       </c>
-      <c r="BD2" s="158" t="s">
+      <c r="BD2" s="156" t="s">
         <v>432</v>
       </c>
-      <c r="BE2" s="158" t="s">
+      <c r="BE2" s="156" t="s">
         <v>433</v>
       </c>
       <c r="BF2" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="BG2" s="159" t="s">
+      <c r="BG2" s="157" t="s">
         <v>435</v>
       </c>
-      <c r="BH2" s="157" t="s">
+      <c r="BH2" s="155" t="s">
         <v>436</v>
       </c>
-      <c r="BI2" s="158" t="s">
+      <c r="BI2" s="156" t="s">
         <v>437</v>
       </c>
-      <c r="BJ2" s="158" t="s">
+      <c r="BJ2" s="156" t="s">
         <v>438</v>
       </c>
-      <c r="BK2" s="158" t="s">
+      <c r="BK2" s="156" t="s">
         <v>439</v>
       </c>
-      <c r="BL2" s="157" t="s">
+      <c r="BL2" s="155" t="s">
         <v>440</v>
       </c>
-      <c r="BM2" s="158" t="s">
+      <c r="BM2" s="156" t="s">
         <v>441</v>
       </c>
-      <c r="BN2" s="157" t="s">
+      <c r="BN2" s="155" t="s">
         <v>442</v>
       </c>
-      <c r="BO2" s="158" t="s">
+      <c r="BO2" s="156" t="s">
         <v>443</v>
       </c>
-      <c r="BP2" s="158" t="s">
+      <c r="BP2" s="156" t="s">
         <v>444</v>
       </c>
-      <c r="BQ2" s="158" t="s">
+      <c r="BQ2" s="156" t="s">
         <v>445</v>
       </c>
-      <c r="BR2" s="158" t="s">
+      <c r="BR2" s="156" t="s">
         <v>446</v>
       </c>
-      <c r="BS2" s="158" t="s">
+      <c r="BS2" s="156" t="s">
         <v>447</v>
       </c>
-      <c r="BT2" s="158" t="s">
+      <c r="BT2" s="156" t="s">
         <v>448</v>
       </c>
-      <c r="BU2" s="158" t="s">
+      <c r="BU2" s="156" t="s">
         <v>449</v>
       </c>
-      <c r="BV2" s="158" t="s">
+      <c r="BV2" s="156" t="s">
         <v>450</v>
       </c>
-      <c r="BW2" s="158" t="s">
+      <c r="BW2" s="156" t="s">
         <v>451</v>
       </c>
-      <c r="BX2" s="158" t="s">
+      <c r="BX2" s="156" t="s">
         <v>452</v>
       </c>
-      <c r="BY2" s="158" t="s">
+      <c r="BY2" s="156" t="s">
         <v>453</v>
       </c>
-      <c r="BZ2" s="158" t="s">
+      <c r="BZ2" s="156" t="s">
         <v>454</v>
       </c>
-      <c r="CA2" s="157" t="s">
+      <c r="CA2" s="155" t="s">
         <v>455</v>
       </c>
-      <c r="CB2" s="158" t="s">
+      <c r="CB2" s="156" t="s">
         <v>456</v>
       </c>
-      <c r="CC2" s="158" t="s">
+      <c r="CC2" s="156" t="s">
         <v>457</v>
       </c>
-      <c r="CD2" s="157" t="s">
+      <c r="CD2" s="155" t="s">
         <v>458</v>
       </c>
-      <c r="CE2" s="158" t="s">
+      <c r="CE2" s="156" t="s">
         <v>459</v>
       </c>
-      <c r="CF2" s="158" t="s">
+      <c r="CF2" s="156" t="s">
         <v>460</v>
       </c>
-      <c r="CG2" s="158" t="s">
+      <c r="CG2" s="156" t="s">
         <v>461</v>
       </c>
-      <c r="CH2" s="158" t="s">
+      <c r="CH2" s="156" t="s">
         <v>462</v>
       </c>
-      <c r="CI2" s="158" t="s">
+      <c r="CI2" s="156" t="s">
         <v>463</v>
       </c>
-      <c r="CJ2" s="158" t="s">
+      <c r="CJ2" s="156" t="s">
         <v>464</v>
       </c>
       <c r="CK2" s="15" t="s">
@@ -10170,11 +10200,11 @@
       <c r="DA2" s="71"/>
       <c r="DB2" s="71"/>
     </row>
-    <row r="3" spans="1:143" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+    <row r="3" spans="1:143" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="145" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="139" t="s">
         <v>242</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -10187,9 +10217,9 @@
         <v>244</v>
       </c>
       <c r="F3" s="67" t="s">
-        <v>636</v>
-      </c>
-      <c r="G3" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="G3" s="228" t="s">
         <v>253</v>
       </c>
       <c r="H3" s="16" t="s">
@@ -10456,11 +10486,11 @@
       <c r="DA3" s="72"/>
       <c r="DB3" s="72"/>
     </row>
-    <row r="4" spans="1:143" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:143" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="93" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>250</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -10473,9 +10503,9 @@
         <v>251</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>618</v>
-      </c>
-      <c r="G4" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="G4" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H4" s="16" t="s">
@@ -10746,7 +10776,7 @@
       <c r="A5" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>255</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -10759,9 +10789,9 @@
         <v>466</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>641</v>
-      </c>
-      <c r="G5" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="G5" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H5" s="16" t="s">
@@ -11032,7 +11062,7 @@
       <c r="A6" s="93" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>258</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -11043,10 +11073,10 @@
         <v>260</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>640</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>467</v>
+        <v>635</v>
+      </c>
+      <c r="G6" s="229" t="s">
+        <v>253</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>247</v>
@@ -11313,133 +11343,133 @@
       <c r="DB6" s="72"/>
     </row>
     <row r="7" spans="1:143" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="146" t="s">
         <v>261</v>
       </c>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="150" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="153" t="s">
+      <c r="C7" s="151" t="s">
         <v>243</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137" t="s">
+      <c r="D7" s="135"/>
+      <c r="E7" s="136" t="s">
         <v>468</v>
       </c>
-      <c r="F7" s="137" t="s">
-        <v>639</v>
-      </c>
-      <c r="G7" s="174" t="s">
+      <c r="F7" s="136" t="s">
+        <v>634</v>
+      </c>
+      <c r="G7" s="229" t="s">
         <v>253</v>
       </c>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="137"/>
-      <c r="S7" s="137"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="137"/>
-      <c r="V7" s="137"/>
-      <c r="W7" s="137"/>
-      <c r="X7" s="137"/>
-      <c r="Y7" s="137"/>
-      <c r="Z7" s="137"/>
-      <c r="AA7" s="137"/>
-      <c r="AB7" s="137"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="139"/>
-      <c r="AE7" s="139"/>
-      <c r="AF7" s="139"/>
-      <c r="AG7" s="139"/>
-      <c r="AH7" s="139"/>
-      <c r="AI7" s="139"/>
-      <c r="AJ7" s="139"/>
-      <c r="AK7" s="139"/>
-      <c r="AL7" s="139"/>
-      <c r="AM7" s="139"/>
-      <c r="AN7" s="139"/>
-      <c r="AO7" s="139"/>
-      <c r="AP7" s="139"/>
-      <c r="AQ7" s="139"/>
-      <c r="AR7" s="139"/>
-      <c r="AS7" s="139"/>
-      <c r="AT7" s="139"/>
-      <c r="AU7" s="139"/>
-      <c r="AV7" s="139"/>
-      <c r="AW7" s="139"/>
-      <c r="AX7" s="139"/>
-      <c r="AY7" s="139"/>
-      <c r="AZ7" s="139"/>
-      <c r="BA7" s="139"/>
-      <c r="BB7" s="139"/>
-      <c r="BC7" s="139"/>
-      <c r="BD7" s="139"/>
-      <c r="BE7" s="139"/>
-      <c r="BF7" s="139"/>
-      <c r="BG7" s="139"/>
-      <c r="BH7" s="139"/>
-      <c r="BI7" s="139"/>
-      <c r="BJ7" s="139"/>
-      <c r="BK7" s="139"/>
-      <c r="BL7" s="139"/>
-      <c r="BM7" s="139"/>
-      <c r="BN7" s="139"/>
-      <c r="BO7" s="139"/>
-      <c r="BP7" s="139"/>
-      <c r="BQ7" s="139"/>
-      <c r="BR7" s="139"/>
-      <c r="BS7" s="139"/>
-      <c r="BT7" s="139"/>
-      <c r="BU7" s="139"/>
-      <c r="BV7" s="139"/>
-      <c r="BW7" s="139"/>
-      <c r="BX7" s="139"/>
-      <c r="BY7" s="139"/>
-      <c r="BZ7" s="139"/>
-      <c r="CA7" s="139"/>
-      <c r="CB7" s="139"/>
-      <c r="CC7" s="139"/>
-      <c r="CD7" s="139"/>
-      <c r="CE7" s="139"/>
-      <c r="CF7" s="139"/>
-      <c r="CG7" s="139"/>
-      <c r="CH7" s="139"/>
-      <c r="CI7" s="139"/>
-      <c r="CJ7" s="139"/>
-      <c r="CK7" s="139"/>
-      <c r="CL7" s="139"/>
-      <c r="CM7" s="139"/>
-      <c r="CN7" s="139"/>
-      <c r="CO7" s="139"/>
-      <c r="CP7" s="139"/>
-      <c r="CQ7" s="139"/>
-      <c r="CR7" s="139"/>
-      <c r="CS7" s="139"/>
-      <c r="CT7" s="139"/>
-      <c r="CU7" s="139"/>
-      <c r="CV7" s="139"/>
-      <c r="CW7" s="139"/>
-      <c r="CX7" s="139"/>
-      <c r="CY7" s="139"/>
-      <c r="CZ7" s="139"/>
-      <c r="DA7" s="139"/>
-      <c r="DB7" s="139"/>
-      <c r="DC7" s="139"/>
-      <c r="DD7" s="139"/>
-      <c r="DE7" s="139"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="136"/>
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="136"/>
+      <c r="AB7" s="136"/>
+      <c r="AC7" s="137"/>
+      <c r="AD7" s="138"/>
+      <c r="AE7" s="138"/>
+      <c r="AF7" s="138"/>
+      <c r="AG7" s="138"/>
+      <c r="AH7" s="138"/>
+      <c r="AI7" s="138"/>
+      <c r="AJ7" s="138"/>
+      <c r="AK7" s="138"/>
+      <c r="AL7" s="138"/>
+      <c r="AM7" s="138"/>
+      <c r="AN7" s="138"/>
+      <c r="AO7" s="138"/>
+      <c r="AP7" s="138"/>
+      <c r="AQ7" s="138"/>
+      <c r="AR7" s="138"/>
+      <c r="AS7" s="138"/>
+      <c r="AT7" s="138"/>
+      <c r="AU7" s="138"/>
+      <c r="AV7" s="138"/>
+      <c r="AW7" s="138"/>
+      <c r="AX7" s="138"/>
+      <c r="AY7" s="138"/>
+      <c r="AZ7" s="138"/>
+      <c r="BA7" s="138"/>
+      <c r="BB7" s="138"/>
+      <c r="BC7" s="138"/>
+      <c r="BD7" s="138"/>
+      <c r="BE7" s="138"/>
+      <c r="BF7" s="138"/>
+      <c r="BG7" s="138"/>
+      <c r="BH7" s="138"/>
+      <c r="BI7" s="138"/>
+      <c r="BJ7" s="138"/>
+      <c r="BK7" s="138"/>
+      <c r="BL7" s="138"/>
+      <c r="BM7" s="138"/>
+      <c r="BN7" s="138"/>
+      <c r="BO7" s="138"/>
+      <c r="BP7" s="138"/>
+      <c r="BQ7" s="138"/>
+      <c r="BR7" s="138"/>
+      <c r="BS7" s="138"/>
+      <c r="BT7" s="138"/>
+      <c r="BU7" s="138"/>
+      <c r="BV7" s="138"/>
+      <c r="BW7" s="138"/>
+      <c r="BX7" s="138"/>
+      <c r="BY7" s="138"/>
+      <c r="BZ7" s="138"/>
+      <c r="CA7" s="138"/>
+      <c r="CB7" s="138"/>
+      <c r="CC7" s="138"/>
+      <c r="CD7" s="138"/>
+      <c r="CE7" s="138"/>
+      <c r="CF7" s="138"/>
+      <c r="CG7" s="138"/>
+      <c r="CH7" s="138"/>
+      <c r="CI7" s="138"/>
+      <c r="CJ7" s="138"/>
+      <c r="CK7" s="138"/>
+      <c r="CL7" s="138"/>
+      <c r="CM7" s="138"/>
+      <c r="CN7" s="138"/>
+      <c r="CO7" s="138"/>
+      <c r="CP7" s="138"/>
+      <c r="CQ7" s="138"/>
+      <c r="CR7" s="138"/>
+      <c r="CS7" s="138"/>
+      <c r="CT7" s="138"/>
+      <c r="CU7" s="138"/>
+      <c r="CV7" s="138"/>
+      <c r="CW7" s="138"/>
+      <c r="CX7" s="138"/>
+      <c r="CY7" s="138"/>
+      <c r="CZ7" s="138"/>
+      <c r="DA7" s="138"/>
+      <c r="DB7" s="138"/>
+      <c r="DC7" s="138"/>
+      <c r="DD7" s="138"/>
+      <c r="DE7" s="138"/>
     </row>
-    <row r="8" spans="1:143" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:143" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="94" t="s">
         <v>265</v>
       </c>
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="141" t="s">
         <v>266</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -11451,10 +11481,10 @@
       <c r="E8" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="F8" s="249" t="s">
-        <v>638</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="220" t="s">
+        <v>633</v>
+      </c>
+      <c r="G8" s="230" t="s">
         <v>253</v>
       </c>
       <c r="H8" s="16" t="s">
@@ -11721,11 +11751,11 @@
       <c r="DA8" s="72"/>
       <c r="DB8" s="72"/>
     </row>
-    <row r="9" spans="1:143" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:143" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="140" t="s">
         <v>470</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -11736,9 +11766,9 @@
         <v>471</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>637</v>
-      </c>
-      <c r="G9" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="G9" s="228" t="s">
         <v>253</v>
       </c>
       <c r="H9" s="16" t="s">
@@ -12005,24 +12035,24 @@
       <c r="DA9" s="72"/>
       <c r="DB9" s="72"/>
     </row>
-    <row r="10" spans="1:143" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="93" t="s">
         <v>274</v>
       </c>
-      <c r="B10" s="141" t="s">
-        <v>472</v>
+      <c r="B10" s="233" t="s">
+        <v>275</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>270</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="85" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>635</v>
-      </c>
-      <c r="G10" s="19" t="s">
+        <v>630</v>
+      </c>
+      <c r="G10" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H10" s="16" t="s">
@@ -12289,24 +12319,24 @@
       <c r="DA10" s="72"/>
       <c r="DB10" s="72"/>
     </row>
-    <row r="11" spans="1:143" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:143" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="141" t="s">
-        <v>474</v>
+      <c r="B11" s="140" t="s">
+        <v>473</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>270</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="68" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>634</v>
-      </c>
-      <c r="G11" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="G11" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H11" s="16" t="s">
@@ -12573,24 +12603,24 @@
       <c r="DA11" s="72"/>
       <c r="DB11" s="72"/>
     </row>
-    <row r="12" spans="1:143" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="s">
         <v>281</v>
       </c>
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="233" t="s">
         <v>282</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>270</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="99" t="s">
-        <v>476</v>
-      </c>
-      <c r="F12" s="99" t="s">
-        <v>619</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="E12" s="98" t="s">
+        <v>639</v>
+      </c>
+      <c r="F12" s="98" t="s">
+        <v>614</v>
+      </c>
+      <c r="G12" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H12" s="16" t="s">
@@ -12861,7 +12891,7 @@
       <c r="A13" s="93" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="140" t="s">
         <v>284</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -12874,9 +12904,9 @@
         <v>285</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>633</v>
-      </c>
-      <c r="G13" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="G13" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H13" s="16" t="s">
@@ -13144,10 +13174,10 @@
       <c r="DB13" s="72"/>
     </row>
     <row r="14" spans="1:143" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="142" t="s">
         <v>287</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -13155,12 +13185,12 @@
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="69" t="s">
-        <v>288</v>
+        <v>640</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>620</v>
-      </c>
-      <c r="G14" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="G14" s="230" t="s">
         <v>253</v>
       </c>
       <c r="H14" s="16" t="s">
@@ -13427,11 +13457,11 @@
       <c r="DA14" s="72"/>
       <c r="DB14" s="72"/>
     </row>
-    <row r="15" spans="1:143" s="65" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="146" t="s">
+    <row r="15" spans="1:143" s="65" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="145" t="s">
         <v>289</v>
       </c>
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="139" t="s">
         <v>290</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -13440,12 +13470,12 @@
       <c r="D15" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="E15" s="219" t="s">
+      <c r="E15" s="216" t="s">
         <v>292</v>
       </c>
-      <c r="F15" s="250"/>
-      <c r="G15" s="96" t="s">
-        <v>253</v>
+      <c r="F15" s="221"/>
+      <c r="G15" s="231" t="s">
+        <v>645</v>
       </c>
       <c r="H15" s="88" t="s">
         <v>247</v>
@@ -13748,21 +13778,23 @@
       <c r="EL15" s="1"/>
       <c r="EM15" s="1"/>
     </row>
-    <row r="16" spans="1:143" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:143" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="s">
         <v>294</v>
       </c>
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="140" t="s">
         <v>295</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>291</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="220"/>
-      <c r="F16" s="251"/>
-      <c r="G16" s="19" t="s">
-        <v>477</v>
+      <c r="E16" s="217" t="s">
+        <v>641</v>
+      </c>
+      <c r="F16" s="222"/>
+      <c r="G16" s="229" t="s">
+        <v>253</v>
       </c>
       <c r="H16" s="88" t="s">
         <v>247</v>
@@ -14028,24 +14060,24 @@
       <c r="DA16" s="72"/>
       <c r="DB16" s="72"/>
     </row>
-    <row r="17" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="s">
         <v>309</v>
       </c>
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="140" t="s">
         <v>310</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>298</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="217" t="s">
-        <v>478</v>
-      </c>
-      <c r="F17" s="252" t="s">
-        <v>632</v>
-      </c>
-      <c r="G17" s="19" t="s">
+      <c r="E17" s="214" t="s">
+        <v>475</v>
+      </c>
+      <c r="F17" s="223" t="s">
+        <v>627</v>
+      </c>
+      <c r="G17" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H17" s="88" t="s">
@@ -14295,11 +14327,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="140" t="s">
         <v>297</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -14307,10 +14339,10 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="95" t="s">
-        <v>479</v>
-      </c>
-      <c r="F18" s="253"/>
-      <c r="G18" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="F18" s="224"/>
+      <c r="G18" s="232" t="s">
         <v>467</v>
       </c>
       <c r="H18" s="88" t="s">
@@ -14560,25 +14592,27 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="s">
         <v>300</v>
       </c>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="140" t="s">
         <v>301</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="95" t="s">
+      <c r="D19" s="95" t="s">
         <v>303</v>
       </c>
-      <c r="F19" s="253" t="s">
-        <v>621</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>467</v>
+      <c r="E19" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F19" s="224" t="s">
+        <v>616</v>
+      </c>
+      <c r="G19" s="229" t="s">
+        <v>253</v>
       </c>
       <c r="H19" s="88" t="s">
         <v>247</v>
@@ -14827,11 +14861,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="s">
         <v>306</v>
       </c>
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="140" t="s">
         <v>307</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -14839,10 +14873,10 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="95" t="s">
-        <v>308</v>
-      </c>
-      <c r="F20" s="253"/>
-      <c r="G20" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="F20" s="224"/>
+      <c r="G20" s="232" t="s">
         <v>467</v>
       </c>
       <c r="H20" s="88" t="s">
@@ -15092,24 +15126,24 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="142" t="s">
+      <c r="B21" s="141" t="s">
         <v>304</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>298</v>
       </c>
       <c r="D21" s="22"/>
-      <c r="E21" s="218" t="s">
-        <v>480</v>
-      </c>
-      <c r="F21" s="254" t="s">
-        <v>643</v>
-      </c>
-      <c r="G21" s="21" t="s">
+      <c r="E21" s="215" t="s">
+        <v>477</v>
+      </c>
+      <c r="F21" s="225" t="s">
+        <v>638</v>
+      </c>
+      <c r="G21" s="230" t="s">
         <v>253</v>
       </c>
       <c r="H21" s="88" t="s">
@@ -15359,24 +15393,24 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="149" t="s">
+    <row r="22" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="144" t="s">
+      <c r="B22" s="143" t="s">
         <v>312</v>
       </c>
-      <c r="C22" s="216" t="s">
+      <c r="C22" s="213" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="215" t="s">
+      <c r="D22" s="212" t="s">
         <v>315</v>
       </c>
       <c r="E22" s="86" t="s">
-        <v>315</v>
+        <v>646</v>
       </c>
       <c r="F22" s="86"/>
-      <c r="G22" s="89" t="s">
+      <c r="G22" s="228" t="s">
         <v>253</v>
       </c>
       <c r="H22" s="16" t="s">
@@ -15643,11 +15677,11 @@
       <c r="DA22" s="72"/>
       <c r="DB22" s="72"/>
     </row>
-    <row r="23" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="140" t="s">
         <v>316</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -15660,9 +15694,9 @@
         <v>317</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>642</v>
-      </c>
-      <c r="G23" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="G23" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H23" s="16" t="s">
@@ -15929,11 +15963,11 @@
       <c r="DA23" s="72"/>
       <c r="DB23" s="72"/>
     </row>
-    <row r="24" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="148" t="s">
+    <row r="24" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="142" t="s">
         <v>319</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -15946,9 +15980,9 @@
         <v>150</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>631</v>
-      </c>
-      <c r="G24" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="G24" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H24" s="16" t="s">
@@ -16215,26 +16249,26 @@
       <c r="DA24" s="72"/>
       <c r="DB24" s="72"/>
     </row>
-    <row r="25" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="148" t="s">
+    <row r="25" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="B25" s="143" t="s">
+      <c r="B25" s="142" t="s">
         <v>322</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>313</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>630</v>
-      </c>
-      <c r="G25" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="G25" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H25" s="16" t="s">
@@ -16501,11 +16535,11 @@
       <c r="DA25" s="72"/>
       <c r="DB25" s="72"/>
     </row>
-    <row r="26" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="148" t="s">
+    <row r="26" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="147" t="s">
         <v>198</v>
       </c>
-      <c r="B26" s="143" t="s">
+      <c r="B26" s="142" t="s">
         <v>328</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -16515,10 +16549,10 @@
         <v>329</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>330</v>
+        <v>644</v>
       </c>
       <c r="F26" s="69"/>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H26" s="16" t="s">
@@ -16785,26 +16819,26 @@
       <c r="DA26" s="72"/>
       <c r="DB26" s="72"/>
     </row>
-    <row r="27" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="148" t="s">
+    <row r="27" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="147" t="s">
         <v>324</v>
       </c>
-      <c r="B27" s="143" t="s">
+      <c r="B27" s="142" t="s">
         <v>325</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>313</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>629</v>
-      </c>
-      <c r="G27" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="G27" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H27" s="16" t="s">
@@ -17071,26 +17105,26 @@
       <c r="DA27" s="72"/>
       <c r="DB27" s="72"/>
     </row>
-    <row r="28" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="141" t="s">
         <v>332</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>313</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="F28" s="249" t="s">
-        <v>628</v>
-      </c>
-      <c r="G28" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="F28" s="220" t="s">
+        <v>623</v>
+      </c>
+      <c r="G28" s="230" t="s">
         <v>253</v>
       </c>
       <c r="H28" s="16" t="s">
@@ -17357,11 +17391,11 @@
       <c r="DA28" s="72"/>
       <c r="DB28" s="72"/>
     </row>
-    <row r="29" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="146" t="s">
+    <row r="29" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="B29" s="140" t="s">
+      <c r="B29" s="139" t="s">
         <v>333</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -17374,9 +17408,9 @@
         <v>335</v>
       </c>
       <c r="F29" s="67" t="s">
-        <v>627</v>
-      </c>
-      <c r="G29" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="G29" s="228" t="s">
         <v>253</v>
       </c>
       <c r="H29" s="16" t="s">
@@ -17643,11 +17677,11 @@
       <c r="DA29" s="72"/>
       <c r="DB29" s="72"/>
     </row>
-    <row r="30" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="s">
         <v>336</v>
       </c>
-      <c r="B30" s="141" t="s">
+      <c r="B30" s="140" t="s">
         <v>337</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -17657,10 +17691,10 @@
         <v>338</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F30" s="68"/>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H30" s="16" t="s">
@@ -17927,26 +17961,26 @@
       <c r="DA30" s="72"/>
       <c r="DB30" s="72"/>
     </row>
-    <row r="31" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="148" t="s">
+    <row r="31" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="147" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="143" t="s">
+      <c r="B31" s="142" t="s">
         <v>341</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>334</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>342</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>626</v>
-      </c>
-      <c r="G31" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="G31" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H31" s="16" t="s">
@@ -18213,11 +18247,11 @@
       <c r="DA31" s="72"/>
       <c r="DB31" s="72"/>
     </row>
-    <row r="32" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="148" t="s">
+    <row r="32" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="147" t="s">
         <v>343</v>
       </c>
-      <c r="B32" s="143" t="s">
+      <c r="B32" s="142" t="s">
         <v>344</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -18227,10 +18261,10 @@
         <v>345</v>
       </c>
       <c r="E32" s="87" t="s">
-        <v>486</v>
+        <v>345</v>
       </c>
       <c r="F32" s="87"/>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H32" s="16" t="s">
@@ -18497,11 +18531,11 @@
       <c r="DA32" s="72"/>
       <c r="DB32" s="72"/>
     </row>
-    <row r="33" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="148" t="s">
+    <row r="33" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="147" t="s">
         <v>350</v>
       </c>
-      <c r="B33" s="143" t="s">
+      <c r="B33" s="142" t="s">
         <v>351</v>
       </c>
       <c r="C33" s="22" t="s">
@@ -18509,12 +18543,12 @@
       </c>
       <c r="D33" s="69"/>
       <c r="E33" s="23" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>625</v>
-      </c>
-      <c r="G33" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="G33" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H33" s="28" t="s">
@@ -18781,11 +18815,11 @@
       <c r="DA33" s="72"/>
       <c r="DB33" s="72"/>
     </row>
-    <row r="34" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="146" t="s">
+    <row r="34" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="145" t="s">
         <v>353</v>
       </c>
-      <c r="B34" s="140" t="s">
+      <c r="B34" s="139" t="s">
         <v>354</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -18798,9 +18832,9 @@
         <v>355</v>
       </c>
       <c r="F34" s="67" t="s">
-        <v>624</v>
-      </c>
-      <c r="G34" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="G34" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H34" s="16" t="s">
@@ -19071,7 +19105,7 @@
       <c r="A35" s="93" t="s">
         <v>356</v>
       </c>
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="140" t="s">
         <v>357</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -19084,9 +19118,9 @@
         <v>358</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>623</v>
-      </c>
-      <c r="G35" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="G35" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H35" s="16" t="s">
@@ -19353,26 +19387,26 @@
       <c r="DA35" s="72"/>
       <c r="DB35" s="72"/>
     </row>
-    <row r="36" spans="1:106" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A36" s="93" t="s">
         <v>359</v>
       </c>
-      <c r="B36" s="141" t="s">
+      <c r="B36" s="140" t="s">
         <v>360</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>334</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>622</v>
-      </c>
-      <c r="G36" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="G36" s="229" t="s">
         <v>253</v>
       </c>
       <c r="H36" s="16" t="s">
@@ -19639,289 +19673,12 @@
       <c r="DA36" s="72"/>
       <c r="DB36" s="72"/>
     </row>
-    <row r="37" spans="1:106" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" s="152" t="s">
-        <v>489</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="F37" s="67"/>
-      <c r="G37" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="M37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="O37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="P37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="R37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="S37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="T37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="U37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="V37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="W37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="X37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AG37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AI37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AJ37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AK37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AL37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AM37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AN37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AO37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AQ37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AR37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AS37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AT37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AU37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AV37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AW37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AX37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AY37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AZ37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BA37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BB37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BC37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BD37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BE37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BF37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BG37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BH37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BI37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BJ37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BK37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BL37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BM37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BN37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BO37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BP37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BQ37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BR37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BS37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BT37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BU37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BV37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BW37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BX37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BY37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BZ37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="CA37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="CB37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="CC37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="CD37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="CE37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="CF37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="CG37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="CH37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="CI37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="CJ37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="CK37" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="CL37" s="72"/>
-      <c r="CM37" s="72"/>
-      <c r="CN37" s="72"/>
-      <c r="CO37" s="72"/>
-      <c r="CP37" s="72"/>
-      <c r="CQ37" s="72"/>
-      <c r="CR37" s="72"/>
-      <c r="CS37" s="72"/>
-      <c r="CT37" s="72"/>
-      <c r="CU37" s="72"/>
-      <c r="CV37" s="72"/>
-      <c r="CW37" s="72"/>
-      <c r="CX37" s="72"/>
-      <c r="CY37" s="72"/>
-      <c r="CZ37" s="72"/>
-      <c r="DA37" s="72"/>
-      <c r="DB37" s="72"/>
+    <row r="39" spans="1:106" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="226"/>
+    </row>
+    <row r="54" spans="69:70" ht="12" x14ac:dyDescent="0.2">
+      <c r="BQ54" s="72"/>
+      <c r="BR54" s="72"/>
     </row>
     <row r="55" spans="69:70" ht="12" x14ac:dyDescent="0.2">
       <c r="BQ55" s="72"/>
@@ -19983,10 +19740,6 @@
       <c r="BQ69" s="72"/>
       <c r="BR69" s="72"/>
     </row>
-    <row r="70" spans="69:70" ht="12" x14ac:dyDescent="0.2">
-      <c r="BQ70" s="72"/>
-      <c r="BR70" s="72"/>
-    </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="CT1:DA1"/>
@@ -20010,35 +19763,33 @@
     <hyperlink ref="B12" r:id="rId2" xr:uid="{B4829DDB-02EB-469B-B772-3F34B50BC332}"/>
     <hyperlink ref="B14" r:id="rId3" xr:uid="{24000620-909B-40E4-9A01-87D6841C2219}"/>
     <hyperlink ref="B11" r:id="rId4" xr:uid="{7797F6B1-DA8D-4B1E-AF4E-1892ABA4F957}"/>
-    <hyperlink ref="B37" r:id="rId5" xr:uid="{72FBF99A-B988-4984-BC59-6FA24FCF6D88}"/>
-    <hyperlink ref="B31" r:id="rId6" xr:uid="{95D57932-FE90-4728-992D-C508857A71EB}"/>
-    <hyperlink ref="E12" r:id="rId7" xr:uid="{612F7F54-9093-49D7-82EF-B4DD444833C5}"/>
-    <hyperlink ref="B21" r:id="rId8" xr:uid="{93C688C5-8C94-407F-A147-F115B51B28F8}"/>
-    <hyperlink ref="B20" r:id="rId9" xr:uid="{AA1456B9-B5EE-44C6-854B-18ECD974B0F3}"/>
-    <hyperlink ref="B19" r:id="rId10" xr:uid="{BB0A7108-72DA-4788-8552-E0D7AB934BFD}"/>
-    <hyperlink ref="B18" r:id="rId11" xr:uid="{560DD457-3BB5-47CE-85B5-C37A6F5521A5}"/>
-    <hyperlink ref="B17" r:id="rId12" display="mailto:angel.olguin@tunning.cl" xr:uid="{AF987CA4-3EA1-4D64-8ABC-4F73672324F1}"/>
-    <hyperlink ref="B27" r:id="rId13" xr:uid="{715FDA4E-8D20-4997-BA07-A62BF4E873F5}"/>
-    <hyperlink ref="B10" r:id="rId14" xr:uid="{ABDAB323-6ACD-42E4-8BDB-49E44C2A11D9}"/>
-    <hyperlink ref="B13" r:id="rId15" xr:uid="{34DE63D5-4780-4013-A82F-FFCEAC2B994B}"/>
-    <hyperlink ref="B26" r:id="rId16" xr:uid="{7263C0A8-F73C-4642-AEF2-73E69605DBA6}"/>
-    <hyperlink ref="B4" r:id="rId17" xr:uid="{12A81428-8B59-4D65-B627-8C40C818C703}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{F714A21F-66CE-4FF1-A7A1-5090DE818D85}"/>
-    <hyperlink ref="B36" r:id="rId19" xr:uid="{A45E4943-E9B9-4C57-8C42-1D3F9456D265}"/>
-    <hyperlink ref="B6" r:id="rId20" xr:uid="{0CF4EB3F-7565-4621-9ED5-72B6CA2E7864}"/>
-    <hyperlink ref="B3" r:id="rId21" xr:uid="{F1FA03DA-1E2F-448B-A40F-737D04956785}"/>
-    <hyperlink ref="B16" r:id="rId22" xr:uid="{26D27165-9861-4CE4-9364-68B5043E39F6}"/>
-    <hyperlink ref="B29" r:id="rId23" xr:uid="{1CA3C255-5DAC-489F-9894-2E43F4D5200C}"/>
-    <hyperlink ref="B22" r:id="rId24" xr:uid="{F8DFC646-9610-4DEF-AA52-FAF59145CA36}"/>
-    <hyperlink ref="B15" r:id="rId25" xr:uid="{7443978E-43AD-4E41-A4FA-4F0BEF2B0AE7}"/>
-    <hyperlink ref="B9" r:id="rId26" xr:uid="{7E12EDA4-615A-47C4-81B6-410DE0933725}"/>
-    <hyperlink ref="B35" r:id="rId27" xr:uid="{91AEE039-0008-4F11-8CE2-02D6AF25D1DA}"/>
-    <hyperlink ref="B34" r:id="rId28" xr:uid="{ECA88244-C928-4D3F-B400-485348105E5F}"/>
-    <hyperlink ref="B8" r:id="rId29" xr:uid="{8DA448E9-9E2B-46EF-A60D-3FFC479EAD5F}"/>
-    <hyperlink ref="B5" r:id="rId30" xr:uid="{6FD45778-5ADB-459A-8EAF-DFA2A6CEE344}"/>
+    <hyperlink ref="B31" r:id="rId5" xr:uid="{95D57932-FE90-4728-992D-C508857A71EB}"/>
+    <hyperlink ref="B21" r:id="rId6" xr:uid="{93C688C5-8C94-407F-A147-F115B51B28F8}"/>
+    <hyperlink ref="B20" r:id="rId7" xr:uid="{AA1456B9-B5EE-44C6-854B-18ECD974B0F3}"/>
+    <hyperlink ref="B19" r:id="rId8" xr:uid="{BB0A7108-72DA-4788-8552-E0D7AB934BFD}"/>
+    <hyperlink ref="B18" r:id="rId9" xr:uid="{560DD457-3BB5-47CE-85B5-C37A6F5521A5}"/>
+    <hyperlink ref="B17" r:id="rId10" display="mailto:angel.olguin@tunning.cl" xr:uid="{AF987CA4-3EA1-4D64-8ABC-4F73672324F1}"/>
+    <hyperlink ref="B27" r:id="rId11" xr:uid="{715FDA4E-8D20-4997-BA07-A62BF4E873F5}"/>
+    <hyperlink ref="B10" r:id="rId12" xr:uid="{ABDAB323-6ACD-42E4-8BDB-49E44C2A11D9}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{34DE63D5-4780-4013-A82F-FFCEAC2B994B}"/>
+    <hyperlink ref="B26" r:id="rId14" xr:uid="{7263C0A8-F73C-4642-AEF2-73E69605DBA6}"/>
+    <hyperlink ref="B4" r:id="rId15" xr:uid="{12A81428-8B59-4D65-B627-8C40C818C703}"/>
+    <hyperlink ref="B23" r:id="rId16" xr:uid="{F714A21F-66CE-4FF1-A7A1-5090DE818D85}"/>
+    <hyperlink ref="B36" r:id="rId17" xr:uid="{A45E4943-E9B9-4C57-8C42-1D3F9456D265}"/>
+    <hyperlink ref="B6" r:id="rId18" xr:uid="{0CF4EB3F-7565-4621-9ED5-72B6CA2E7864}"/>
+    <hyperlink ref="B3" r:id="rId19" xr:uid="{F1FA03DA-1E2F-448B-A40F-737D04956785}"/>
+    <hyperlink ref="B16" r:id="rId20" xr:uid="{26D27165-9861-4CE4-9364-68B5043E39F6}"/>
+    <hyperlink ref="B29" r:id="rId21" xr:uid="{1CA3C255-5DAC-489F-9894-2E43F4D5200C}"/>
+    <hyperlink ref="B22" r:id="rId22" xr:uid="{F8DFC646-9610-4DEF-AA52-FAF59145CA36}"/>
+    <hyperlink ref="B15" r:id="rId23" xr:uid="{7443978E-43AD-4E41-A4FA-4F0BEF2B0AE7}"/>
+    <hyperlink ref="B9" r:id="rId24" xr:uid="{7E12EDA4-615A-47C4-81B6-410DE0933725}"/>
+    <hyperlink ref="B35" r:id="rId25" xr:uid="{91AEE039-0008-4F11-8CE2-02D6AF25D1DA}"/>
+    <hyperlink ref="B34" r:id="rId26" xr:uid="{ECA88244-C928-4D3F-B400-485348105E5F}"/>
+    <hyperlink ref="B8" r:id="rId27" xr:uid="{8DA448E9-9E2B-46EF-A60D-3FFC479EAD5F}"/>
+    <hyperlink ref="B5" r:id="rId28" xr:uid="{6FD45778-5ADB-459A-8EAF-DFA2A6CEE344}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -20072,368 +19823,368 @@
       <c r="D1" s="55"/>
       <c r="E1" s="55"/>
       <c r="F1" s="56"/>
-      <c r="G1" s="225" t="s">
-        <v>490</v>
-      </c>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="225"/>
-      <c r="N1" s="225"/>
-      <c r="O1" s="225"/>
-      <c r="P1" s="225"/>
-      <c r="Q1" s="225"/>
-      <c r="R1" s="225"/>
-      <c r="S1" s="225"/>
-      <c r="T1" s="225"/>
-      <c r="U1" s="225"/>
-      <c r="V1" s="225"/>
-      <c r="W1" s="225"/>
-      <c r="X1" s="225"/>
-      <c r="Y1" s="225"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="225"/>
-      <c r="AB1" s="226"/>
-      <c r="AC1" s="224" t="s">
-        <v>491</v>
-      </c>
-      <c r="AD1" s="225"/>
-      <c r="AE1" s="225"/>
-      <c r="AF1" s="225"/>
-      <c r="AG1" s="225"/>
-      <c r="AH1" s="225"/>
-      <c r="AI1" s="224" t="s">
-        <v>492</v>
-      </c>
-      <c r="AJ1" s="225"/>
-      <c r="AK1" s="225"/>
-      <c r="AL1" s="225"/>
-      <c r="AM1" s="225"/>
-      <c r="AN1" s="225"/>
-      <c r="AO1" s="225"/>
-      <c r="AP1" s="225"/>
-      <c r="AQ1" s="225"/>
-      <c r="AR1" s="225"/>
-      <c r="AS1" s="225"/>
-      <c r="AT1" s="225"/>
-      <c r="AU1" s="225"/>
-      <c r="AV1" s="225"/>
-      <c r="AW1" s="225"/>
-      <c r="AX1" s="225"/>
-      <c r="AY1" s="225"/>
-      <c r="AZ1" s="225"/>
-      <c r="BA1" s="225"/>
-      <c r="BB1" s="225"/>
-      <c r="BC1" s="225"/>
-      <c r="BD1" s="225"/>
-      <c r="BE1" s="225"/>
-      <c r="BF1" s="225"/>
-      <c r="BG1" s="225"/>
-      <c r="BH1" s="225"/>
-      <c r="BI1" s="225"/>
-      <c r="BJ1" s="225"/>
-      <c r="BK1" s="225"/>
-      <c r="BL1" s="225"/>
-      <c r="BM1" s="225"/>
-      <c r="BN1" s="225"/>
-      <c r="BO1" s="225"/>
-      <c r="BP1" s="225"/>
-      <c r="BQ1" s="225"/>
-      <c r="BR1" s="225"/>
-      <c r="BS1" s="225"/>
-      <c r="BT1" s="225"/>
-      <c r="BU1" s="225"/>
-      <c r="BV1" s="225"/>
-      <c r="BW1" s="225"/>
-      <c r="BX1" s="225"/>
-      <c r="BY1" s="225"/>
-      <c r="BZ1" s="226"/>
-      <c r="CA1" s="238" t="s">
-        <v>493</v>
-      </c>
-      <c r="CB1" s="235"/>
-      <c r="CC1" s="235"/>
-      <c r="CD1" s="235"/>
-      <c r="CE1" s="235"/>
-      <c r="CF1" s="235"/>
-      <c r="CG1" s="235"/>
-      <c r="CH1" s="235"/>
-      <c r="CI1" s="235"/>
-      <c r="CJ1" s="235"/>
-      <c r="CK1" s="235"/>
-      <c r="CL1" s="235"/>
-      <c r="CM1" s="235"/>
-      <c r="CN1" s="235"/>
-      <c r="CO1" s="235"/>
-      <c r="CP1" s="235"/>
-      <c r="CQ1" s="235"/>
-      <c r="CR1" s="235"/>
-      <c r="CS1" s="239"/>
+      <c r="G1" s="236" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="236"/>
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="235" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="236"/>
+      <c r="AH1" s="236"/>
+      <c r="AI1" s="235" t="s">
+        <v>487</v>
+      </c>
+      <c r="AJ1" s="236"/>
+      <c r="AK1" s="236"/>
+      <c r="AL1" s="236"/>
+      <c r="AM1" s="236"/>
+      <c r="AN1" s="236"/>
+      <c r="AO1" s="236"/>
+      <c r="AP1" s="236"/>
+      <c r="AQ1" s="236"/>
+      <c r="AR1" s="236"/>
+      <c r="AS1" s="236"/>
+      <c r="AT1" s="236"/>
+      <c r="AU1" s="236"/>
+      <c r="AV1" s="236"/>
+      <c r="AW1" s="236"/>
+      <c r="AX1" s="236"/>
+      <c r="AY1" s="236"/>
+      <c r="AZ1" s="236"/>
+      <c r="BA1" s="236"/>
+      <c r="BB1" s="236"/>
+      <c r="BC1" s="236"/>
+      <c r="BD1" s="236"/>
+      <c r="BE1" s="236"/>
+      <c r="BF1" s="236"/>
+      <c r="BG1" s="236"/>
+      <c r="BH1" s="236"/>
+      <c r="BI1" s="236"/>
+      <c r="BJ1" s="236"/>
+      <c r="BK1" s="236"/>
+      <c r="BL1" s="236"/>
+      <c r="BM1" s="236"/>
+      <c r="BN1" s="236"/>
+      <c r="BO1" s="236"/>
+      <c r="BP1" s="236"/>
+      <c r="BQ1" s="236"/>
+      <c r="BR1" s="236"/>
+      <c r="BS1" s="236"/>
+      <c r="BT1" s="236"/>
+      <c r="BU1" s="236"/>
+      <c r="BV1" s="236"/>
+      <c r="BW1" s="236"/>
+      <c r="BX1" s="236"/>
+      <c r="BY1" s="236"/>
+      <c r="BZ1" s="237"/>
+      <c r="CA1" s="249" t="s">
+        <v>488</v>
+      </c>
+      <c r="CB1" s="246"/>
+      <c r="CC1" s="246"/>
+      <c r="CD1" s="246"/>
+      <c r="CE1" s="246"/>
+      <c r="CF1" s="246"/>
+      <c r="CG1" s="246"/>
+      <c r="CH1" s="246"/>
+      <c r="CI1" s="246"/>
+      <c r="CJ1" s="246"/>
+      <c r="CK1" s="246"/>
+      <c r="CL1" s="246"/>
+      <c r="CM1" s="246"/>
+      <c r="CN1" s="246"/>
+      <c r="CO1" s="246"/>
+      <c r="CP1" s="246"/>
+      <c r="CQ1" s="246"/>
+      <c r="CR1" s="246"/>
+      <c r="CS1" s="250"/>
     </row>
     <row r="2" spans="1:104" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="52"/>
       <c r="F2" s="53"/>
-      <c r="G2" s="225" t="s">
-        <v>494</v>
-      </c>
-      <c r="H2" s="225"/>
-      <c r="I2" s="225"/>
-      <c r="J2" s="225"/>
-      <c r="K2" s="225"/>
-      <c r="L2" s="225"/>
-      <c r="M2" s="225"/>
-      <c r="N2" s="225"/>
-      <c r="O2" s="225"/>
-      <c r="P2" s="225"/>
-      <c r="Q2" s="225"/>
-      <c r="R2" s="225"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="225"/>
-      <c r="W2" s="225"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="225"/>
-      <c r="AA2" s="225"/>
-      <c r="AB2" s="226"/>
-      <c r="AC2" s="224" t="s">
-        <v>494</v>
-      </c>
-      <c r="AD2" s="225"/>
-      <c r="AE2" s="225"/>
-      <c r="AF2" s="225"/>
-      <c r="AG2" s="225"/>
-      <c r="AH2" s="225"/>
-      <c r="AI2" s="224" t="s">
-        <v>495</v>
-      </c>
-      <c r="AJ2" s="226"/>
-      <c r="AK2" s="224" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL2" s="225"/>
-      <c r="AM2" s="225"/>
-      <c r="AN2" s="225"/>
-      <c r="AO2" s="225"/>
-      <c r="AP2" s="225"/>
-      <c r="AQ2" s="225"/>
-      <c r="AR2" s="225"/>
-      <c r="AS2" s="225"/>
-      <c r="AT2" s="225"/>
-      <c r="AU2" s="225"/>
-      <c r="AV2" s="225"/>
-      <c r="AW2" s="225"/>
-      <c r="AX2" s="225"/>
-      <c r="AY2" s="225"/>
-      <c r="AZ2" s="225"/>
-      <c r="BA2" s="225"/>
-      <c r="BB2" s="225"/>
-      <c r="BC2" s="225"/>
-      <c r="BD2" s="225"/>
-      <c r="BE2" s="225"/>
-      <c r="BF2" s="225"/>
-      <c r="BG2" s="225"/>
-      <c r="BH2" s="225"/>
-      <c r="BI2" s="225"/>
-      <c r="BJ2" s="225"/>
-      <c r="BK2" s="225"/>
-      <c r="BL2" s="226"/>
-      <c r="BM2" s="224" t="s">
-        <v>497</v>
-      </c>
-      <c r="BN2" s="225"/>
-      <c r="BO2" s="225"/>
-      <c r="BP2" s="225"/>
-      <c r="BQ2" s="225"/>
-      <c r="BR2" s="225"/>
-      <c r="BS2" s="225"/>
-      <c r="BT2" s="225"/>
-      <c r="BU2" s="225"/>
-      <c r="BV2" s="225"/>
-      <c r="BW2" s="225"/>
-      <c r="BX2" s="225"/>
-      <c r="BY2" s="225"/>
-      <c r="BZ2" s="226"/>
-      <c r="CA2" s="240"/>
-      <c r="CB2" s="236"/>
-      <c r="CC2" s="236"/>
-      <c r="CD2" s="236"/>
-      <c r="CE2" s="236"/>
-      <c r="CF2" s="236"/>
-      <c r="CG2" s="236"/>
-      <c r="CH2" s="236"/>
-      <c r="CI2" s="236"/>
-      <c r="CJ2" s="236"/>
-      <c r="CK2" s="236"/>
-      <c r="CL2" s="236"/>
-      <c r="CM2" s="236"/>
-      <c r="CN2" s="236"/>
-      <c r="CO2" s="236"/>
-      <c r="CP2" s="236"/>
-      <c r="CQ2" s="236"/>
-      <c r="CR2" s="236"/>
-      <c r="CS2" s="237"/>
+      <c r="G2" s="236" t="s">
+        <v>489</v>
+      </c>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="236"/>
+      <c r="Q2" s="236"/>
+      <c r="R2" s="236"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="236"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
+      <c r="X2" s="236"/>
+      <c r="Y2" s="236"/>
+      <c r="Z2" s="236"/>
+      <c r="AA2" s="236"/>
+      <c r="AB2" s="237"/>
+      <c r="AC2" s="235" t="s">
+        <v>489</v>
+      </c>
+      <c r="AD2" s="236"/>
+      <c r="AE2" s="236"/>
+      <c r="AF2" s="236"/>
+      <c r="AG2" s="236"/>
+      <c r="AH2" s="236"/>
+      <c r="AI2" s="235" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ2" s="237"/>
+      <c r="AK2" s="235" t="s">
+        <v>491</v>
+      </c>
+      <c r="AL2" s="236"/>
+      <c r="AM2" s="236"/>
+      <c r="AN2" s="236"/>
+      <c r="AO2" s="236"/>
+      <c r="AP2" s="236"/>
+      <c r="AQ2" s="236"/>
+      <c r="AR2" s="236"/>
+      <c r="AS2" s="236"/>
+      <c r="AT2" s="236"/>
+      <c r="AU2" s="236"/>
+      <c r="AV2" s="236"/>
+      <c r="AW2" s="236"/>
+      <c r="AX2" s="236"/>
+      <c r="AY2" s="236"/>
+      <c r="AZ2" s="236"/>
+      <c r="BA2" s="236"/>
+      <c r="BB2" s="236"/>
+      <c r="BC2" s="236"/>
+      <c r="BD2" s="236"/>
+      <c r="BE2" s="236"/>
+      <c r="BF2" s="236"/>
+      <c r="BG2" s="236"/>
+      <c r="BH2" s="236"/>
+      <c r="BI2" s="236"/>
+      <c r="BJ2" s="236"/>
+      <c r="BK2" s="236"/>
+      <c r="BL2" s="237"/>
+      <c r="BM2" s="235" t="s">
+        <v>492</v>
+      </c>
+      <c r="BN2" s="236"/>
+      <c r="BO2" s="236"/>
+      <c r="BP2" s="236"/>
+      <c r="BQ2" s="236"/>
+      <c r="BR2" s="236"/>
+      <c r="BS2" s="236"/>
+      <c r="BT2" s="236"/>
+      <c r="BU2" s="236"/>
+      <c r="BV2" s="236"/>
+      <c r="BW2" s="236"/>
+      <c r="BX2" s="236"/>
+      <c r="BY2" s="236"/>
+      <c r="BZ2" s="237"/>
+      <c r="CA2" s="251"/>
+      <c r="CB2" s="247"/>
+      <c r="CC2" s="247"/>
+      <c r="CD2" s="247"/>
+      <c r="CE2" s="247"/>
+      <c r="CF2" s="247"/>
+      <c r="CG2" s="247"/>
+      <c r="CH2" s="247"/>
+      <c r="CI2" s="247"/>
+      <c r="CJ2" s="247"/>
+      <c r="CK2" s="247"/>
+      <c r="CL2" s="247"/>
+      <c r="CM2" s="247"/>
+      <c r="CN2" s="247"/>
+      <c r="CO2" s="247"/>
+      <c r="CP2" s="247"/>
+      <c r="CQ2" s="247"/>
+      <c r="CR2" s="247"/>
+      <c r="CS2" s="248"/>
     </row>
     <row r="3" spans="1:104" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="235" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="236" t="s">
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="247" t="s">
+        <v>493</v>
+      </c>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="248"/>
+      <c r="O3" s="235" t="s">
+        <v>494</v>
+      </c>
+      <c r="P3" s="236"/>
+      <c r="Q3" s="236"/>
+      <c r="R3" s="236"/>
+      <c r="S3" s="236"/>
+      <c r="T3" s="236"/>
+      <c r="U3" s="236"/>
+      <c r="V3" s="237"/>
+      <c r="W3" s="235" t="s">
+        <v>495</v>
+      </c>
+      <c r="X3" s="236"/>
+      <c r="Y3" s="236"/>
+      <c r="Z3" s="237"/>
+      <c r="AA3" s="46" t="s">
+        <v>496</v>
+      </c>
+      <c r="AB3" s="57" t="s">
+        <v>497</v>
+      </c>
+      <c r="AC3" s="171" t="s">
         <v>498</v>
       </c>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="237"/>
-      <c r="O3" s="224" t="s">
+      <c r="AD3" s="171" t="s">
         <v>499</v>
       </c>
-      <c r="P3" s="225"/>
-      <c r="Q3" s="225"/>
-      <c r="R3" s="225"/>
-      <c r="S3" s="225"/>
-      <c r="T3" s="225"/>
-      <c r="U3" s="225"/>
-      <c r="V3" s="226"/>
-      <c r="W3" s="224" t="s">
+      <c r="AE3" s="171" t="s">
         <v>500</v>
       </c>
-      <c r="X3" s="225"/>
-      <c r="Y3" s="225"/>
-      <c r="Z3" s="226"/>
-      <c r="AA3" s="46" t="s">
+      <c r="AF3" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="AB3" s="57" t="s">
+      <c r="AG3" s="171" t="s">
         <v>502</v>
       </c>
-      <c r="AC3" s="173" t="s">
+      <c r="AH3" s="171" t="s">
         <v>503</v>
       </c>
-      <c r="AD3" s="173" t="s">
+      <c r="AI3" s="235" t="s">
         <v>504</v>
       </c>
-      <c r="AE3" s="173" t="s">
+      <c r="AJ3" s="237"/>
+      <c r="AK3" s="235" t="s">
         <v>505</v>
       </c>
-      <c r="AF3" s="173" t="s">
+      <c r="AL3" s="236"/>
+      <c r="AM3" s="236"/>
+      <c r="AN3" s="236"/>
+      <c r="AO3" s="236"/>
+      <c r="AP3" s="237"/>
+      <c r="AQ3" s="235" t="s">
         <v>506</v>
       </c>
-      <c r="AG3" s="173" t="s">
+      <c r="AR3" s="236"/>
+      <c r="AS3" s="236"/>
+      <c r="AT3" s="236"/>
+      <c r="AU3" s="236"/>
+      <c r="AV3" s="236"/>
+      <c r="AW3" s="237"/>
+      <c r="AX3" s="235" t="s">
+        <v>494</v>
+      </c>
+      <c r="AY3" s="236"/>
+      <c r="AZ3" s="236"/>
+      <c r="BA3" s="236"/>
+      <c r="BB3" s="236"/>
+      <c r="BC3" s="237"/>
+      <c r="BD3" s="235" t="s">
+        <v>486</v>
+      </c>
+      <c r="BE3" s="236"/>
+      <c r="BF3" s="236"/>
+      <c r="BG3" s="236"/>
+      <c r="BH3" s="236"/>
+      <c r="BI3" s="237"/>
+      <c r="BJ3" s="235" t="s">
         <v>507</v>
       </c>
-      <c r="AH3" s="173" t="s">
+      <c r="BK3" s="237"/>
+      <c r="BL3" s="50" t="s">
         <v>508</v>
       </c>
-      <c r="AI3" s="224" t="s">
-        <v>509</v>
-      </c>
-      <c r="AJ3" s="226"/>
-      <c r="AK3" s="224" t="s">
-        <v>510</v>
-      </c>
-      <c r="AL3" s="225"/>
-      <c r="AM3" s="225"/>
-      <c r="AN3" s="225"/>
-      <c r="AO3" s="225"/>
-      <c r="AP3" s="226"/>
-      <c r="AQ3" s="224" t="s">
-        <v>511</v>
-      </c>
-      <c r="AR3" s="225"/>
-      <c r="AS3" s="225"/>
-      <c r="AT3" s="225"/>
-      <c r="AU3" s="225"/>
-      <c r="AV3" s="225"/>
-      <c r="AW3" s="226"/>
-      <c r="AX3" s="224" t="s">
-        <v>499</v>
-      </c>
-      <c r="AY3" s="225"/>
-      <c r="AZ3" s="225"/>
-      <c r="BA3" s="225"/>
-      <c r="BB3" s="225"/>
-      <c r="BC3" s="226"/>
-      <c r="BD3" s="224" t="s">
-        <v>491</v>
-      </c>
-      <c r="BE3" s="225"/>
-      <c r="BF3" s="225"/>
-      <c r="BG3" s="225"/>
-      <c r="BH3" s="225"/>
-      <c r="BI3" s="226"/>
-      <c r="BJ3" s="224" t="s">
-        <v>512</v>
-      </c>
-      <c r="BK3" s="226"/>
-      <c r="BL3" s="50" t="s">
-        <v>513</v>
-      </c>
-      <c r="BM3" s="224" t="s">
-        <v>510</v>
-      </c>
-      <c r="BN3" s="225"/>
-      <c r="BO3" s="226"/>
-      <c r="BP3" s="224" t="s">
-        <v>511</v>
-      </c>
-      <c r="BQ3" s="226"/>
-      <c r="BR3" s="224" t="s">
-        <v>499</v>
-      </c>
-      <c r="BS3" s="225"/>
-      <c r="BT3" s="225"/>
-      <c r="BU3" s="226"/>
-      <c r="BV3" s="224" t="s">
-        <v>491</v>
-      </c>
-      <c r="BW3" s="225"/>
-      <c r="BX3" s="226"/>
+      <c r="BM3" s="235" t="s">
+        <v>505</v>
+      </c>
+      <c r="BN3" s="236"/>
+      <c r="BO3" s="237"/>
+      <c r="BP3" s="235" t="s">
+        <v>506</v>
+      </c>
+      <c r="BQ3" s="237"/>
+      <c r="BR3" s="235" t="s">
+        <v>494</v>
+      </c>
+      <c r="BS3" s="236"/>
+      <c r="BT3" s="236"/>
+      <c r="BU3" s="237"/>
+      <c r="BV3" s="235" t="s">
+        <v>486</v>
+      </c>
+      <c r="BW3" s="236"/>
+      <c r="BX3" s="237"/>
       <c r="BY3" s="50" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="BZ3" s="50" t="s">
-        <v>513</v>
-      </c>
-      <c r="CA3" s="224" t="s">
-        <v>510</v>
-      </c>
-      <c r="CB3" s="225"/>
-      <c r="CC3" s="225"/>
-      <c r="CD3" s="226"/>
-      <c r="CE3" s="224" t="s">
-        <v>499</v>
-      </c>
-      <c r="CF3" s="225"/>
-      <c r="CG3" s="226"/>
-      <c r="CH3" s="224" t="s">
-        <v>491</v>
-      </c>
-      <c r="CI3" s="225"/>
-      <c r="CJ3" s="225"/>
-      <c r="CK3" s="226"/>
-      <c r="CL3" s="224" t="s">
-        <v>511</v>
-      </c>
-      <c r="CM3" s="225"/>
-      <c r="CN3" s="225"/>
-      <c r="CO3" s="225"/>
-      <c r="CP3" s="226"/>
-      <c r="CQ3" s="224" t="s">
-        <v>512</v>
-      </c>
-      <c r="CR3" s="226"/>
+        <v>508</v>
+      </c>
+      <c r="CA3" s="235" t="s">
+        <v>505</v>
+      </c>
+      <c r="CB3" s="236"/>
+      <c r="CC3" s="236"/>
+      <c r="CD3" s="237"/>
+      <c r="CE3" s="235" t="s">
+        <v>494</v>
+      </c>
+      <c r="CF3" s="236"/>
+      <c r="CG3" s="237"/>
+      <c r="CH3" s="235" t="s">
+        <v>486</v>
+      </c>
+      <c r="CI3" s="236"/>
+      <c r="CJ3" s="236"/>
+      <c r="CK3" s="237"/>
+      <c r="CL3" s="235" t="s">
+        <v>506</v>
+      </c>
+      <c r="CM3" s="236"/>
+      <c r="CN3" s="236"/>
+      <c r="CO3" s="236"/>
+      <c r="CP3" s="237"/>
+      <c r="CQ3" s="235" t="s">
+        <v>507</v>
+      </c>
+      <c r="CR3" s="237"/>
       <c r="CS3" s="46" t="s">
         <v>48</v>
       </c>
@@ -20448,286 +20199,286 @@
       <c r="C4" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="214" t="s">
+      <c r="D4" s="211" t="s">
         <v>215</v>
       </c>
-      <c r="E4" s="213" t="s">
+      <c r="E4" s="210" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="212" t="s">
+      <c r="F4" s="209" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="166" t="s">
+      <c r="G4" s="164" t="s">
+        <v>509</v>
+      </c>
+      <c r="H4" s="165" t="s">
+        <v>510</v>
+      </c>
+      <c r="I4" s="165" t="s">
+        <v>511</v>
+      </c>
+      <c r="J4" s="165" t="s">
+        <v>512</v>
+      </c>
+      <c r="K4" s="165" t="s">
+        <v>513</v>
+      </c>
+      <c r="L4" s="165" t="s">
         <v>514</v>
       </c>
-      <c r="H4" s="167" t="s">
+      <c r="M4" s="165" t="s">
         <v>515</v>
       </c>
-      <c r="I4" s="167" t="s">
+      <c r="N4" s="166" t="s">
         <v>516</v>
       </c>
-      <c r="J4" s="167" t="s">
+      <c r="O4" s="164" t="s">
         <v>517</v>
       </c>
-      <c r="K4" s="167" t="s">
+      <c r="P4" s="165" t="s">
         <v>518</v>
       </c>
-      <c r="L4" s="167" t="s">
+      <c r="Q4" s="165" t="s">
         <v>519</v>
       </c>
-      <c r="M4" s="167" t="s">
+      <c r="R4" s="165" t="s">
         <v>520</v>
       </c>
-      <c r="N4" s="168" t="s">
+      <c r="S4" s="165" t="s">
         <v>521</v>
       </c>
-      <c r="O4" s="166" t="s">
+      <c r="T4" s="165" t="s">
         <v>522</v>
       </c>
-      <c r="P4" s="167" t="s">
+      <c r="U4" s="165" t="s">
         <v>523</v>
       </c>
-      <c r="Q4" s="167" t="s">
+      <c r="V4" s="166" t="s">
         <v>524</v>
       </c>
-      <c r="R4" s="167" t="s">
+      <c r="W4" s="164" t="s">
         <v>525</v>
       </c>
-      <c r="S4" s="167" t="s">
+      <c r="X4" s="165" t="s">
         <v>526</v>
       </c>
-      <c r="T4" s="167" t="s">
+      <c r="Y4" s="165" t="s">
         <v>527</v>
       </c>
-      <c r="U4" s="167" t="s">
+      <c r="Z4" s="166" t="s">
         <v>528</v>
       </c>
-      <c r="V4" s="168" t="s">
+      <c r="AA4" s="167" t="s">
+        <v>508</v>
+      </c>
+      <c r="AB4" s="167" t="s">
         <v>529</v>
       </c>
-      <c r="W4" s="166" t="s">
+      <c r="AC4" s="167" t="s">
         <v>530</v>
       </c>
-      <c r="X4" s="167" t="s">
+      <c r="AD4" s="167" t="s">
+        <v>530</v>
+      </c>
+      <c r="AE4" s="167" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF4" s="167" t="s">
+        <v>530</v>
+      </c>
+      <c r="AG4" s="167" t="s">
+        <v>530</v>
+      </c>
+      <c r="AH4" s="167" t="s">
+        <v>530</v>
+      </c>
+      <c r="AI4" s="164" t="s">
+        <v>487</v>
+      </c>
+      <c r="AJ4" s="166" t="s">
+        <v>508</v>
+      </c>
+      <c r="AK4" s="164" t="s">
+        <v>525</v>
+      </c>
+      <c r="AL4" s="165" t="s">
+        <v>526</v>
+      </c>
+      <c r="AM4" s="168" t="s">
         <v>531</v>
       </c>
-      <c r="Y4" s="167" t="s">
+      <c r="AN4" s="169" t="s">
         <v>532</v>
       </c>
-      <c r="Z4" s="168" t="s">
+      <c r="AO4" s="165" t="s">
+        <v>527</v>
+      </c>
+      <c r="AP4" s="170" t="s">
+        <v>528</v>
+      </c>
+      <c r="AQ4" s="164" t="s">
         <v>533</v>
       </c>
-      <c r="AA4" s="169" t="s">
-        <v>513</v>
-      </c>
-      <c r="AB4" s="169" t="s">
+      <c r="AR4" s="165" t="s">
         <v>534</v>
       </c>
-      <c r="AC4" s="169" t="s">
+      <c r="AS4" s="165" t="s">
         <v>535</v>
       </c>
-      <c r="AD4" s="169" t="s">
+      <c r="AT4" s="165" t="s">
+        <v>536</v>
+      </c>
+      <c r="AU4" s="165" t="s">
+        <v>537</v>
+      </c>
+      <c r="AV4" s="165" t="s">
+        <v>538</v>
+      </c>
+      <c r="AW4" s="166" t="s">
+        <v>539</v>
+      </c>
+      <c r="AX4" s="164" t="s">
+        <v>519</v>
+      </c>
+      <c r="AY4" s="165" t="s">
+        <v>540</v>
+      </c>
+      <c r="AZ4" s="165" t="s">
+        <v>541</v>
+      </c>
+      <c r="BA4" s="165" t="s">
+        <v>542</v>
+      </c>
+      <c r="BB4" s="165" t="s">
+        <v>520</v>
+      </c>
+      <c r="BC4" s="166" t="s">
+        <v>524</v>
+      </c>
+      <c r="BD4" s="164" t="s">
+        <v>543</v>
+      </c>
+      <c r="BE4" s="165" t="s">
+        <v>498</v>
+      </c>
+      <c r="BF4" s="165" t="s">
+        <v>544</v>
+      </c>
+      <c r="BG4" s="165" t="s">
+        <v>545</v>
+      </c>
+      <c r="BH4" s="165" t="s">
+        <v>546</v>
+      </c>
+      <c r="BI4" s="166" t="s">
+        <v>547</v>
+      </c>
+      <c r="BJ4" s="164" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK4" s="166" t="s">
+        <v>549</v>
+      </c>
+      <c r="BL4" s="167" t="s">
+        <v>508</v>
+      </c>
+      <c r="BM4" s="164" t="s">
+        <v>532</v>
+      </c>
+      <c r="BN4" s="165" t="s">
+        <v>526</v>
+      </c>
+      <c r="BO4" s="166" t="s">
+        <v>525</v>
+      </c>
+      <c r="BP4" s="164" t="s">
+        <v>539</v>
+      </c>
+      <c r="BQ4" s="166" t="s">
+        <v>533</v>
+      </c>
+      <c r="BR4" s="164" t="s">
+        <v>540</v>
+      </c>
+      <c r="BS4" s="165" t="s">
+        <v>519</v>
+      </c>
+      <c r="BT4" s="165" t="s">
+        <v>524</v>
+      </c>
+      <c r="BU4" s="166" t="s">
+        <v>520</v>
+      </c>
+      <c r="BV4" s="164" t="s">
+        <v>546</v>
+      </c>
+      <c r="BW4" s="165" t="s">
+        <v>503</v>
+      </c>
+      <c r="BX4" s="166" t="s">
+        <v>498</v>
+      </c>
+      <c r="BY4" s="167" t="s">
+        <v>550</v>
+      </c>
+      <c r="BZ4" s="167" t="s">
+        <v>508</v>
+      </c>
+      <c r="CA4" s="164" t="s">
+        <v>528</v>
+      </c>
+      <c r="CB4" s="165" t="s">
+        <v>551</v>
+      </c>
+      <c r="CC4" s="165" t="s">
+        <v>531</v>
+      </c>
+      <c r="CD4" s="166" t="s">
+        <v>552</v>
+      </c>
+      <c r="CE4" s="164" t="s">
+        <v>540</v>
+      </c>
+      <c r="CF4" s="165" t="s">
+        <v>541</v>
+      </c>
+      <c r="CG4" s="166" t="s">
+        <v>553</v>
+      </c>
+      <c r="CH4" s="164" t="s">
+        <v>547</v>
+      </c>
+      <c r="CI4" s="165" t="s">
+        <v>500</v>
+      </c>
+      <c r="CJ4" s="165" t="s">
+        <v>498</v>
+      </c>
+      <c r="CK4" s="166" t="s">
+        <v>554</v>
+      </c>
+      <c r="CL4" s="164" t="s">
+        <v>536</v>
+      </c>
+      <c r="CM4" s="165" t="s">
+        <v>555</v>
+      </c>
+      <c r="CN4" s="165" t="s">
         <v>535</v>
       </c>
-      <c r="AE4" s="169" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF4" s="169" t="s">
-        <v>535</v>
-      </c>
-      <c r="AG4" s="169" t="s">
-        <v>535</v>
-      </c>
-      <c r="AH4" s="169" t="s">
-        <v>535</v>
-      </c>
-      <c r="AI4" s="166" t="s">
-        <v>492</v>
-      </c>
-      <c r="AJ4" s="168" t="s">
-        <v>513</v>
-      </c>
-      <c r="AK4" s="166" t="s">
-        <v>530</v>
-      </c>
-      <c r="AL4" s="167" t="s">
-        <v>531</v>
-      </c>
-      <c r="AM4" s="170" t="s">
-        <v>536</v>
-      </c>
-      <c r="AN4" s="171" t="s">
-        <v>537</v>
-      </c>
-      <c r="AO4" s="167" t="s">
-        <v>532</v>
-      </c>
-      <c r="AP4" s="172" t="s">
+      <c r="CO4" s="165" t="s">
+        <v>539</v>
+      </c>
+      <c r="CP4" s="166" t="s">
         <v>533</v>
       </c>
-      <c r="AQ4" s="166" t="s">
-        <v>538</v>
-      </c>
-      <c r="AR4" s="167" t="s">
-        <v>539</v>
-      </c>
-      <c r="AS4" s="167" t="s">
-        <v>540</v>
-      </c>
-      <c r="AT4" s="167" t="s">
-        <v>541</v>
-      </c>
-      <c r="AU4" s="167" t="s">
-        <v>542</v>
-      </c>
-      <c r="AV4" s="167" t="s">
-        <v>543</v>
-      </c>
-      <c r="AW4" s="168" t="s">
-        <v>544</v>
-      </c>
-      <c r="AX4" s="166" t="s">
-        <v>524</v>
-      </c>
-      <c r="AY4" s="167" t="s">
-        <v>545</v>
-      </c>
-      <c r="AZ4" s="167" t="s">
-        <v>546</v>
-      </c>
-      <c r="BA4" s="167" t="s">
-        <v>547</v>
-      </c>
-      <c r="BB4" s="167" t="s">
-        <v>525</v>
-      </c>
-      <c r="BC4" s="168" t="s">
-        <v>529</v>
-      </c>
-      <c r="BD4" s="166" t="s">
+      <c r="CQ4" s="164" t="s">
+        <v>556</v>
+      </c>
+      <c r="CR4" s="166" t="s">
         <v>548</v>
       </c>
-      <c r="BE4" s="167" t="s">
-        <v>503</v>
-      </c>
-      <c r="BF4" s="167" t="s">
-        <v>549</v>
-      </c>
-      <c r="BG4" s="167" t="s">
-        <v>550</v>
-      </c>
-      <c r="BH4" s="167" t="s">
-        <v>551</v>
-      </c>
-      <c r="BI4" s="168" t="s">
-        <v>552</v>
-      </c>
-      <c r="BJ4" s="166" t="s">
-        <v>553</v>
-      </c>
-      <c r="BK4" s="168" t="s">
-        <v>554</v>
-      </c>
-      <c r="BL4" s="169" t="s">
-        <v>513</v>
-      </c>
-      <c r="BM4" s="166" t="s">
-        <v>537</v>
-      </c>
-      <c r="BN4" s="167" t="s">
-        <v>531</v>
-      </c>
-      <c r="BO4" s="168" t="s">
-        <v>530</v>
-      </c>
-      <c r="BP4" s="166" t="s">
-        <v>544</v>
-      </c>
-      <c r="BQ4" s="168" t="s">
-        <v>538</v>
-      </c>
-      <c r="BR4" s="166" t="s">
-        <v>545</v>
-      </c>
-      <c r="BS4" s="167" t="s">
-        <v>524</v>
-      </c>
-      <c r="BT4" s="167" t="s">
-        <v>529</v>
-      </c>
-      <c r="BU4" s="168" t="s">
-        <v>525</v>
-      </c>
-      <c r="BV4" s="166" t="s">
-        <v>551</v>
-      </c>
-      <c r="BW4" s="167" t="s">
-        <v>508</v>
-      </c>
-      <c r="BX4" s="168" t="s">
-        <v>503</v>
-      </c>
-      <c r="BY4" s="169" t="s">
-        <v>555</v>
-      </c>
-      <c r="BZ4" s="169" t="s">
-        <v>513</v>
-      </c>
-      <c r="CA4" s="166" t="s">
-        <v>533</v>
-      </c>
-      <c r="CB4" s="167" t="s">
-        <v>556</v>
-      </c>
-      <c r="CC4" s="167" t="s">
-        <v>536</v>
-      </c>
-      <c r="CD4" s="168" t="s">
-        <v>557</v>
-      </c>
-      <c r="CE4" s="166" t="s">
-        <v>545</v>
-      </c>
-      <c r="CF4" s="167" t="s">
-        <v>546</v>
-      </c>
-      <c r="CG4" s="168" t="s">
-        <v>558</v>
-      </c>
-      <c r="CH4" s="166" t="s">
-        <v>552</v>
-      </c>
-      <c r="CI4" s="167" t="s">
-        <v>505</v>
-      </c>
-      <c r="CJ4" s="167" t="s">
-        <v>503</v>
-      </c>
-      <c r="CK4" s="168" t="s">
-        <v>559</v>
-      </c>
-      <c r="CL4" s="166" t="s">
-        <v>541</v>
-      </c>
-      <c r="CM4" s="167" t="s">
-        <v>560</v>
-      </c>
-      <c r="CN4" s="167" t="s">
-        <v>540</v>
-      </c>
-      <c r="CO4" s="167" t="s">
-        <v>544</v>
-      </c>
-      <c r="CP4" s="168" t="s">
-        <v>538</v>
-      </c>
-      <c r="CQ4" s="166" t="s">
-        <v>561</v>
-      </c>
-      <c r="CR4" s="168" t="s">
-        <v>553</v>
-      </c>
-      <c r="CS4" s="169" t="s">
+      <c r="CS4" s="167" t="s">
         <v>48</v>
       </c>
     </row>
@@ -20741,9 +20492,9 @@
       <c r="C5" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="210"/>
+      <c r="D5" s="207"/>
       <c r="E5" s="60" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>253</v>
@@ -21032,10 +20783,10 @@
       <c r="C6" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="137"/>
+      <c r="D6" s="136"/>
       <c r="E6" s="3"/>
       <c r="F6" s="19" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G6" s="61" t="s">
         <v>247</v>
@@ -21321,9 +21072,9 @@
       <c r="C7" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D7" s="137"/>
+      <c r="D7" s="136"/>
       <c r="E7" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>253</v>
@@ -21612,9 +21363,9 @@
       <c r="C8" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D8" s="211"/>
+      <c r="D8" s="208"/>
       <c r="E8" s="74" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>253</v>
@@ -21894,103 +21645,103 @@
       </c>
     </row>
     <row r="9" spans="1:104" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="102" t="s">
-        <v>565</v>
-      </c>
-      <c r="B9" s="103" t="s">
-        <v>566</v>
-      </c>
-      <c r="C9" s="104" t="s">
-        <v>567</v>
-      </c>
-      <c r="D9" s="211"/>
-      <c r="E9" s="106" t="s">
-        <v>568</v>
-      </c>
-      <c r="F9" s="105" t="s">
+      <c r="A9" s="101" t="s">
+        <v>560</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>561</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="D9" s="208"/>
+      <c r="E9" s="105" t="s">
+        <v>563</v>
+      </c>
+      <c r="F9" s="104" t="s">
         <v>253</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="222"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="100"/>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="100"/>
-      <c r="AA9" s="100"/>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="100"/>
-      <c r="AD9" s="100"/>
-      <c r="AE9" s="100"/>
-      <c r="AF9" s="100"/>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="100"/>
-      <c r="AJ9" s="100"/>
-      <c r="AK9" s="100"/>
-      <c r="AL9" s="100"/>
-      <c r="AM9" s="100"/>
-      <c r="AN9" s="100"/>
-      <c r="AO9" s="100"/>
-      <c r="AP9" s="100"/>
-      <c r="AQ9" s="100"/>
-      <c r="AR9" s="100"/>
-      <c r="AS9" s="100"/>
-      <c r="AT9" s="100"/>
-      <c r="AU9" s="100"/>
-      <c r="AV9" s="100"/>
-      <c r="AW9" s="100"/>
-      <c r="AX9" s="100"/>
-      <c r="AY9" s="100"/>
-      <c r="AZ9" s="100"/>
-      <c r="BA9" s="100"/>
-      <c r="BB9" s="100"/>
-      <c r="BC9" s="100"/>
-      <c r="BD9" s="100"/>
-      <c r="BE9" s="100"/>
-      <c r="BF9" s="100"/>
-      <c r="BG9" s="100"/>
-      <c r="BH9" s="100"/>
-      <c r="BI9" s="100"/>
-      <c r="BJ9" s="100"/>
-      <c r="BK9" s="100"/>
-      <c r="BL9" s="100"/>
-      <c r="BM9" s="100"/>
-      <c r="BN9" s="100"/>
-      <c r="BO9" s="100"/>
-      <c r="BP9" s="100"/>
-      <c r="BQ9" s="100"/>
-      <c r="BR9" s="100"/>
-      <c r="BS9" s="100"/>
-      <c r="BT9" s="100"/>
-      <c r="BU9" s="100"/>
-      <c r="BV9" s="100"/>
-      <c r="BW9" s="100"/>
-      <c r="BX9" s="100"/>
-      <c r="BY9" s="100"/>
-      <c r="BZ9" s="100"/>
-      <c r="CA9" s="100"/>
-      <c r="CB9" s="100"/>
-      <c r="CC9" s="100"/>
-      <c r="CD9" s="100"/>
-      <c r="CE9" s="100"/>
-      <c r="CF9" s="100"/>
-      <c r="CG9" s="100"/>
-      <c r="CH9" s="100"/>
-      <c r="CI9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="219"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="99"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="99"/>
+      <c r="AI9" s="99"/>
+      <c r="AJ9" s="99"/>
+      <c r="AK9" s="99"/>
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="99"/>
+      <c r="AN9" s="99"/>
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="99"/>
+      <c r="AQ9" s="99"/>
+      <c r="AR9" s="99"/>
+      <c r="AS9" s="99"/>
+      <c r="AT9" s="99"/>
+      <c r="AU9" s="99"/>
+      <c r="AV9" s="99"/>
+      <c r="AW9" s="99"/>
+      <c r="AX9" s="99"/>
+      <c r="AY9" s="99"/>
+      <c r="AZ9" s="99"/>
+      <c r="BA9" s="99"/>
+      <c r="BB9" s="99"/>
+      <c r="BC9" s="99"/>
+      <c r="BD9" s="99"/>
+      <c r="BE9" s="99"/>
+      <c r="BF9" s="99"/>
+      <c r="BG9" s="99"/>
+      <c r="BH9" s="99"/>
+      <c r="BI9" s="99"/>
+      <c r="BJ9" s="99"/>
+      <c r="BK9" s="99"/>
+      <c r="BL9" s="99"/>
+      <c r="BM9" s="99"/>
+      <c r="BN9" s="99"/>
+      <c r="BO9" s="99"/>
+      <c r="BP9" s="99"/>
+      <c r="BQ9" s="99"/>
+      <c r="BR9" s="99"/>
+      <c r="BS9" s="99"/>
+      <c r="BT9" s="99"/>
+      <c r="BU9" s="99"/>
+      <c r="BV9" s="99"/>
+      <c r="BW9" s="99"/>
+      <c r="BX9" s="99"/>
+      <c r="BY9" s="99"/>
+      <c r="BZ9" s="99"/>
+      <c r="CA9" s="99"/>
+      <c r="CB9" s="99"/>
+      <c r="CC9" s="99"/>
+      <c r="CD9" s="99"/>
+      <c r="CE9" s="99"/>
+      <c r="CF9" s="99"/>
+      <c r="CG9" s="99"/>
+      <c r="CH9" s="99"/>
+      <c r="CI9" s="99"/>
       <c r="CJ9" s="72"/>
       <c r="CK9" s="72"/>
       <c r="CL9" s="72"/>
@@ -22065,67 +21816,67 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="238" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="229"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="240"/>
       <c r="F1" s="75" t="s">
+        <v>564</v>
+      </c>
+      <c r="G1" s="254" t="s">
+        <v>565</v>
+      </c>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
+      <c r="N1" s="255"/>
+      <c r="O1" s="255"/>
+      <c r="P1" s="256"/>
+      <c r="Q1" s="254" t="s">
+        <v>566</v>
+      </c>
+      <c r="R1" s="256"/>
+      <c r="S1" s="254" t="s">
+        <v>567</v>
+      </c>
+      <c r="T1" s="256"/>
+      <c r="U1" s="252" t="s">
+        <v>568</v>
+      </c>
+      <c r="V1" s="253"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="258" t="s">
         <v>569</v>
       </c>
-      <c r="G1" s="243" t="s">
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="76" t="s">
         <v>570</v>
       </c>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="245"/>
-      <c r="Q1" s="243" t="s">
+      <c r="AA1" s="252" t="s">
         <v>571</v>
       </c>
-      <c r="R1" s="245"/>
-      <c r="S1" s="243" t="s">
+      <c r="AB1" s="253"/>
+      <c r="AC1" s="253"/>
+      <c r="AD1" s="253"/>
+      <c r="AE1" s="257"/>
+      <c r="AF1" s="252" t="s">
         <v>572</v>
       </c>
-      <c r="T1" s="245"/>
-      <c r="U1" s="241" t="s">
+      <c r="AG1" s="253"/>
+      <c r="AH1" s="76" t="s">
         <v>573</v>
       </c>
-      <c r="V1" s="242"/>
-      <c r="W1" s="246"/>
-      <c r="X1" s="247" t="s">
-        <v>574</v>
-      </c>
-      <c r="Y1" s="248"/>
-      <c r="Z1" s="76" t="s">
-        <v>575</v>
-      </c>
-      <c r="AA1" s="241" t="s">
-        <v>576</v>
-      </c>
-      <c r="AB1" s="242"/>
-      <c r="AC1" s="242"/>
-      <c r="AD1" s="242"/>
-      <c r="AE1" s="246"/>
-      <c r="AF1" s="241" t="s">
-        <v>577</v>
-      </c>
-      <c r="AG1" s="242"/>
-      <c r="AH1" s="76" t="s">
-        <v>578</v>
-      </c>
-      <c r="AI1" s="243" t="s">
-        <v>578</v>
-      </c>
-      <c r="AJ1" s="244"/>
-      <c r="AK1" s="245"/>
+      <c r="AI1" s="254" t="s">
+        <v>573</v>
+      </c>
+      <c r="AJ1" s="255"/>
+      <c r="AK1" s="256"/>
     </row>
     <row r="2" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -22134,123 +21885,123 @@
       <c r="B2" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>577</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>578</v>
+      </c>
+      <c r="H2" s="78" t="s">
         <v>579</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="I2" s="78" t="s">
         <v>580</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="J2" s="78" t="s">
         <v>581</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="K2" s="78" t="s">
         <v>582</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="L2" s="78" t="s">
         <v>583</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="M2" s="78" t="s">
         <v>584</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="N2" s="78" t="s">
         <v>585</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="O2" s="78" t="s">
         <v>586</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="P2" s="79" t="s">
         <v>587</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="Q2" s="80" t="s">
         <v>588</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="R2" s="79" t="s">
         <v>589</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="S2" s="163" t="s">
         <v>590</v>
       </c>
-      <c r="O2" s="78" t="s">
+      <c r="T2" s="159" t="s">
         <v>591</v>
       </c>
-      <c r="P2" s="79" t="s">
+      <c r="U2" s="80" t="s">
         <v>592</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="V2" s="78" t="s">
         <v>593</v>
       </c>
-      <c r="R2" s="79" t="s">
+      <c r="W2" s="159" t="s">
         <v>594</v>
       </c>
-      <c r="S2" s="165" t="s">
+      <c r="X2" s="160" t="s">
         <v>595</v>
       </c>
-      <c r="T2" s="161" t="s">
+      <c r="Y2" s="159" t="s">
         <v>596</v>
       </c>
-      <c r="U2" s="80" t="s">
+      <c r="Z2" s="158" t="s">
         <v>597</v>
       </c>
-      <c r="V2" s="78" t="s">
+      <c r="AA2" s="161" t="s">
         <v>598</v>
       </c>
-      <c r="W2" s="161" t="s">
+      <c r="AB2" s="161" t="s">
         <v>599</v>
       </c>
-      <c r="X2" s="162" t="s">
+      <c r="AC2" s="81" t="s">
         <v>600</v>
       </c>
-      <c r="Y2" s="161" t="s">
+      <c r="AD2" s="161" t="s">
         <v>601</v>
       </c>
-      <c r="Z2" s="160" t="s">
+      <c r="AE2" s="162" t="s">
         <v>602</v>
       </c>
-      <c r="AA2" s="163" t="s">
+      <c r="AF2" s="80" t="s">
         <v>603</v>
       </c>
-      <c r="AB2" s="163" t="s">
+      <c r="AG2" s="79" t="s">
         <v>604</v>
       </c>
-      <c r="AC2" s="81" t="s">
+      <c r="AH2" s="158" t="s">
         <v>605</v>
       </c>
-      <c r="AD2" s="163" t="s">
+      <c r="AI2" s="81" t="s">
         <v>606</v>
       </c>
-      <c r="AE2" s="164" t="s">
+      <c r="AJ2" s="81" t="s">
         <v>607</v>
       </c>
-      <c r="AF2" s="80" t="s">
+      <c r="AK2" s="81" t="s">
         <v>608</v>
-      </c>
-      <c r="AG2" s="79" t="s">
-        <v>609</v>
-      </c>
-      <c r="AH2" s="160" t="s">
-        <v>610</v>
-      </c>
-      <c r="AI2" s="81" t="s">
-        <v>611</v>
-      </c>
-      <c r="AJ2" s="81" t="s">
-        <v>612</v>
-      </c>
-      <c r="AK2" s="81" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>353</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="108" t="s">
         <v>354</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="106" t="s">
         <v>334</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="17" t="s">
         <v>253</v>
       </c>
@@ -22259,14 +22010,14 @@
       <c r="A4" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B4" s="113" t="s">
-        <v>614</v>
-      </c>
-      <c r="C4" s="108" t="s">
+      <c r="B4" s="112" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" s="107" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="111" t="s">
-        <v>615</v>
+      <c r="D4" s="110" t="s">
+        <v>610</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>253</v>
@@ -22276,13 +22027,13 @@
       <c r="A5" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="107" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="111"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="19" t="s">
         <v>253</v>
       </c>
@@ -22324,15 +22075,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="02237a53-3673-4259-ae6b-dcce6b85ae6a" xsi:nil="true"/>
@@ -22343,7 +22085,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010078D5F2C574E91E409EB7AA1D53A2A54F" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8a025d8e68d08e665044bb9f3646585e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e61fca3e-63dc-42dc-ae10-62e289bce515" xmlns:ns3="02237a53-3673-4259-ae6b-dcce6b85ae6a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a5e97fdc04dbbafb76e2cde9050b92e7" ns2:_="" ns3:_="">
     <xsd:import namespace="e61fca3e-63dc-42dc-ae10-62e289bce515"/>
@@ -22572,15 +22314,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296D2E87-38D5-4196-BF9E-FE9D2F33D915}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52CC966B-7637-4892-A3C5-0DC12D537A47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -22591,7 +22334,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B676A661-7DF1-4DCA-A065-24A5582C04F4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22608,4 +22351,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296D2E87-38D5-4196-BF9E-FE9D2F33D915}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>